--- a/priceFromBase.xlsx
+++ b/priceFromBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mobil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mobil\Desktop\Price Scripts\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1178E8D7-7B1D-45CD-B541-328AF1FFE89F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB3EC0-0D93-4B5F-A7BF-12FC95A6DE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1440" windowWidth="22515" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2265" windowWidth="22515" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="306">
   <si>
     <t>Код</t>
   </si>
@@ -222,12 +222,6 @@
     <t>OnePlus Nord CE 3 12/256 Aqua Surge EU</t>
   </si>
   <si>
-    <t>860919073148801</t>
-  </si>
-  <si>
-    <t>Pocophone M6 4G 6/128 Silver EU</t>
-  </si>
-  <si>
     <t>901693</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>Пломбa Samsung S</t>
   </si>
   <si>
-    <t>1000402</t>
-  </si>
-  <si>
     <t>Пломба</t>
   </si>
   <si>
@@ -312,18 +303,6 @@
     <t>Пломба iPhone 13 Pro Max</t>
   </si>
   <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>Пломба iPhone 14 Pro</t>
-  </si>
-  <si>
-    <t>212121</t>
-  </si>
-  <si>
-    <t>Пломба Z Fold 5</t>
-  </si>
-  <si>
     <t>DT0093-LN0138815</t>
   </si>
   <si>
@@ -348,9 +327,6 @@
     <t>Apple AirPods 2 Wireless "B"</t>
   </si>
   <si>
-    <t>869105054131955</t>
-  </si>
-  <si>
     <t>4948872415682</t>
   </si>
   <si>
@@ -360,9 +336,6 @@
     <t>SHH4YF07MWD</t>
   </si>
   <si>
-    <t>OnePlus 10 Pro 8/256 Black "B"</t>
-  </si>
-  <si>
     <t>H15LCKRMJJNV</t>
   </si>
   <si>
@@ -420,15 +393,6 @@
     <t>Apple MacBook Air 13 (2020 - MVH52) i5 8/512 Gold "B"</t>
   </si>
   <si>
-    <t>351676562691230</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A35 5G 8/256 IceBlue LZ</t>
-  </si>
-  <si>
-    <t>351676562695462</t>
-  </si>
-  <si>
     <t>865513054138959</t>
   </si>
   <si>
@@ -462,12 +426,6 @@
     <t>Pocophone C61 4/128 White RU</t>
   </si>
   <si>
-    <t>356545106151107</t>
-  </si>
-  <si>
-    <t>Apple iPhone 11 64 Green "B+"</t>
-  </si>
-  <si>
     <t>353047111920199</t>
   </si>
   <si>
@@ -579,12 +537,6 @@
     <t>Shokz OpenSwim Pro Coral Sea CN</t>
   </si>
   <si>
-    <t>350524543158054</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A35 5G 8/128 Lilac KZ</t>
-  </si>
-  <si>
     <t>Apple MacBook Air 13 (2017 - MQD32) 8/128 Silver "C"</t>
   </si>
   <si>
@@ -594,21 +546,6 @@
     <t>SC02ZK00ELYWM</t>
   </si>
   <si>
-    <t>S7004230019463</t>
-  </si>
-  <si>
-    <t>Shokz OpenSwim Black</t>
-  </si>
-  <si>
-    <t>S7004320348453</t>
-  </si>
-  <si>
-    <t>S7004310165173</t>
-  </si>
-  <si>
-    <t>S7004320348373</t>
-  </si>
-  <si>
     <t>351398419511640</t>
   </si>
   <si>
@@ -657,18 +594,12 @@
     <t>Pocophone X6 5G 12/256 Blue EU</t>
   </si>
   <si>
-    <t>Samsung Galaxy A15 4/128 Blue AA</t>
-  </si>
-  <si>
     <t>350900921298011</t>
   </si>
   <si>
     <t>Samsung Galaxy A15 4/128 Blue/Black AA</t>
   </si>
   <si>
-    <t>350900921369598</t>
-  </si>
-  <si>
     <t>350900921982911</t>
   </si>
   <si>
@@ -693,33 +624,12 @@
     <t>Google Pixel 8a 8/128 Black  "A"</t>
   </si>
   <si>
-    <t>356370167328753</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Pro Max 128 Blue "A"</t>
-  </si>
-  <si>
-    <t>S7004320348363</t>
-  </si>
-  <si>
-    <t>S7004340032503</t>
-  </si>
-  <si>
     <t>354248582072002</t>
   </si>
   <si>
     <t>Apple iPhone 14 128 Purple "A"</t>
   </si>
   <si>
-    <t>350900921401433</t>
-  </si>
-  <si>
-    <t>867302075862443</t>
-  </si>
-  <si>
-    <t>Xiaomi Redmi Note 13 Pro Plus 5G 12/512 Black EU</t>
-  </si>
-  <si>
     <t>862086072029206</t>
   </si>
   <si>
@@ -744,9 +654,6 @@
     <t>C02CM175ML7J</t>
   </si>
   <si>
-    <t>Apple MacBook Pro 13 (2020 - MWP52) i5 16/1TB T/Bar "A"</t>
-  </si>
-  <si>
     <t>358265588870623</t>
   </si>
   <si>
@@ -777,12 +684,6 @@
     <t>351676567602042</t>
   </si>
   <si>
-    <t>350411875805660</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S23 FE 5G 8/256 Graphite HN</t>
-  </si>
-  <si>
     <t>861474077752447</t>
   </si>
   <si>
@@ -825,33 +726,12 @@
     <t>350100281815971</t>
   </si>
   <si>
-    <t>S01E448012ZS10418715</t>
-  </si>
-  <si>
-    <t>Sony PlayStation 5 Slim Disc Edition J/A</t>
-  </si>
-  <si>
-    <t>863490073734203</t>
-  </si>
-  <si>
-    <t>Xiaomi Redmi 14C 4/128 Purple RU</t>
-  </si>
-  <si>
     <t>Samsung Galaxy A55 5G 8/128 Navy AA</t>
   </si>
   <si>
-    <t>SKM7NX5D2N3</t>
-  </si>
-  <si>
     <t>Apple AirPods 4 ANC</t>
   </si>
   <si>
-    <t>SJ09JJH7VP7</t>
-  </si>
-  <si>
-    <t>Apple iPad 9 (2021) 64 Wi-Fi Gray LL/A</t>
-  </si>
-  <si>
     <t>353267569358342</t>
   </si>
   <si>
@@ -861,33 +741,9 @@
     <t>Xiaomi 13T Pro 5G 12/512 Black "A"</t>
   </si>
   <si>
-    <t>353919104704436</t>
-  </si>
-  <si>
-    <t>Apple iPhone 11 Pro Max 256 Green "A-"</t>
-  </si>
-  <si>
-    <t>358027171102776</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Mini 64 Red "A-"</t>
-  </si>
-  <si>
     <t>357149972912509</t>
   </si>
   <si>
-    <t>356840673469200</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 1TB Natural "Обменка" J/A</t>
-  </si>
-  <si>
-    <t>s01e4470161b11143220</t>
-  </si>
-  <si>
-    <t>S01f44401fxL10735417</t>
-  </si>
-  <si>
     <t>353818879812947</t>
   </si>
   <si>
@@ -915,22 +771,184 @@
     <t>Apple iPhone 14 Pro Max 512 Gold Dual Sim "A"</t>
   </si>
   <si>
-    <t>867826063747687</t>
-  </si>
-  <si>
-    <t>Pocophone F6 Pro 5G 12/512 White EU</t>
-  </si>
-  <si>
-    <t>355765680932117</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 5G 8/512 Gray MY</t>
-  </si>
-  <si>
-    <t>353472171698172</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Plus 12/512 Violet MY</t>
+    <t>SH17N68KRLX2Y</t>
+  </si>
+  <si>
+    <t>Apple AirPods 2</t>
+  </si>
+  <si>
+    <t>SH3MN61Q3LX2Y</t>
+  </si>
+  <si>
+    <t>SFWNPY9GH4Q</t>
+  </si>
+  <si>
+    <t>Apple AirPods 3 Lightning</t>
+  </si>
+  <si>
+    <t>SL7N974YYFN</t>
+  </si>
+  <si>
+    <t>Apple AirPods 4</t>
+  </si>
+  <si>
+    <t>SHTPCQDJ6CX</t>
+  </si>
+  <si>
+    <t>SF5H2LMXRWG</t>
+  </si>
+  <si>
+    <t>SG40G7RX6MM</t>
+  </si>
+  <si>
+    <t>SDW5R6M90H1</t>
+  </si>
+  <si>
+    <t>SGFNH0WHHY2</t>
+  </si>
+  <si>
+    <t>SLM2M4FT415</t>
+  </si>
+  <si>
+    <t>SDQ936D07J9</t>
+  </si>
+  <si>
+    <t>355031864805177</t>
+  </si>
+  <si>
+    <t>Apple iPhone 11 128 Black RM/A</t>
+  </si>
+  <si>
+    <t>354489170641309</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 128 Green HN/A</t>
+  </si>
+  <si>
+    <t>355123375833150</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 256 Starlight "B-"</t>
+  </si>
+  <si>
+    <t>359757420618896</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 128 Black HN/A</t>
+  </si>
+  <si>
+    <t>351069587578733</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 128 Green HN/A</t>
+  </si>
+  <si>
+    <t>354553640266383</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 256 Black J/A</t>
+  </si>
+  <si>
+    <t>355741506640655</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 256 Desert J/A</t>
+  </si>
+  <si>
+    <t>357988126970065</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256 Black J/A</t>
+  </si>
+  <si>
+    <t>359974600135712</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256 White J/A</t>
+  </si>
+  <si>
+    <t>Apple MacBook Pro 13 (2020 - MWP52) i5 16/1TB T/Bar "B"</t>
+  </si>
+  <si>
+    <t>353235522188114</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A25 5G 8/256 Light Blue AA</t>
+  </si>
+  <si>
+    <t>355326629696378</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A55 5G 12/256 IceBlue MY</t>
+  </si>
+  <si>
+    <t>356174380512288</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A55 5G 12/256 Lilac MY</t>
+  </si>
+  <si>
+    <t>350100283039588</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A55 5G 8/128 IceBlue AA</t>
+  </si>
+  <si>
+    <t>350100283161234</t>
+  </si>
+  <si>
+    <t>35872560770366</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S22 Ultra 5G 12/256 Black "C"</t>
+  </si>
+  <si>
+    <t>354267934783686</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G 8/256 Gray HK</t>
+  </si>
+  <si>
+    <t>353302722734343</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 FE 5G 8/256 Mint AA</t>
+  </si>
+  <si>
+    <t>869254072525267</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 13 Pro 4G 8/256 Black EU</t>
+  </si>
+  <si>
+    <t>867469070600068</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 13 Pro 4G 8/256 Green EU</t>
+  </si>
+  <si>
+    <t>861343071206405</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 13 Pro 5G 8/256 Black UK</t>
+  </si>
+  <si>
+    <t>862086076286661</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 13 Pro Plus 5G 8/256 Black EU</t>
+  </si>
+  <si>
+    <t>4670028541098</t>
+  </si>
+  <si>
+    <t>Яндекс Станция Max с Zigbee Beige RU</t>
+  </si>
+  <si>
+    <t>4670028541074</t>
+  </si>
+  <si>
+    <t>Яндекс Станция Max с Zigbee Black RU</t>
   </si>
 </sst>
 </file>
@@ -967,7 +985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1245,26 +1263,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1385,25 +1388,18 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1688,3309 +1684,3340 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H160"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:8" ht="78" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="54" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="56">
+        <v>9200</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56">
+        <v>9600</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="56">
+        <v>9200</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56">
+        <v>9600</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D4" s="56">
         <v>3150</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56">
         <v>4500</v>
       </c>
-      <c r="H2" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="H4" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="56">
+        <v>2766</v>
+      </c>
+      <c r="E5" s="56">
+        <v>2990</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56">
+        <v>3000</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="56">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="56">
+        <v>2990</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="56">
+        <v>3150</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56">
+        <v>4500</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="56">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56">
+        <v>4500</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="56">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="56">
+        <v>1990</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="56">
+        <v>12500</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56">
+        <v>13200</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="56">
+        <v>5034</v>
+      </c>
+      <c r="E11" s="56">
+        <v>12990</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="56">
+        <v>5033</v>
+      </c>
+      <c r="E12" s="56">
+        <v>5990</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56">
+        <v>5500</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="56">
+        <v>13800</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56">
+        <v>14500</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="56">
+        <v>13800</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56">
+        <v>14500</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="56">
+        <v>13800</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56">
+        <v>14500</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="56">
+        <v>13800</v>
+      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56">
+        <v>14500</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="56">
+        <v>16972</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56">
+        <v>18100</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="56">
+        <v>17400</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56">
+        <v>18100</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="56">
+        <v>17400</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56">
+        <v>18100</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="56">
+        <v>17400</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56">
+        <v>18100</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="56">
+        <v>16300</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="56">
+        <v>18990</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56">
+        <v>17000</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="56">
+        <v>41000</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="56">
+        <v>38099</v>
+      </c>
+      <c r="E24" s="56">
+        <v>30990</v>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56">
+        <v>30000</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="56">
+        <v>27500</v>
+      </c>
+      <c r="E25" s="56">
+        <v>29990</v>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56">
+        <v>29000</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="56">
+        <v>31000</v>
+      </c>
+      <c r="E26" s="56">
+        <v>37990</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56">
+        <v>36000</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="56">
+        <v>51600</v>
+      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56">
+        <v>52200</v>
+      </c>
+      <c r="H27" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="56">
+        <v>30000</v>
+      </c>
+      <c r="E28" s="56">
+        <v>37990</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56">
+        <v>36000</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="56">
+        <v>29000</v>
+      </c>
+      <c r="E29" s="56">
+        <v>37990</v>
+      </c>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56">
+        <v>36000</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="56">
+        <v>36500</v>
+      </c>
+      <c r="E30" s="56">
+        <v>43990</v>
+      </c>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56">
+        <v>42000</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="56">
+        <v>46519</v>
+      </c>
+      <c r="E31" s="56">
+        <v>47990</v>
+      </c>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56">
+        <v>46200</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="56">
+        <v>25500</v>
+      </c>
+      <c r="E32" s="56">
+        <v>26990</v>
+      </c>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56">
+        <v>26000</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="56">
+        <v>41000</v>
+      </c>
+      <c r="E33" s="56">
+        <v>43990</v>
+      </c>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56">
+        <v>43000</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="56">
+        <v>38000</v>
+      </c>
+      <c r="E34" s="56">
+        <v>43990</v>
+      </c>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56">
+        <v>43000</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="56">
+        <v>36000</v>
+      </c>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="56">
+        <v>57000</v>
+      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="56">
+        <v>64900</v>
+      </c>
+      <c r="E37" s="56">
+        <v>66990</v>
+      </c>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56">
+        <v>65000</v>
+      </c>
+      <c r="H37" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="56">
+        <v>62000</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="56">
+        <v>67000</v>
+      </c>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="56">
+        <v>66800</v>
+      </c>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56">
+        <v>67500</v>
+      </c>
+      <c r="H40" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="56">
+        <v>107000</v>
+      </c>
+      <c r="E41" s="56">
+        <v>109990</v>
+      </c>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56">
+        <v>108000</v>
+      </c>
+      <c r="H41" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" s="56">
+        <v>117800</v>
+      </c>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56">
+        <v>118500</v>
+      </c>
+      <c r="H42" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="D43" s="56">
+        <v>117500</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56">
+        <v>118500</v>
+      </c>
+      <c r="H43" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" s="56">
+        <v>131500</v>
+      </c>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56">
+        <v>132000</v>
+      </c>
+      <c r="H44" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D45" s="56">
+        <v>130500</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56">
+        <v>131500</v>
+      </c>
+      <c r="H45" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="56">
+        <v>27384</v>
+      </c>
+      <c r="E46" s="56">
+        <v>35990</v>
+      </c>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56">
+        <v>35000</v>
+      </c>
+      <c r="H46" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="56">
+        <v>17839</v>
+      </c>
+      <c r="E47" s="56">
+        <v>26990</v>
+      </c>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56">
+        <v>25000</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="56">
+        <v>17000</v>
+      </c>
+      <c r="E48" s="56">
+        <v>29990</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56">
+        <v>27000</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="56">
+        <v>35262</v>
+      </c>
+      <c r="E49" s="56">
+        <v>43990</v>
+      </c>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56">
+        <v>42000</v>
+      </c>
+      <c r="H49" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="56">
+        <v>50089</v>
+      </c>
+      <c r="E50" s="56">
+        <v>55990</v>
+      </c>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56">
+        <v>54000</v>
+      </c>
+      <c r="H50" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="56">
+        <v>65099</v>
+      </c>
+      <c r="E51" s="56">
+        <v>68990</v>
+      </c>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56">
+        <v>67000</v>
+      </c>
+      <c r="H51" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="56">
+        <v>49929</v>
+      </c>
+      <c r="E52" s="56">
+        <v>55990</v>
+      </c>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56">
+        <v>53000</v>
+      </c>
+      <c r="H52" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="56">
+        <v>49427</v>
+      </c>
+      <c r="E53" s="56">
+        <v>54990</v>
+      </c>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56">
+        <v>53000</v>
+      </c>
+      <c r="H53" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="56">
+        <v>69752</v>
+      </c>
+      <c r="E54" s="56">
+        <v>72990</v>
+      </c>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56">
+        <v>71000</v>
+      </c>
+      <c r="H54" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="56">
+        <v>88984</v>
+      </c>
+      <c r="E55" s="56">
+        <v>93990</v>
+      </c>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56">
+        <v>91000</v>
+      </c>
+      <c r="H55" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="56">
+        <v>30262</v>
+      </c>
+      <c r="E56" s="56">
+        <v>39990</v>
+      </c>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56">
+        <v>38000</v>
+      </c>
+      <c r="H56" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="56">
+        <v>45000</v>
+      </c>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" s="56">
+        <v>80000</v>
+      </c>
+      <c r="E58" s="56">
+        <v>89990</v>
+      </c>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56">
+        <v>87000</v>
+      </c>
+      <c r="H58" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="56">
+        <v>60499</v>
+      </c>
+      <c r="E59" s="56">
+        <v>67990</v>
+      </c>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56">
+        <v>66000</v>
+      </c>
+      <c r="H59" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="56">
+        <v>80000</v>
+      </c>
+      <c r="E60" s="56">
+        <v>86990</v>
+      </c>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56">
+        <v>85000</v>
+      </c>
+      <c r="H60" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="56">
+        <v>115000</v>
+      </c>
+      <c r="E61" s="56">
+        <v>122990</v>
+      </c>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56">
+        <v>120000</v>
+      </c>
+      <c r="H61" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="56">
+        <v>36500</v>
+      </c>
+      <c r="E62" s="56">
+        <v>34990</v>
+      </c>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56">
+        <v>34000</v>
+      </c>
+      <c r="H62" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="56">
+        <v>49099</v>
+      </c>
+      <c r="E63" s="56">
+        <v>48990</v>
+      </c>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56">
+        <v>48000</v>
+      </c>
+      <c r="H63" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="D64" s="56">
+        <v>45001</v>
+      </c>
+      <c r="E64" s="56">
+        <v>54990</v>
+      </c>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56">
+        <v>52000</v>
+      </c>
+      <c r="H64" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="56">
+        <v>138600</v>
+      </c>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56">
+        <v>138600</v>
+      </c>
+      <c r="H65" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="56">
+        <v>38500</v>
+      </c>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56">
+        <v>30000</v>
+      </c>
+      <c r="H66" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="56">
+        <v>15000</v>
+      </c>
+      <c r="E67" s="56">
+        <v>20990</v>
+      </c>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56">
+        <v>20000</v>
+      </c>
+      <c r="H67" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H68" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H69" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H70" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H71" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H72" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H73" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H74" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H75" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H76" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H77" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H78" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H79" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="56">
+        <v>5700</v>
+      </c>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56">
+        <v>6800</v>
+      </c>
+      <c r="H80" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="56">
+        <v>3063</v>
+      </c>
+      <c r="E81" s="56">
+        <v>4390</v>
+      </c>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56">
+        <v>3800</v>
+      </c>
+      <c r="H81" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" s="56">
+        <v>13000</v>
+      </c>
+      <c r="E82" s="56">
+        <v>23990</v>
+      </c>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56">
+        <v>21000</v>
+      </c>
+      <c r="H82" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" s="56">
+        <v>28000</v>
+      </c>
+      <c r="E83" s="56">
+        <v>34990</v>
+      </c>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56">
+        <v>33000</v>
+      </c>
+      <c r="H83" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="56">
+        <v>91600</v>
+      </c>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56">
+        <v>94000</v>
+      </c>
+      <c r="H84" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" s="56">
+        <v>11000</v>
+      </c>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56">
+        <v>12800</v>
+      </c>
+      <c r="H85" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="56">
+        <v>11200</v>
+      </c>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56">
+        <v>12800</v>
+      </c>
+      <c r="H86" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="56">
+        <v>11000</v>
+      </c>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56">
+        <v>12800</v>
+      </c>
+      <c r="H87" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="56">
+        <v>3800</v>
+      </c>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56">
+        <v>4500</v>
+      </c>
+      <c r="H88" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="56">
+        <v>3800</v>
+      </c>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="56">
+        <v>4500</v>
+      </c>
+      <c r="H89" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="56">
+        <v>7600</v>
+      </c>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56">
+        <v>9500</v>
+      </c>
+      <c r="H90" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="56">
+        <v>3000</v>
+      </c>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56">
+        <v>3800</v>
+      </c>
+      <c r="H91" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="59">
-        <v>2766</v>
-      </c>
-      <c r="E3" s="59">
-        <v>2990</v>
-      </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59">
-        <v>3000</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="59">
-        <v>1300</v>
-      </c>
-      <c r="E4" s="59">
-        <v>2990</v>
-      </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59">
-        <v>3000</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="59">
-        <v>3150</v>
-      </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59">
-        <v>4500</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="59">
-        <v>4000</v>
-      </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59">
-        <v>4500</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="59">
+      <c r="D92" s="56">
+        <v>3300</v>
+      </c>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56">
+        <v>3800</v>
+      </c>
+      <c r="H92" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="55"/>
+      <c r="C93" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="56">
+        <v>3407</v>
+      </c>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56">
+        <v>3800</v>
+      </c>
+      <c r="H93" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" s="56">
+        <v>3407</v>
+      </c>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56">
+        <v>3800</v>
+      </c>
+      <c r="H94" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" s="56">
+        <v>31000</v>
+      </c>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56">
+        <v>31000</v>
+      </c>
+      <c r="H95" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="56">
+        <v>35100</v>
+      </c>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="56">
+        <v>28000</v>
+      </c>
+      <c r="H96" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" s="56">
+        <v>5784</v>
+      </c>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="56">
+        <v>6200</v>
+      </c>
+      <c r="H97" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" s="56">
+        <v>6788</v>
+      </c>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="56">
+        <v>7500</v>
+      </c>
+      <c r="H98" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="56">
+        <v>7362</v>
+      </c>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56">
+        <v>7500</v>
+      </c>
+      <c r="H99" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D100" s="56">
+        <v>23600</v>
+      </c>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56">
+        <v>24000</v>
+      </c>
+      <c r="H100" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" s="56">
+        <v>3063</v>
+      </c>
+      <c r="E101" s="56">
+        <v>4390</v>
+      </c>
+      <c r="F101" s="56"/>
+      <c r="G101" s="56">
+        <v>3100</v>
+      </c>
+      <c r="H101" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B102" s="55"/>
+      <c r="C102" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" s="56">
+        <v>9235</v>
+      </c>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="56">
+        <v>9900</v>
+      </c>
+      <c r="H102" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B103" s="55"/>
+      <c r="C103" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103" s="56">
+        <v>9235</v>
+      </c>
+      <c r="E103" s="56"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56">
+        <v>9900</v>
+      </c>
+      <c r="H103" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="B104" s="55"/>
+      <c r="C104" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="D104" s="56">
+        <v>9235</v>
+      </c>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="56">
+        <v>9900</v>
+      </c>
+      <c r="H104" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B105" s="55"/>
+      <c r="C105" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D105" s="56">
+        <v>11600</v>
+      </c>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56">
+        <v>12500</v>
+      </c>
+      <c r="H105" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="55"/>
+      <c r="C106" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D106" s="56">
+        <v>11900</v>
+      </c>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="56">
+        <v>12500</v>
+      </c>
+      <c r="H106" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="B107" s="55"/>
+      <c r="C107" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D107" s="56">
+        <v>14600</v>
+      </c>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56">
+        <v>14500</v>
+      </c>
+      <c r="H107" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D108" s="56">
+        <v>13600</v>
+      </c>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="56">
+        <v>14500</v>
+      </c>
+      <c r="H108" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109" s="56">
+        <v>14700</v>
+      </c>
+      <c r="E109" s="56"/>
+      <c r="F109" s="56"/>
+      <c r="G109" s="56">
+        <v>15800</v>
+      </c>
+      <c r="H109" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" s="55"/>
+      <c r="C110" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D110" s="56">
+        <v>18700</v>
+      </c>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="56">
+        <v>19200</v>
+      </c>
+      <c r="H110" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D111" s="56">
+        <v>21200</v>
+      </c>
+      <c r="E111" s="56"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="56">
+        <v>21800</v>
+      </c>
+      <c r="H111" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B112" s="55"/>
+      <c r="C112" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D112" s="56">
+        <v>25400</v>
+      </c>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="56">
+        <v>26700</v>
+      </c>
+      <c r="H112" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="55"/>
+      <c r="C113" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D113" s="56">
+        <v>26500</v>
+      </c>
+      <c r="E113" s="56"/>
+      <c r="F113" s="56"/>
+      <c r="G113" s="56">
+        <v>26700</v>
+      </c>
+      <c r="H113" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B114" s="55"/>
+      <c r="C114" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D114" s="56">
+        <v>26500</v>
+      </c>
+      <c r="E114" s="56"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="56">
+        <v>26700</v>
+      </c>
+      <c r="H114" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="55"/>
+      <c r="C115" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="56">
+        <v>24000</v>
+      </c>
+      <c r="E115" s="56"/>
+      <c r="F115" s="56"/>
+      <c r="G115" s="56">
+        <v>24000</v>
+      </c>
+      <c r="H115" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="55"/>
+      <c r="C116" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="56">
+        <v>24000</v>
+      </c>
+      <c r="E116" s="56"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56">
+        <v>24000</v>
+      </c>
+      <c r="H116" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B117" s="55"/>
+      <c r="C117" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="56">
+        <v>24000</v>
+      </c>
+      <c r="E117" s="56"/>
+      <c r="F117" s="56"/>
+      <c r="G117" s="56">
+        <v>24000</v>
+      </c>
+      <c r="H117" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" s="55"/>
+      <c r="C118" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D118" s="56">
+        <v>13000</v>
+      </c>
+      <c r="E118" s="56">
+        <v>17990</v>
+      </c>
+      <c r="F118" s="56"/>
+      <c r="G118" s="56">
+        <v>16000</v>
+      </c>
+      <c r="H118" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" s="55"/>
+      <c r="C119" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D119" s="56">
+        <v>33700</v>
+      </c>
+      <c r="E119" s="56"/>
+      <c r="F119" s="56"/>
+      <c r="G119" s="56">
+        <v>35000</v>
+      </c>
+      <c r="H119" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" s="55"/>
+      <c r="C120" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" s="56">
+        <v>33700</v>
+      </c>
+      <c r="E120" s="56"/>
+      <c r="F120" s="56"/>
+      <c r="G120" s="56">
+        <v>35000</v>
+      </c>
+      <c r="H120" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="B121" s="55"/>
+      <c r="C121" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="D121" s="56">
+        <v>29200</v>
+      </c>
+      <c r="E121" s="56"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56">
+        <v>29700</v>
+      </c>
+      <c r="H121" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" s="55"/>
+      <c r="C122" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D122" s="56">
+        <v>28400</v>
+      </c>
+      <c r="E122" s="56"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="56">
+        <v>29700</v>
+      </c>
+      <c r="H122" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D123" s="56">
+        <v>29200</v>
+      </c>
+      <c r="E123" s="56"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56">
+        <v>29700</v>
+      </c>
+      <c r="H123" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B124" s="55"/>
+      <c r="C124" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124" s="56">
+        <v>30400</v>
+      </c>
+      <c r="E124" s="56"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="56">
+        <v>29700</v>
+      </c>
+      <c r="H124" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" s="55"/>
+      <c r="C125" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D125" s="56">
         <v>3500</v>
       </c>
-      <c r="E7" s="59">
-        <v>1990</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59">
-        <v>1500</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="59">
-        <v>5034</v>
-      </c>
-      <c r="E8" s="59">
-        <v>12990</v>
-      </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59">
+      <c r="E125" s="56">
+        <v>7990</v>
+      </c>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56">
+        <v>7000</v>
+      </c>
+      <c r="H125" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" s="55"/>
+      <c r="C126" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D126" s="56">
+        <v>8000</v>
+      </c>
+      <c r="E126" s="56">
+        <v>13990</v>
+      </c>
+      <c r="F126" s="56"/>
+      <c r="G126" s="56">
+        <v>13000</v>
+      </c>
+      <c r="H126" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="B127" s="55"/>
+      <c r="C127" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="D127" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E127" s="56"/>
+      <c r="F127" s="56"/>
+      <c r="G127" s="56"/>
+      <c r="H127" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B128" s="55"/>
+      <c r="C128" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="D128" s="56">
+        <v>63200</v>
+      </c>
+      <c r="E128" s="56"/>
+      <c r="F128" s="56"/>
+      <c r="G128" s="56">
+        <v>64200</v>
+      </c>
+      <c r="H128" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B129" s="55"/>
+      <c r="C129" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="D129" s="56">
+        <v>47200</v>
+      </c>
+      <c r="E129" s="56"/>
+      <c r="F129" s="56"/>
+      <c r="G129" s="56">
+        <v>50800</v>
+      </c>
+      <c r="H129" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B130" s="55"/>
+      <c r="C130" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D130" s="56">
+        <v>80000</v>
+      </c>
+      <c r="E130" s="56"/>
+      <c r="F130" s="56"/>
+      <c r="G130" s="56">
+        <v>80000</v>
+      </c>
+      <c r="H130" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B131" s="55"/>
+      <c r="C131" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" s="56">
+        <v>11407</v>
+      </c>
+      <c r="E131" s="56"/>
+      <c r="F131" s="56"/>
+      <c r="G131" s="56">
+        <v>13000</v>
+      </c>
+      <c r="H131" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B132" s="55"/>
+      <c r="C132" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D132" s="56">
+        <v>18000</v>
+      </c>
+      <c r="E132" s="56">
+        <v>19990</v>
+      </c>
+      <c r="F132" s="56"/>
+      <c r="G132" s="56">
+        <v>19000</v>
+      </c>
+      <c r="H132" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B133" s="55"/>
+      <c r="C133" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D133" s="56">
+        <v>17000</v>
+      </c>
+      <c r="E133" s="56">
+        <v>19990</v>
+      </c>
+      <c r="F133" s="56"/>
+      <c r="G133" s="56">
+        <v>19000</v>
+      </c>
+      <c r="H133" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B134" s="55"/>
+      <c r="C134" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D134" s="56">
+        <v>28000</v>
+      </c>
+      <c r="E134" s="56">
+        <v>34990</v>
+      </c>
+      <c r="F134" s="56"/>
+      <c r="G134" s="56">
+        <v>33000</v>
+      </c>
+      <c r="H134" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D135" s="56">
+        <v>68500</v>
+      </c>
+      <c r="E135" s="56"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="56">
+        <v>68800</v>
+      </c>
+      <c r="H135" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B136" s="55"/>
+      <c r="C136" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D136" s="56">
+        <v>5500</v>
+      </c>
+      <c r="E136" s="56">
+        <v>7990</v>
+      </c>
+      <c r="F136" s="56"/>
+      <c r="G136" s="56">
+        <v>7000</v>
+      </c>
+      <c r="H136" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B137" s="55"/>
+      <c r="C137" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D137" s="56">
+        <v>22500</v>
+      </c>
+      <c r="E137" s="56"/>
+      <c r="F137" s="56"/>
+      <c r="G137" s="56">
+        <v>22900</v>
+      </c>
+      <c r="H137" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" s="55"/>
+      <c r="C138" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D138" s="56">
+        <v>10866</v>
+      </c>
+      <c r="E138" s="56"/>
+      <c r="F138" s="56"/>
+      <c r="G138" s="56">
+        <v>11200</v>
+      </c>
+      <c r="H138" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B139" s="55"/>
+      <c r="C139" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" s="56">
+        <v>11800</v>
+      </c>
+      <c r="E139" s="56"/>
+      <c r="F139" s="56"/>
+      <c r="G139" s="56">
+        <v>11200</v>
+      </c>
+      <c r="H139" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="B140" s="55"/>
+      <c r="C140" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="D140" s="56">
+        <v>9518</v>
+      </c>
+      <c r="E140" s="56"/>
+      <c r="F140" s="56"/>
+      <c r="G140" s="56">
         <v>10000</v>
       </c>
-      <c r="H8" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="59">
-        <v>5033</v>
-      </c>
-      <c r="E9" s="59">
-        <v>5990</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59">
-        <v>5500</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="59">
-        <v>17167</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59">
-        <v>18200</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="59">
-        <v>16300</v>
-      </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="59">
-        <v>24479</v>
-      </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59">
+      <c r="H140" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B141" s="55"/>
+      <c r="C141" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="D141" s="56">
+        <v>9518</v>
+      </c>
+      <c r="E141" s="56"/>
+      <c r="F141" s="56"/>
+      <c r="G141" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H141" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142" s="55"/>
+      <c r="C142" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="D142" s="56">
+        <v>17718</v>
+      </c>
+      <c r="E142" s="56"/>
+      <c r="F142" s="56"/>
+      <c r="G142" s="56">
+        <v>22000</v>
+      </c>
+      <c r="H142" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="B143" s="55"/>
+      <c r="C143" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="D143" s="56">
+        <v>18272</v>
+      </c>
+      <c r="E143" s="56"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="56">
+        <v>22000</v>
+      </c>
+      <c r="H143" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B144" s="55"/>
+      <c r="C144" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D144" s="56">
+        <v>18800</v>
+      </c>
+      <c r="E144" s="56"/>
+      <c r="F144" s="56"/>
+      <c r="G144" s="56">
+        <v>14000</v>
+      </c>
+      <c r="H144" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B145" s="55"/>
+      <c r="C145" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D145" s="56">
+        <v>31100</v>
+      </c>
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="56">
+        <v>31900</v>
+      </c>
+      <c r="H145" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146" s="55"/>
+      <c r="C146" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="D146" s="56">
+        <v>26800</v>
+      </c>
+      <c r="E146" s="56"/>
+      <c r="F146" s="56"/>
+      <c r="G146" s="56">
+        <v>27500</v>
+      </c>
+      <c r="H146" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="B147" s="55"/>
+      <c r="C147" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="D147" s="56">
         <v>27000</v>
       </c>
-      <c r="H12" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E13" s="59">
-        <v>18990</v>
-      </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59">
-        <v>17000</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="59">
-        <v>15000</v>
-      </c>
-      <c r="E14" s="59">
-        <v>18990</v>
-      </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59">
-        <v>18000</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="59">
-        <v>22000</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="59">
-        <v>38099</v>
-      </c>
-      <c r="E16" s="59">
-        <v>32990</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59">
-        <v>32000</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="59">
+      <c r="E147" s="56"/>
+      <c r="F147" s="56"/>
+      <c r="G147" s="56">
         <v>27500</v>
       </c>
-      <c r="E17" s="59">
-        <v>29990</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59">
+      <c r="H147" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B148" s="55"/>
+      <c r="C148" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D148" s="56">
+        <v>26200</v>
+      </c>
+      <c r="E148" s="56"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="56">
+        <v>27500</v>
+      </c>
+      <c r="H148" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B149" s="55"/>
+      <c r="C149" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D149" s="56">
+        <v>35300</v>
+      </c>
+      <c r="E149" s="56"/>
+      <c r="F149" s="56"/>
+      <c r="G149" s="56">
+        <v>35600</v>
+      </c>
+      <c r="H149" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="B150" s="55"/>
+      <c r="C150" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D150" s="56">
+        <v>31230</v>
+      </c>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="56">
+        <v>35600</v>
+      </c>
+      <c r="H150" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B151" s="55"/>
+      <c r="C151" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D151" s="56">
+        <v>21200</v>
+      </c>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
+      <c r="G151" s="56">
+        <v>22700</v>
+      </c>
+      <c r="H151" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B152" s="55"/>
+      <c r="C152" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D152" s="56">
+        <v>500</v>
+      </c>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="56">
+        <v>500</v>
+      </c>
+      <c r="H152" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B153" s="55"/>
+      <c r="C153" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D153" s="56"/>
+      <c r="E153" s="56"/>
+      <c r="F153" s="56"/>
+      <c r="G153" s="56"/>
+      <c r="H153" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B154" s="55"/>
+      <c r="C154" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D154" s="56">
+        <v>75</v>
+      </c>
+      <c r="E154" s="56"/>
+      <c r="F154" s="56"/>
+      <c r="G154" s="56">
+        <v>500</v>
+      </c>
+      <c r="H154" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B155" s="55"/>
+      <c r="C155" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D155" s="56">
+        <v>200</v>
+      </c>
+      <c r="E155" s="56"/>
+      <c r="F155" s="56"/>
+      <c r="G155" s="56">
+        <v>500</v>
+      </c>
+      <c r="H155" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" s="55"/>
+      <c r="C156" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D156" s="56">
+        <v>200</v>
+      </c>
+      <c r="E156" s="56"/>
+      <c r="F156" s="56"/>
+      <c r="G156" s="56">
+        <v>500</v>
+      </c>
+      <c r="H156" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B157" s="55"/>
+      <c r="C157" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D157" s="56">
+        <v>200</v>
+      </c>
+      <c r="E157" s="56"/>
+      <c r="F157" s="56"/>
+      <c r="G157" s="56">
+        <v>500</v>
+      </c>
+      <c r="H157" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B158" s="55"/>
+      <c r="C158" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D158" s="56">
+        <v>200</v>
+      </c>
+      <c r="E158" s="56"/>
+      <c r="F158" s="56"/>
+      <c r="G158" s="56">
+        <v>500</v>
+      </c>
+      <c r="H158" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B159" s="55"/>
+      <c r="C159" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D159" s="56">
+        <v>400</v>
+      </c>
+      <c r="E159" s="56"/>
+      <c r="F159" s="56"/>
+      <c r="G159" s="56">
+        <v>500</v>
+      </c>
+      <c r="H159" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B160" s="55"/>
+      <c r="C160" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D160" s="56">
+        <v>300</v>
+      </c>
+      <c r="E160" s="56"/>
+      <c r="F160" s="56"/>
+      <c r="G160" s="56">
+        <v>500</v>
+      </c>
+      <c r="H160" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="B161" s="55"/>
+      <c r="C161" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="D161" s="56">
+        <v>28440</v>
+      </c>
+      <c r="E161" s="56"/>
+      <c r="F161" s="56"/>
+      <c r="G161" s="56">
         <v>29000</v>
       </c>
-      <c r="H17" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18" s="59">
-        <v>16000</v>
-      </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="59">
-        <v>31000</v>
-      </c>
-      <c r="E19" s="59">
-        <v>37990</v>
-      </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59">
-        <v>36000</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" s="59">
-        <v>30000</v>
-      </c>
-      <c r="E20" s="59">
-        <v>37990</v>
-      </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59">
-        <v>36000</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="D21" s="59">
+      <c r="H161" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="B162" s="55"/>
+      <c r="C162" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="D162" s="56">
+        <v>28044</v>
+      </c>
+      <c r="E162" s="56"/>
+      <c r="F162" s="56"/>
+      <c r="G162" s="56">
         <v>29000</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59">
-        <v>62500</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="59">
-        <v>36500</v>
-      </c>
-      <c r="E22" s="59">
-        <v>43990</v>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59">
-        <v>42000</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="59">
-        <v>46519</v>
-      </c>
-      <c r="E23" s="59">
-        <v>47990</v>
-      </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59">
-        <v>46200</v>
-      </c>
-      <c r="H23" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="59">
-        <v>48000</v>
-      </c>
-      <c r="E24" s="59">
-        <v>51990</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59">
-        <v>50000</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="59">
-        <v>25500</v>
-      </c>
-      <c r="E25" s="59">
-        <v>26990</v>
-      </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59">
-        <v>26000</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="D26" s="59">
-        <v>41000</v>
-      </c>
-      <c r="E26" s="59">
-        <v>43990</v>
-      </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59">
-        <v>43000</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="59">
-        <v>38000</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="59">
-        <v>57000</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="59">
-        <v>64900</v>
-      </c>
-      <c r="E29" s="59">
-        <v>66990</v>
-      </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59">
-        <v>65000</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
-        <v>292</v>
-      </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="D30" s="59">
-        <v>62000</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="59">
-        <v>107000</v>
-      </c>
-      <c r="E31" s="59">
-        <v>109990</v>
-      </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59">
-        <v>108000</v>
-      </c>
-      <c r="H31" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D32" s="59">
-        <v>141332</v>
-      </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59">
-        <v>125000</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="59">
-        <v>27384</v>
-      </c>
-      <c r="E33" s="59">
-        <v>35990</v>
-      </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59">
-        <v>35000</v>
-      </c>
-      <c r="H33" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="59">
-        <v>17839</v>
-      </c>
-      <c r="E34" s="59">
-        <v>26990</v>
-      </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59">
-        <v>25000</v>
-      </c>
-      <c r="H34" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="D35" s="59">
-        <v>17000</v>
-      </c>
-      <c r="E35" s="59">
-        <v>29990</v>
-      </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59">
-        <v>27000</v>
-      </c>
-      <c r="H35" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="59">
-        <v>35262</v>
-      </c>
-      <c r="E36" s="59">
-        <v>43990</v>
-      </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59">
-        <v>42000</v>
-      </c>
-      <c r="H36" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="59">
-        <v>50089</v>
-      </c>
-      <c r="E37" s="59">
-        <v>55990</v>
-      </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59">
-        <v>54000</v>
-      </c>
-      <c r="H37" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="59">
-        <v>65099</v>
-      </c>
-      <c r="E38" s="59">
-        <v>68990</v>
-      </c>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59">
-        <v>67000</v>
-      </c>
-      <c r="H38" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="59">
-        <v>49929</v>
-      </c>
-      <c r="E39" s="59">
-        <v>55990</v>
-      </c>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59">
-        <v>53000</v>
-      </c>
-      <c r="H39" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="59">
-        <v>49427</v>
-      </c>
-      <c r="E40" s="59">
-        <v>54990</v>
-      </c>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59">
-        <v>53000</v>
-      </c>
-      <c r="H40" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="59">
-        <v>69752</v>
-      </c>
-      <c r="E41" s="59">
-        <v>72990</v>
-      </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59">
-        <v>71000</v>
-      </c>
-      <c r="H41" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="59">
-        <v>88984</v>
-      </c>
-      <c r="E42" s="59">
-        <v>93990</v>
-      </c>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59">
-        <v>91000</v>
-      </c>
-      <c r="H42" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="D43" s="59">
-        <v>30262</v>
-      </c>
-      <c r="E43" s="59">
-        <v>39990</v>
-      </c>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59">
-        <v>38000</v>
-      </c>
-      <c r="H43" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="59">
-        <v>45000</v>
-      </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="D45" s="59">
-        <v>80000</v>
-      </c>
-      <c r="E45" s="59">
-        <v>89990</v>
-      </c>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59">
-        <v>87000</v>
-      </c>
-      <c r="H45" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="59">
-        <v>60499</v>
-      </c>
-      <c r="E46" s="59">
-        <v>67990</v>
-      </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59">
-        <v>66000</v>
-      </c>
-      <c r="H46" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="59">
-        <v>80000</v>
-      </c>
-      <c r="E47" s="59">
-        <v>86990</v>
-      </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59">
-        <v>85000</v>
-      </c>
-      <c r="H47" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="59">
-        <v>115000</v>
-      </c>
-      <c r="E48" s="59">
-        <v>122990</v>
-      </c>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59">
-        <v>120000</v>
-      </c>
-      <c r="H48" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="59">
-        <v>36500</v>
-      </c>
-      <c r="E49" s="59">
-        <v>34990</v>
-      </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59">
-        <v>34000</v>
-      </c>
-      <c r="H49" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="59">
-        <v>49099</v>
-      </c>
-      <c r="E50" s="59">
-        <v>48990</v>
-      </c>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59">
-        <v>48000</v>
-      </c>
-      <c r="H50" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="D51" s="59">
-        <v>45001</v>
-      </c>
-      <c r="E51" s="59">
-        <v>54990</v>
-      </c>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59">
-        <v>52000</v>
-      </c>
-      <c r="H51" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="D52" s="59">
-        <v>138600</v>
-      </c>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59">
-        <v>138600</v>
-      </c>
-      <c r="H52" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="59">
-        <v>38500</v>
-      </c>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59">
-        <v>30000</v>
-      </c>
-      <c r="H53" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="59">
-        <v>15000</v>
-      </c>
-      <c r="E54" s="59">
-        <v>20990</v>
-      </c>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59">
-        <v>20000</v>
-      </c>
-      <c r="H54" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H55" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H56" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H57" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H58" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H59" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H60" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H61" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H62" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H63" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H64" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H65" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H66" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="59">
-        <v>5700</v>
-      </c>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59">
-        <v>6800</v>
-      </c>
-      <c r="H67" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="59">
-        <v>3063</v>
-      </c>
-      <c r="E68" s="59">
-        <v>4390</v>
-      </c>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59">
-        <v>3800</v>
-      </c>
-      <c r="H68" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="D69" s="59">
-        <v>13000</v>
-      </c>
-      <c r="E69" s="59">
-        <v>23990</v>
-      </c>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59">
-        <v>21000</v>
-      </c>
-      <c r="H69" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="D70" s="59">
-        <v>28000</v>
-      </c>
-      <c r="E70" s="59">
-        <v>34990</v>
-      </c>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59">
-        <v>33000</v>
-      </c>
-      <c r="H70" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="D71" s="59">
-        <v>91600</v>
-      </c>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59">
-        <v>94000</v>
-      </c>
-      <c r="H71" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="59">
-        <v>11000</v>
-      </c>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59">
-        <v>12800</v>
-      </c>
-      <c r="H72" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="59">
-        <v>11200</v>
-      </c>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59">
-        <v>12800</v>
-      </c>
-      <c r="H73" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D74" s="59">
-        <v>11000</v>
-      </c>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59">
-        <v>12800</v>
-      </c>
-      <c r="H74" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="59">
-        <v>3800</v>
-      </c>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59">
-        <v>4500</v>
-      </c>
-      <c r="H75" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" s="59">
-        <v>3800</v>
-      </c>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59">
-        <v>4500</v>
-      </c>
-      <c r="H76" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="59">
-        <v>7600</v>
-      </c>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59">
-        <v>9500</v>
-      </c>
-      <c r="H77" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D78" s="59">
-        <v>3000</v>
-      </c>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59">
-        <v>3800</v>
-      </c>
-      <c r="H78" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D79" s="59">
-        <v>3300</v>
-      </c>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59">
-        <v>3800</v>
-      </c>
-      <c r="H79" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" s="58"/>
-      <c r="C80" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" s="59">
-        <v>3407</v>
-      </c>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59">
-        <v>3800</v>
-      </c>
-      <c r="H80" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="58"/>
-      <c r="C81" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D81" s="59">
-        <v>3407</v>
-      </c>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59">
-        <v>3800</v>
-      </c>
-      <c r="H81" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="59">
-        <v>18000</v>
-      </c>
-      <c r="E82" s="59">
-        <v>23990</v>
-      </c>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59">
-        <v>23000</v>
-      </c>
-      <c r="H82" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="B83" s="58"/>
-      <c r="C83" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="D83" s="59">
-        <v>31000</v>
-      </c>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59">
-        <v>31000</v>
-      </c>
-      <c r="H83" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="59">
-        <v>35100</v>
-      </c>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59">
-        <v>28000</v>
-      </c>
-      <c r="H84" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="B85" s="58"/>
-      <c r="C85" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="D85" s="59">
-        <v>5784</v>
-      </c>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59">
-        <v>6200</v>
-      </c>
-      <c r="H85" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="D86" s="59">
-        <v>6788</v>
-      </c>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59">
-        <v>7500</v>
-      </c>
-      <c r="H86" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="D87" s="59">
-        <v>7362</v>
-      </c>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59">
-        <v>7500</v>
-      </c>
-      <c r="H87" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="D88" s="59">
-        <v>45500</v>
-      </c>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B89" s="58"/>
-      <c r="C89" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D89" s="59">
-        <v>13850</v>
-      </c>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59">
-        <v>11300</v>
-      </c>
-      <c r="H89" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="B90" s="58"/>
-      <c r="C90" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="D90" s="59">
-        <v>23600</v>
-      </c>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59">
-        <v>23600</v>
-      </c>
-      <c r="H90" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B91" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D91" s="59">
-        <v>3063</v>
-      </c>
-      <c r="E91" s="59">
-        <v>4390</v>
-      </c>
-      <c r="F91" s="59"/>
-      <c r="G91" s="59">
-        <v>3100</v>
-      </c>
-      <c r="H91" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="B92" s="58"/>
-      <c r="C92" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="D92" s="59">
-        <v>9235</v>
-      </c>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59">
-        <v>9900</v>
-      </c>
-      <c r="H92" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="B93" s="58"/>
-      <c r="C93" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="D93" s="59">
-        <v>9235</v>
-      </c>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="59">
-        <v>9900</v>
-      </c>
-      <c r="H93" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="D94" s="59">
-        <v>9235</v>
-      </c>
-      <c r="E94" s="59"/>
-      <c r="F94" s="59"/>
-      <c r="G94" s="59">
-        <v>9900</v>
-      </c>
-      <c r="H94" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="B95" s="58"/>
-      <c r="C95" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95" s="59">
-        <v>11600</v>
-      </c>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59">
-        <v>12300</v>
-      </c>
-      <c r="H95" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="B96" s="58"/>
-      <c r="C96" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" s="59">
-        <v>11900</v>
-      </c>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59">
-        <v>12300</v>
-      </c>
-      <c r="H96" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="B97" s="58"/>
-      <c r="C97" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="D97" s="59">
-        <v>14200</v>
-      </c>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59">
-        <v>14500</v>
-      </c>
-      <c r="H97" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="B98" s="58"/>
-      <c r="C98" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="D98" s="59">
-        <v>14600</v>
-      </c>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="59">
-        <v>14500</v>
-      </c>
-      <c r="H98" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="B99" s="58"/>
-      <c r="C99" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="D99" s="59">
-        <v>14600</v>
-      </c>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59">
-        <v>14500</v>
-      </c>
-      <c r="H99" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B100" s="58"/>
-      <c r="C100" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="D100" s="59">
-        <v>13600</v>
-      </c>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="59">
-        <v>14500</v>
-      </c>
-      <c r="H100" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="B101" s="58"/>
-      <c r="C101" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="D101" s="59">
-        <v>14700</v>
-      </c>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="59">
-        <v>15800</v>
-      </c>
-      <c r="H101" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="B102" s="58"/>
-      <c r="C102" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="D102" s="59">
-        <v>18700</v>
-      </c>
-      <c r="E102" s="59"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="59">
-        <v>19600</v>
-      </c>
-      <c r="H102" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="B103" s="58"/>
-      <c r="C103" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="D103" s="59">
-        <v>22400</v>
-      </c>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="59">
-        <v>23800</v>
-      </c>
-      <c r="H103" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B104" s="58"/>
-      <c r="C104" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="D104" s="59">
-        <v>23800</v>
-      </c>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="59">
-        <v>24300</v>
-      </c>
-      <c r="H104" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="B105" s="58"/>
-      <c r="C105" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="D105" s="59">
-        <v>23800</v>
-      </c>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59">
-        <v>24300</v>
-      </c>
-      <c r="H105" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="B106" s="58"/>
-      <c r="C106" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="D106" s="59">
-        <v>25400</v>
-      </c>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59">
-        <v>24300</v>
-      </c>
-      <c r="H106" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="B107" s="58"/>
-      <c r="C107" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="D107" s="59">
-        <v>26500</v>
-      </c>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59">
-        <v>24300</v>
-      </c>
-      <c r="H107" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="B108" s="58"/>
-      <c r="C108" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="D108" s="59">
-        <v>26500</v>
-      </c>
-      <c r="E108" s="59"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59">
-        <v>24300</v>
-      </c>
-      <c r="H108" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="58"/>
-      <c r="C109" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="59">
-        <v>24000</v>
-      </c>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59">
-        <v>24000</v>
-      </c>
-      <c r="H109" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" s="58"/>
-      <c r="C110" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="59">
-        <v>24000</v>
-      </c>
-      <c r="E110" s="59"/>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59">
-        <v>24000</v>
-      </c>
-      <c r="H110" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="59">
-        <v>24000</v>
-      </c>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59">
-        <v>24000</v>
-      </c>
-      <c r="H111" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="B112" s="58"/>
-      <c r="C112" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="D112" s="59">
-        <v>13000</v>
-      </c>
-      <c r="E112" s="59">
-        <v>17990</v>
-      </c>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59">
-        <v>16000</v>
-      </c>
-      <c r="H112" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="B113" s="58"/>
-      <c r="C113" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D113" s="59">
-        <v>28400</v>
-      </c>
-      <c r="E113" s="59"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="59">
-        <v>29400</v>
-      </c>
-      <c r="H113" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="B114" s="58"/>
-      <c r="C114" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="D114" s="59">
-        <v>30400</v>
-      </c>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59">
-        <v>29400</v>
-      </c>
-      <c r="H114" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="B115" s="58"/>
-      <c r="C115" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="D115" s="59">
-        <v>3500</v>
-      </c>
-      <c r="E115" s="59">
-        <v>7990</v>
-      </c>
-      <c r="F115" s="59"/>
-      <c r="G115" s="59">
-        <v>7000</v>
-      </c>
-      <c r="H115" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="B116" s="58"/>
-      <c r="C116" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="D116" s="59">
-        <v>8000</v>
-      </c>
-      <c r="E116" s="59">
-        <v>14990</v>
-      </c>
-      <c r="F116" s="59"/>
-      <c r="G116" s="59">
-        <v>13000</v>
-      </c>
-      <c r="H116" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="B117" s="58"/>
-      <c r="C117" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="D117" s="59">
-        <v>38200</v>
-      </c>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59">
-        <v>40100</v>
-      </c>
-      <c r="H117" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="B118" s="58"/>
-      <c r="C118" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="D118" s="59">
-        <v>70900</v>
-      </c>
-      <c r="E118" s="59"/>
-      <c r="F118" s="59"/>
-      <c r="G118" s="59"/>
-      <c r="H118" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="B119" s="58"/>
-      <c r="C119" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="D119" s="59">
-        <v>81200</v>
-      </c>
-      <c r="E119" s="59"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="59"/>
-      <c r="H119" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="B120" s="58"/>
-      <c r="C120" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="D120" s="59">
-        <v>80000</v>
-      </c>
-      <c r="E120" s="59"/>
-      <c r="F120" s="59"/>
-      <c r="G120" s="59">
-        <v>80000</v>
-      </c>
-      <c r="H120" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="B121" s="58"/>
-      <c r="C121" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="D121" s="59">
-        <v>9056</v>
-      </c>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="59">
-        <v>11800</v>
-      </c>
-      <c r="H121" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="B122" s="58"/>
-      <c r="C122" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="D122" s="59">
-        <v>9056</v>
-      </c>
-      <c r="E122" s="59"/>
-      <c r="F122" s="59"/>
-      <c r="G122" s="59">
-        <v>11800</v>
-      </c>
-      <c r="H122" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="B123" s="58"/>
-      <c r="C123" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="D123" s="59">
-        <v>9056</v>
-      </c>
-      <c r="E123" s="59"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="59">
-        <v>11800</v>
-      </c>
-      <c r="H123" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="B124" s="58"/>
-      <c r="C124" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="D124" s="59">
-        <v>9056</v>
-      </c>
-      <c r="E124" s="59"/>
-      <c r="F124" s="59"/>
-      <c r="G124" s="59">
-        <v>11800</v>
-      </c>
-      <c r="H124" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="B125" s="58"/>
-      <c r="C125" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="D125" s="59">
-        <v>9036</v>
-      </c>
-      <c r="E125" s="59"/>
-      <c r="F125" s="59"/>
-      <c r="G125" s="59">
-        <v>11800</v>
-      </c>
-      <c r="H125" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="B126" s="58"/>
-      <c r="C126" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="D126" s="59">
-        <v>9056</v>
-      </c>
-      <c r="E126" s="59"/>
-      <c r="F126" s="59"/>
-      <c r="G126" s="59">
-        <v>11800</v>
-      </c>
-      <c r="H126" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="B127" s="58"/>
-      <c r="C127" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="D127" s="59">
-        <v>11407</v>
-      </c>
-      <c r="E127" s="59"/>
-      <c r="F127" s="59"/>
-      <c r="G127" s="59">
-        <v>13000</v>
-      </c>
-      <c r="H127" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="B128" s="58"/>
-      <c r="C128" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D128" s="59">
-        <v>54727</v>
-      </c>
-      <c r="E128" s="59"/>
-      <c r="F128" s="59"/>
-      <c r="G128" s="59">
-        <v>54800</v>
-      </c>
-      <c r="H128" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="B129" s="58"/>
-      <c r="C129" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D129" s="59">
-        <v>53999</v>
-      </c>
-      <c r="E129" s="59"/>
-      <c r="F129" s="59"/>
-      <c r="G129" s="59">
-        <v>54800</v>
-      </c>
-      <c r="H129" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="B130" s="58"/>
-      <c r="C130" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D130" s="59">
-        <v>53999</v>
-      </c>
-      <c r="E130" s="59"/>
-      <c r="F130" s="59"/>
-      <c r="G130" s="59">
-        <v>54800</v>
-      </c>
-      <c r="H130" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B131" s="58"/>
-      <c r="C131" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D131" s="59">
-        <v>18000</v>
-      </c>
-      <c r="E131" s="59">
-        <v>19990</v>
-      </c>
-      <c r="F131" s="59"/>
-      <c r="G131" s="59">
-        <v>19000</v>
-      </c>
-      <c r="H131" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" s="58"/>
-      <c r="C132" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D132" s="59">
-        <v>17000</v>
-      </c>
-      <c r="E132" s="59">
-        <v>19990</v>
-      </c>
-      <c r="F132" s="59"/>
-      <c r="G132" s="59">
-        <v>19000</v>
-      </c>
-      <c r="H132" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="B133" s="58"/>
-      <c r="C133" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="D133" s="59">
-        <v>28000</v>
-      </c>
-      <c r="E133" s="59"/>
-      <c r="F133" s="59"/>
-      <c r="G133" s="59"/>
-      <c r="H133" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="B134" s="58"/>
-      <c r="C134" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="D134" s="59">
-        <v>68500</v>
-      </c>
-      <c r="E134" s="59"/>
-      <c r="F134" s="59"/>
-      <c r="G134" s="59">
-        <v>68800</v>
-      </c>
-      <c r="H134" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B135" s="58"/>
-      <c r="C135" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D135" s="59">
-        <v>5500</v>
-      </c>
-      <c r="E135" s="59">
-        <v>7990</v>
-      </c>
-      <c r="F135" s="59"/>
-      <c r="G135" s="59">
-        <v>7000</v>
-      </c>
-      <c r="H135" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B136" s="58"/>
-      <c r="C136" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D136" s="59">
-        <v>22500</v>
-      </c>
-      <c r="E136" s="59"/>
-      <c r="F136" s="59"/>
-      <c r="G136" s="59">
-        <v>22900</v>
-      </c>
-      <c r="H136" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="B137" s="58"/>
-      <c r="C137" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="D137" s="59">
-        <v>10866</v>
-      </c>
-      <c r="E137" s="59"/>
-      <c r="F137" s="59"/>
-      <c r="G137" s="59">
-        <v>11200</v>
-      </c>
-      <c r="H137" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B138" s="58"/>
-      <c r="C138" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D138" s="59">
-        <v>11800</v>
-      </c>
-      <c r="E138" s="59"/>
-      <c r="F138" s="59"/>
-      <c r="G138" s="59">
-        <v>11200</v>
-      </c>
-      <c r="H138" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="B139" s="58"/>
-      <c r="C139" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="D139" s="59">
-        <v>9518</v>
-      </c>
-      <c r="E139" s="59"/>
-      <c r="F139" s="59"/>
-      <c r="G139" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H139" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="B140" s="58"/>
-      <c r="C140" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="D140" s="59">
-        <v>9518</v>
-      </c>
-      <c r="E140" s="59"/>
-      <c r="F140" s="59"/>
-      <c r="G140" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H140" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="B141" s="58"/>
-      <c r="C141" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="D141" s="59">
-        <v>9134</v>
-      </c>
-      <c r="E141" s="59"/>
-      <c r="F141" s="59"/>
-      <c r="G141" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H141" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="B142" s="58"/>
-      <c r="C142" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="D142" s="59">
-        <v>18800</v>
-      </c>
-      <c r="E142" s="59"/>
-      <c r="F142" s="59"/>
-      <c r="G142" s="59">
-        <v>14000</v>
-      </c>
-      <c r="H142" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="B143" s="58"/>
-      <c r="C143" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="D143" s="59">
-        <v>31100</v>
-      </c>
-      <c r="E143" s="59"/>
-      <c r="F143" s="59"/>
-      <c r="G143" s="59">
-        <v>31900</v>
-      </c>
-      <c r="H143" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="B144" s="58"/>
-      <c r="C144" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="D144" s="59">
-        <v>27000</v>
-      </c>
-      <c r="E144" s="59"/>
-      <c r="F144" s="59"/>
-      <c r="G144" s="59">
-        <v>27000</v>
-      </c>
-      <c r="H144" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="B145" s="58"/>
-      <c r="C145" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D145" s="59">
-        <v>26200</v>
-      </c>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
-      <c r="G145" s="59">
-        <v>27000</v>
-      </c>
-      <c r="H145" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="B146" s="58"/>
-      <c r="C146" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D146" s="59">
-        <v>35300</v>
-      </c>
-      <c r="E146" s="59"/>
-      <c r="F146" s="59"/>
-      <c r="G146" s="59">
-        <v>35600</v>
-      </c>
-      <c r="H146" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="B147" s="58"/>
-      <c r="C147" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D147" s="59">
-        <v>35300</v>
-      </c>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="59">
-        <v>35600</v>
-      </c>
-      <c r="H147" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B148" s="58"/>
-      <c r="C148" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D148" s="59">
-        <v>21200</v>
-      </c>
-      <c r="E148" s="59"/>
-      <c r="F148" s="59"/>
-      <c r="G148" s="59">
-        <v>22700</v>
-      </c>
-      <c r="H148" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B149" s="58"/>
-      <c r="C149" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="D149" s="59">
-        <v>500</v>
-      </c>
-      <c r="E149" s="59"/>
-      <c r="F149" s="59"/>
-      <c r="G149" s="59">
-        <v>500</v>
-      </c>
-      <c r="H149" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="B150" s="58"/>
-      <c r="C150" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D150" s="59">
-        <v>300</v>
-      </c>
-      <c r="E150" s="59"/>
-      <c r="F150" s="59"/>
-      <c r="G150" s="59"/>
-      <c r="H150" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B151" s="58"/>
-      <c r="C151" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="59"/>
-      <c r="H151" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B152" s="58"/>
-      <c r="C152" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="D152" s="59">
-        <v>75</v>
-      </c>
-      <c r="E152" s="59"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="59">
-        <v>500</v>
-      </c>
-      <c r="H152" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B153" s="58"/>
-      <c r="C153" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D153" s="59">
-        <v>200</v>
-      </c>
-      <c r="E153" s="59"/>
-      <c r="F153" s="59"/>
-      <c r="G153" s="59">
-        <v>500</v>
-      </c>
-      <c r="H153" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="B154" s="58"/>
-      <c r="C154" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="D154" s="59">
-        <v>200</v>
-      </c>
-      <c r="E154" s="59"/>
-      <c r="F154" s="59"/>
-      <c r="G154" s="59">
-        <v>500</v>
-      </c>
-      <c r="H154" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B155" s="58"/>
-      <c r="C155" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D155" s="59">
-        <v>200</v>
-      </c>
-      <c r="E155" s="59"/>
-      <c r="F155" s="59"/>
-      <c r="G155" s="59">
-        <v>500</v>
-      </c>
-      <c r="H155" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="B156" s="58"/>
-      <c r="C156" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D156" s="59">
-        <v>200</v>
-      </c>
-      <c r="E156" s="59"/>
-      <c r="F156" s="59"/>
-      <c r="G156" s="59">
-        <v>500</v>
-      </c>
-      <c r="H156" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B157" s="58"/>
-      <c r="C157" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D157" s="59">
-        <v>400</v>
-      </c>
-      <c r="E157" s="59"/>
-      <c r="F157" s="59"/>
-      <c r="G157" s="59">
-        <v>500</v>
-      </c>
-      <c r="H157" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B158" s="58"/>
-      <c r="C158" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D158" s="59">
-        <v>300</v>
-      </c>
-      <c r="E158" s="59"/>
-      <c r="F158" s="59"/>
-      <c r="G158" s="59">
-        <v>500</v>
-      </c>
-      <c r="H158" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B159" s="58"/>
-      <c r="C159" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="D159" s="59">
-        <v>300</v>
-      </c>
-      <c r="E159" s="59"/>
-      <c r="F159" s="59"/>
-      <c r="G159" s="59">
-        <v>500</v>
-      </c>
-      <c r="H159" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="B160" s="58"/>
-      <c r="C160" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D160" s="59">
-        <v>400</v>
-      </c>
-      <c r="E160" s="59"/>
-      <c r="F160" s="59"/>
-      <c r="G160" s="59">
-        <v>500</v>
-      </c>
-      <c r="H160" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="52"/>
-      <c r="B161" s="52"/>
-      <c r="C161" s="52"/>
-      <c r="D161" s="53"/>
-      <c r="E161" s="53"/>
-      <c r="F161" s="53"/>
-      <c r="G161" s="53"/>
-      <c r="H161" s="54"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="52"/>
-      <c r="B162" s="52"/>
-      <c r="C162" s="52"/>
-      <c r="D162" s="53"/>
-      <c r="E162" s="53"/>
-      <c r="F162" s="53"/>
-      <c r="G162" s="53"/>
-      <c r="H162" s="54"/>
+      <c r="H162" s="57" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="49"/>

--- a/priceFromBase.xlsx
+++ b/priceFromBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mobil\Desktop\Price Scripts\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB3EC0-0D93-4B5F-A7BF-12FC95A6DE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4158E859-C0A9-4712-92EB-08DFCF5D64BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2265" windowWidth="22515" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1485" windowWidth="22515" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="303">
   <si>
     <t>Код</t>
   </si>
@@ -459,12 +459,6 @@
     <t>Samsung Galaxy A55 5G 8/128 Lemon AA</t>
   </si>
   <si>
-    <t>351182291630433</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max 1TB Black "A-"</t>
-  </si>
-  <si>
     <t>Apple AirPods 2 Case ""</t>
   </si>
   <si>
@@ -717,12 +711,6 @@
     <t>Apple MacBook Pro 13 (2017 - MPXQ2) i5 8/256 Gray "B"</t>
   </si>
   <si>
-    <t>C02ZJ39SLVCF</t>
-  </si>
-  <si>
-    <t>Apple MacBook Pro 15 (2019 - MV902) i7 16/256 Gray "B+"</t>
-  </si>
-  <si>
     <t>350100281815971</t>
   </si>
   <si>
@@ -780,12 +768,6 @@
     <t>SH3MN61Q3LX2Y</t>
   </si>
   <si>
-    <t>SFWNPY9GH4Q</t>
-  </si>
-  <si>
-    <t>Apple AirPods 3 Lightning</t>
-  </si>
-  <si>
     <t>SL7N974YYFN</t>
   </si>
   <si>
@@ -813,12 +795,6 @@
     <t>SDQ936D07J9</t>
   </si>
   <si>
-    <t>355031864805177</t>
-  </si>
-  <si>
-    <t>Apple iPhone 11 128 Black RM/A</t>
-  </si>
-  <si>
     <t>354489170641309</t>
   </si>
   <si>
@@ -843,12 +819,6 @@
     <t>Apple iPhone 15 128 Green HN/A</t>
   </si>
   <si>
-    <t>354553640266383</t>
-  </si>
-  <si>
-    <t>Apple iPhone 16 Pro 256 Black J/A</t>
-  </si>
-  <si>
     <t>355741506640655</t>
   </si>
   <si>
@@ -894,9 +864,6 @@
     <t>Samsung Galaxy A55 5G 8/128 IceBlue AA</t>
   </si>
   <si>
-    <t>350100283161234</t>
-  </si>
-  <si>
     <t>35872560770366</t>
   </si>
   <si>
@@ -909,12 +876,6 @@
     <t>Samsung Galaxy S24 5G 8/256 Gray HK</t>
   </si>
   <si>
-    <t>353302722734343</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 FE 5G 8/256 Mint AA</t>
-  </si>
-  <si>
     <t>869254072525267</t>
   </si>
   <si>
@@ -949,6 +910,36 @@
   </si>
   <si>
     <t>Яндекс Станция Max с Zigbee Black RU</t>
+  </si>
+  <si>
+    <t>SDDwq2l2Jr6</t>
+  </si>
+  <si>
+    <t>Apple Watch S10 42 Silver SB (S/M) LW/A</t>
+  </si>
+  <si>
+    <t>Sc4TG0QP0M6</t>
+  </si>
+  <si>
+    <t>Apple Watch SE2 (2024) SB (M/L) Starlight LL/A</t>
+  </si>
+  <si>
+    <t>357494476084466</t>
+  </si>
+  <si>
+    <t>Apple Watch Ultra 2 (2024) 49 Black M Dark Green Alpina Loop LL/A</t>
+  </si>
+  <si>
+    <t>352772524983028</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S23 5G 8/256 Black HN/A</t>
+  </si>
+  <si>
+    <t>861482068467982</t>
+  </si>
+  <si>
+    <t>Xiaomi 14 5G 12/512 Black UK</t>
   </si>
 </sst>
 </file>
@@ -985,7 +976,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1263,11 +1254,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1388,18 +1394,25 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1684,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:H162"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,3330 +1707,3298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="59">
+        <v>9200</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59">
+        <v>9600</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="59">
+        <v>9200</v>
+      </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59">
+        <v>9600</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="59">
+        <v>3150</v>
+      </c>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59">
+        <v>4500</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="59">
+        <v>2766</v>
+      </c>
+      <c r="E5" s="59">
+        <v>2990</v>
+      </c>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59">
+        <v>3000</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="59">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="59">
+        <v>2990</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="59">
+        <v>3150</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59">
+        <v>4500</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="59">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59">
+        <v>4500</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="59">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="59">
+        <v>1990</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="59">
+        <v>5034</v>
+      </c>
+      <c r="E10" s="59">
+        <v>12990</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="59">
+        <v>5033</v>
+      </c>
+      <c r="E11" s="59">
+        <v>5990</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59">
+        <v>5500</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55" t="s">
+      <c r="D12" s="59">
+        <v>13800</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59">
+        <v>14300</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="56">
-        <v>9200</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56">
-        <v>9600</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="59">
+        <v>13800</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59">
+        <v>14300</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="56">
-        <v>9200</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56">
-        <v>9600</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="56">
-        <v>3150</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="59">
+        <v>13800</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59">
+        <v>14300</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="59">
+        <v>13800</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59">
+        <v>14300</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="59">
+        <v>16972</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59">
+        <v>17700</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="59">
+        <v>17400</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59">
+        <v>17700</v>
+      </c>
+      <c r="H17" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="59">
+        <v>17400</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59">
+        <v>17700</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="59">
+        <v>17400</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59">
+        <v>17700</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="59">
+        <v>16300</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E21" s="59">
+        <v>18990</v>
+      </c>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59">
+        <v>17000</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="59">
+        <v>38099</v>
+      </c>
+      <c r="E22" s="59">
+        <v>30990</v>
+      </c>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59">
+        <v>30000</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="59">
+        <v>27500</v>
+      </c>
+      <c r="E23" s="59">
+        <v>29990</v>
+      </c>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59">
+        <v>29000</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="59">
+        <v>31000</v>
+      </c>
+      <c r="E24" s="59">
+        <v>37990</v>
+      </c>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59">
+        <v>36000</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" s="59">
+        <v>51600</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59">
+        <v>52200</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="59">
+        <v>30000</v>
+      </c>
+      <c r="E26" s="59">
+        <v>37990</v>
+      </c>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59">
+        <v>36000</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="59">
+        <v>29000</v>
+      </c>
+      <c r="E27" s="59">
+        <v>37990</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59">
+        <v>36000</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="59">
+        <v>36500</v>
+      </c>
+      <c r="E28" s="59">
+        <v>43990</v>
+      </c>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59">
+        <v>42000</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="59">
+        <v>46519</v>
+      </c>
+      <c r="E29" s="59">
+        <v>47990</v>
+      </c>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59">
+        <v>46200</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="59">
+        <v>25500</v>
+      </c>
+      <c r="E30" s="59">
+        <v>26990</v>
+      </c>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59">
+        <v>26000</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="59">
+        <v>41000</v>
+      </c>
+      <c r="E31" s="59">
+        <v>43990</v>
+      </c>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59">
+        <v>43000</v>
+      </c>
+      <c r="H31" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="59">
+        <v>38000</v>
+      </c>
+      <c r="E32" s="59">
+        <v>43990</v>
+      </c>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59">
+        <v>43000</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="59">
+        <v>36000</v>
+      </c>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="59">
+        <v>57000</v>
+      </c>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="59">
+        <v>64900</v>
+      </c>
+      <c r="E35" s="59">
+        <v>66990</v>
+      </c>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59">
+        <v>65000</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="59">
+        <v>62000</v>
+      </c>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="59">
+        <v>67000</v>
+      </c>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="59">
+        <v>66800</v>
+      </c>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59">
+        <v>67500</v>
+      </c>
+      <c r="H38" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="59">
+        <v>117500</v>
+      </c>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59">
+        <v>118500</v>
+      </c>
+      <c r="H39" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="59">
+        <v>131500</v>
+      </c>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59">
+        <v>131500</v>
+      </c>
+      <c r="H40" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="59">
+        <v>130500</v>
+      </c>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59">
+        <v>130500</v>
+      </c>
+      <c r="H41" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="59">
+        <v>27384</v>
+      </c>
+      <c r="E42" s="59">
+        <v>35990</v>
+      </c>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59">
+        <v>35000</v>
+      </c>
+      <c r="H42" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="59">
+        <v>17839</v>
+      </c>
+      <c r="E43" s="59">
+        <v>26990</v>
+      </c>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59">
+        <v>25000</v>
+      </c>
+      <c r="H43" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="59">
+        <v>17000</v>
+      </c>
+      <c r="E44" s="59">
+        <v>29990</v>
+      </c>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59">
+        <v>27000</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="59">
+        <v>35262</v>
+      </c>
+      <c r="E45" s="59">
+        <v>43990</v>
+      </c>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59">
+        <v>42000</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="59">
+        <v>50089</v>
+      </c>
+      <c r="E46" s="59">
+        <v>55990</v>
+      </c>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59">
+        <v>54000</v>
+      </c>
+      <c r="H46" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="59">
+        <v>65099</v>
+      </c>
+      <c r="E47" s="59">
+        <v>68990</v>
+      </c>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59">
+        <v>67000</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="59">
+        <v>49929</v>
+      </c>
+      <c r="E48" s="59">
+        <v>55990</v>
+      </c>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59">
+        <v>53000</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="59">
+        <v>49427</v>
+      </c>
+      <c r="E49" s="59">
+        <v>54990</v>
+      </c>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59">
+        <v>53000</v>
+      </c>
+      <c r="H49" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="59">
+        <v>69752</v>
+      </c>
+      <c r="E50" s="59">
+        <v>72990</v>
+      </c>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59">
+        <v>71000</v>
+      </c>
+      <c r="H50" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="59">
+        <v>88984</v>
+      </c>
+      <c r="E51" s="59">
+        <v>93990</v>
+      </c>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59">
+        <v>91000</v>
+      </c>
+      <c r="H51" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="59">
+        <v>30262</v>
+      </c>
+      <c r="E52" s="59">
+        <v>39990</v>
+      </c>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59">
+        <v>38000</v>
+      </c>
+      <c r="H52" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="59">
+        <v>45000</v>
+      </c>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="59">
+        <v>80000</v>
+      </c>
+      <c r="E54" s="59">
+        <v>89990</v>
+      </c>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59">
+        <v>87000</v>
+      </c>
+      <c r="H54" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="59">
+        <v>60499</v>
+      </c>
+      <c r="E55" s="59">
+        <v>67990</v>
+      </c>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59">
+        <v>66000</v>
+      </c>
+      <c r="H55" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="59">
+        <v>80000</v>
+      </c>
+      <c r="E56" s="59">
+        <v>86990</v>
+      </c>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59">
+        <v>85000</v>
+      </c>
+      <c r="H56" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="59">
+        <v>115000</v>
+      </c>
+      <c r="E57" s="59">
+        <v>122990</v>
+      </c>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59">
+        <v>120000</v>
+      </c>
+      <c r="H57" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="59">
+        <v>36500</v>
+      </c>
+      <c r="E58" s="59">
+        <v>34990</v>
+      </c>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59">
+        <v>34000</v>
+      </c>
+      <c r="H58" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="59">
+        <v>49099</v>
+      </c>
+      <c r="E59" s="59">
+        <v>48990</v>
+      </c>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59">
+        <v>48000</v>
+      </c>
+      <c r="H59" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="59">
+        <v>138600</v>
+      </c>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59">
+        <v>138600</v>
+      </c>
+      <c r="H60" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" s="59">
+        <v>42000</v>
+      </c>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="59">
+        <v>38500</v>
+      </c>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59">
+        <v>30000</v>
+      </c>
+      <c r="H62" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="D63" s="59">
+        <v>25000</v>
+      </c>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="59">
+        <v>15000</v>
+      </c>
+      <c r="E64" s="59">
+        <v>20990</v>
+      </c>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59">
+        <v>20000</v>
+      </c>
+      <c r="H64" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" s="59">
+        <v>77000</v>
+      </c>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H66" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H67" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H68" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H69" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H70" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H71" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H72" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H73" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H74" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H75" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H76" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H77" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="58"/>
+      <c r="C78" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="59">
+        <v>5700</v>
+      </c>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59">
+        <v>6800</v>
+      </c>
+      <c r="H78" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="59">
+        <v>3063</v>
+      </c>
+      <c r="E79" s="59">
+        <v>4390</v>
+      </c>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59">
+        <v>3800</v>
+      </c>
+      <c r="H79" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" s="58"/>
+      <c r="C80" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D80" s="59">
+        <v>13000</v>
+      </c>
+      <c r="E80" s="59">
+        <v>23990</v>
+      </c>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59">
+        <v>21000</v>
+      </c>
+      <c r="H80" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="58"/>
+      <c r="C81" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="59">
+        <v>28000</v>
+      </c>
+      <c r="E81" s="59">
+        <v>34990</v>
+      </c>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59">
+        <v>33000</v>
+      </c>
+      <c r="H81" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="59">
+        <v>91600</v>
+      </c>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59">
+        <v>94000</v>
+      </c>
+      <c r="H82" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="59">
+        <v>11000</v>
+      </c>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59">
+        <v>12800</v>
+      </c>
+      <c r="H83" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="59">
+        <v>11200</v>
+      </c>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59">
+        <v>12800</v>
+      </c>
+      <c r="H84" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="59">
+        <v>11000</v>
+      </c>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59">
+        <v>12800</v>
+      </c>
+      <c r="H85" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="59">
+        <v>3800</v>
+      </c>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59">
         <v>4500</v>
       </c>
-      <c r="H4" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="56">
-        <v>2766</v>
-      </c>
-      <c r="E5" s="56">
-        <v>2990</v>
-      </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56">
+      <c r="H86" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="59">
+        <v>3800</v>
+      </c>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59">
+        <v>4500</v>
+      </c>
+      <c r="H87" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="59">
+        <v>7600</v>
+      </c>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59">
+        <v>9500</v>
+      </c>
+      <c r="H88" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="59">
         <v>3000</v>
       </c>
-      <c r="H5" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="56">
-        <v>1300</v>
-      </c>
-      <c r="E6" s="56">
-        <v>2990</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56">
-        <v>3000</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="56">
-        <v>3150</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56">
-        <v>4500</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="56">
-        <v>4000</v>
-      </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56">
-        <v>4500</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="56">
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59">
+        <v>3800</v>
+      </c>
+      <c r="H89" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="58"/>
+      <c r="C90" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" s="59">
+        <v>3300</v>
+      </c>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59">
+        <v>3800</v>
+      </c>
+      <c r="H90" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="58"/>
+      <c r="C91" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="59">
+        <v>3407</v>
+      </c>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="59">
+        <v>3800</v>
+      </c>
+      <c r="H91" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="58"/>
+      <c r="C92" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="59">
+        <v>3407</v>
+      </c>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59">
+        <v>3800</v>
+      </c>
+      <c r="H92" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="58"/>
+      <c r="C93" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D93" s="59">
+        <v>31000</v>
+      </c>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="59">
+        <v>31000</v>
+      </c>
+      <c r="H93" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" s="59">
+        <v>35100</v>
+      </c>
+      <c r="E94" s="59"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59">
+        <v>28000</v>
+      </c>
+      <c r="H94" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="58"/>
+      <c r="C95" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" s="59">
+        <v>5784</v>
+      </c>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59">
+        <v>6200</v>
+      </c>
+      <c r="H95" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" s="58"/>
+      <c r="C96" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="D96" s="59">
+        <v>6788</v>
+      </c>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59">
+        <v>7500</v>
+      </c>
+      <c r="H96" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="58"/>
+      <c r="C97" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="59">
+        <v>7362</v>
+      </c>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59">
+        <v>7500</v>
+      </c>
+      <c r="H97" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" s="58"/>
+      <c r="C98" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" s="59">
+        <v>23600</v>
+      </c>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59">
+        <v>24000</v>
+      </c>
+      <c r="H98" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D99" s="59">
+        <v>3063</v>
+      </c>
+      <c r="E99" s="59">
+        <v>4390</v>
+      </c>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59">
+        <v>3100</v>
+      </c>
+      <c r="H99" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" s="58"/>
+      <c r="C100" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" s="59">
+        <v>9235</v>
+      </c>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59">
+        <v>9900</v>
+      </c>
+      <c r="H100" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B101" s="58"/>
+      <c r="C101" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="59">
+        <v>9235</v>
+      </c>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59">
+        <v>9900</v>
+      </c>
+      <c r="H101" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="B102" s="58"/>
+      <c r="C102" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D102" s="59">
+        <v>9235</v>
+      </c>
+      <c r="E102" s="59"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="59">
+        <v>9900</v>
+      </c>
+      <c r="H102" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="58"/>
+      <c r="C103" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D103" s="59">
+        <v>11600</v>
+      </c>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="59">
+        <v>12500</v>
+      </c>
+      <c r="H103" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" s="58"/>
+      <c r="C104" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" s="59">
+        <v>11900</v>
+      </c>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59">
+        <v>12500</v>
+      </c>
+      <c r="H104" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" s="58"/>
+      <c r="C105" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D105" s="59">
+        <v>14600</v>
+      </c>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59">
+        <v>14500</v>
+      </c>
+      <c r="H105" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="B106" s="58"/>
+      <c r="C106" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" s="59">
+        <v>13600</v>
+      </c>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59">
+        <v>14500</v>
+      </c>
+      <c r="H106" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="B107" s="58"/>
+      <c r="C107" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D107" s="59">
+        <v>14700</v>
+      </c>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59">
+        <v>15800</v>
+      </c>
+      <c r="H107" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" s="58"/>
+      <c r="C108" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="D108" s="59">
+        <v>18700</v>
+      </c>
+      <c r="E108" s="59"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59">
+        <v>19000</v>
+      </c>
+      <c r="H108" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" s="58"/>
+      <c r="C109" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="D109" s="59">
+        <v>21200</v>
+      </c>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="59">
+        <v>22000</v>
+      </c>
+      <c r="H109" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B110" s="58"/>
+      <c r="C110" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110" s="59">
+        <v>25400</v>
+      </c>
+      <c r="E110" s="59"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="59">
+        <v>26700</v>
+      </c>
+      <c r="H110" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" s="58"/>
+      <c r="C111" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D111" s="59">
+        <v>26500</v>
+      </c>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="59">
+        <v>26700</v>
+      </c>
+      <c r="H111" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="B112" s="58"/>
+      <c r="C112" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" s="59">
+        <v>26500</v>
+      </c>
+      <c r="E112" s="59"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="59">
+        <v>26700</v>
+      </c>
+      <c r="H112" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="58"/>
+      <c r="C113" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="59">
+        <v>24000</v>
+      </c>
+      <c r="E113" s="59"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="59">
+        <v>24000</v>
+      </c>
+      <c r="H113" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="58"/>
+      <c r="C114" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="59">
+        <v>24000</v>
+      </c>
+      <c r="E114" s="59"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="59">
+        <v>24000</v>
+      </c>
+      <c r="H114" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B115" s="58"/>
+      <c r="C115" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="59">
+        <v>24000</v>
+      </c>
+      <c r="E115" s="59"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="59">
+        <v>24000</v>
+      </c>
+      <c r="H115" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" s="58"/>
+      <c r="C116" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D116" s="59">
+        <v>13000</v>
+      </c>
+      <c r="E116" s="59">
+        <v>17990</v>
+      </c>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59">
+        <v>16000</v>
+      </c>
+      <c r="H116" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="B117" s="58"/>
+      <c r="C117" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="D117" s="59">
+        <v>33700</v>
+      </c>
+      <c r="E117" s="59"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="59">
+        <v>35000</v>
+      </c>
+      <c r="H117" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="B118" s="58"/>
+      <c r="C118" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="D118" s="59">
+        <v>33700</v>
+      </c>
+      <c r="E118" s="59"/>
+      <c r="F118" s="59"/>
+      <c r="G118" s="59">
+        <v>35000</v>
+      </c>
+      <c r="H118" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="B119" s="58"/>
+      <c r="C119" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="D119" s="59">
+        <v>29200</v>
+      </c>
+      <c r="E119" s="59"/>
+      <c r="F119" s="59"/>
+      <c r="G119" s="59">
+        <v>29700</v>
+      </c>
+      <c r="H119" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B120" s="58"/>
+      <c r="C120" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" s="59">
+        <v>28400</v>
+      </c>
+      <c r="E120" s="59"/>
+      <c r="F120" s="59"/>
+      <c r="G120" s="59">
+        <v>29700</v>
+      </c>
+      <c r="H120" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B121" s="58"/>
+      <c r="C121" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="D121" s="59">
+        <v>30400</v>
+      </c>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="59">
+        <v>29700</v>
+      </c>
+      <c r="H121" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="B122" s="58"/>
+      <c r="C122" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" s="59">
         <v>3500</v>
       </c>
-      <c r="E9" s="56">
-        <v>1990</v>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56">
-        <v>1500</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="56">
-        <v>12500</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56">
-        <v>13200</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="56">
-        <v>5034</v>
-      </c>
-      <c r="E11" s="56">
-        <v>12990</v>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56">
+      <c r="E122" s="59">
+        <v>7990</v>
+      </c>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59">
+        <v>7000</v>
+      </c>
+      <c r="H122" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="58"/>
+      <c r="C123" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D123" s="59">
+        <v>8000</v>
+      </c>
+      <c r="E123" s="59">
+        <v>13990</v>
+      </c>
+      <c r="F123" s="59"/>
+      <c r="G123" s="59">
+        <v>13000</v>
+      </c>
+      <c r="H123" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="B124" s="58"/>
+      <c r="C124" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="D124" s="59">
+        <v>12000</v>
+      </c>
+      <c r="E124" s="59"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="B125" s="58"/>
+      <c r="C125" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="D125" s="59">
+        <v>52000</v>
+      </c>
+      <c r="E125" s="59"/>
+      <c r="F125" s="59"/>
+      <c r="G125" s="59"/>
+      <c r="H125" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="B126" s="58"/>
+      <c r="C126" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="D126" s="59">
+        <v>63200</v>
+      </c>
+      <c r="E126" s="59"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59">
+        <v>63500</v>
+      </c>
+      <c r="H126" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B127" s="58"/>
+      <c r="C127" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D127" s="59">
+        <v>80000</v>
+      </c>
+      <c r="E127" s="59"/>
+      <c r="F127" s="59"/>
+      <c r="G127" s="59">
+        <v>80000</v>
+      </c>
+      <c r="H127" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B128" s="58"/>
+      <c r="C128" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128" s="59">
+        <v>11407</v>
+      </c>
+      <c r="E128" s="59"/>
+      <c r="F128" s="59"/>
+      <c r="G128" s="59">
+        <v>13000</v>
+      </c>
+      <c r="H128" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" s="58"/>
+      <c r="C129" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D129" s="59">
+        <v>18000</v>
+      </c>
+      <c r="E129" s="59">
+        <v>19990</v>
+      </c>
+      <c r="F129" s="59"/>
+      <c r="G129" s="59">
+        <v>19000</v>
+      </c>
+      <c r="H129" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" s="58"/>
+      <c r="C130" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" s="59">
+        <v>17000</v>
+      </c>
+      <c r="E130" s="59">
+        <v>19990</v>
+      </c>
+      <c r="F130" s="59"/>
+      <c r="G130" s="59">
+        <v>19000</v>
+      </c>
+      <c r="H130" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" s="58"/>
+      <c r="C131" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="D131" s="59">
+        <v>28000</v>
+      </c>
+      <c r="E131" s="59">
+        <v>34990</v>
+      </c>
+      <c r="F131" s="59"/>
+      <c r="G131" s="59">
+        <v>33000</v>
+      </c>
+      <c r="H131" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="B132" s="58"/>
+      <c r="C132" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D132" s="59">
+        <v>68500</v>
+      </c>
+      <c r="E132" s="59"/>
+      <c r="F132" s="59"/>
+      <c r="G132" s="59">
+        <v>68800</v>
+      </c>
+      <c r="H132" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="B133" s="58"/>
+      <c r="C133" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="D133" s="59">
+        <v>69800</v>
+      </c>
+      <c r="E133" s="59"/>
+      <c r="F133" s="59"/>
+      <c r="G133" s="59"/>
+      <c r="H133" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B134" s="58"/>
+      <c r="C134" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D134" s="59">
+        <v>5500</v>
+      </c>
+      <c r="E134" s="59">
+        <v>7990</v>
+      </c>
+      <c r="F134" s="59"/>
+      <c r="G134" s="59">
+        <v>7000</v>
+      </c>
+      <c r="H134" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B135" s="58"/>
+      <c r="C135" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D135" s="59">
+        <v>22500</v>
+      </c>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="59">
+        <v>22900</v>
+      </c>
+      <c r="H135" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="B136" s="58"/>
+      <c r="C136" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="D136" s="59">
+        <v>10866</v>
+      </c>
+      <c r="E136" s="59"/>
+      <c r="F136" s="59"/>
+      <c r="G136" s="59">
+        <v>11200</v>
+      </c>
+      <c r="H136" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B137" s="58"/>
+      <c r="C137" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D137" s="59">
+        <v>11800</v>
+      </c>
+      <c r="E137" s="59"/>
+      <c r="F137" s="59"/>
+      <c r="G137" s="59">
+        <v>11200</v>
+      </c>
+      <c r="H137" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B138" s="58"/>
+      <c r="C138" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="D138" s="59">
+        <v>9518</v>
+      </c>
+      <c r="E138" s="59"/>
+      <c r="F138" s="59"/>
+      <c r="G138" s="59">
         <v>10000</v>
       </c>
-      <c r="H11" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="56">
-        <v>5033</v>
-      </c>
-      <c r="E12" s="56">
-        <v>5990</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56">
-        <v>5500</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="56">
-        <v>13800</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56">
-        <v>14500</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="56">
-        <v>13800</v>
-      </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56">
-        <v>14500</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" s="56">
-        <v>13800</v>
-      </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56">
-        <v>14500</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="56">
-        <v>13800</v>
-      </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56">
-        <v>14500</v>
-      </c>
-      <c r="H16" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="D17" s="56">
-        <v>16972</v>
-      </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56">
-        <v>18100</v>
-      </c>
-      <c r="H17" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="D18" s="56">
-        <v>17400</v>
-      </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56">
-        <v>18100</v>
-      </c>
-      <c r="H18" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="56">
-        <v>17400</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56">
-        <v>18100</v>
-      </c>
-      <c r="H19" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="56">
-        <v>17400</v>
-      </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56">
-        <v>18100</v>
-      </c>
-      <c r="H20" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="56">
-        <v>16300</v>
-      </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E22" s="56">
-        <v>18990</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56">
-        <v>17000</v>
-      </c>
-      <c r="H22" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="D23" s="56">
-        <v>41000</v>
-      </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="56">
-        <v>38099</v>
-      </c>
-      <c r="E24" s="56">
-        <v>30990</v>
-      </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56">
-        <v>30000</v>
-      </c>
-      <c r="H24" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="56">
+      <c r="H138" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="B139" s="58"/>
+      <c r="C139" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="D139" s="59">
+        <v>9518</v>
+      </c>
+      <c r="E139" s="59"/>
+      <c r="F139" s="59"/>
+      <c r="G139" s="59">
+        <v>10000</v>
+      </c>
+      <c r="H139" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" s="58"/>
+      <c r="C140" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D140" s="59">
+        <v>17718</v>
+      </c>
+      <c r="E140" s="59"/>
+      <c r="F140" s="59"/>
+      <c r="G140" s="59">
+        <v>22000</v>
+      </c>
+      <c r="H140" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" s="58"/>
+      <c r="C141" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="D141" s="59">
+        <v>18272</v>
+      </c>
+      <c r="E141" s="59"/>
+      <c r="F141" s="59"/>
+      <c r="G141" s="59">
+        <v>22000</v>
+      </c>
+      <c r="H141" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B142" s="58"/>
+      <c r="C142" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D142" s="59">
+        <v>18800</v>
+      </c>
+      <c r="E142" s="59"/>
+      <c r="F142" s="59"/>
+      <c r="G142" s="59">
+        <v>14000</v>
+      </c>
+      <c r="H142" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" s="58"/>
+      <c r="C143" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="D143" s="59">
+        <v>31100</v>
+      </c>
+      <c r="E143" s="59"/>
+      <c r="F143" s="59"/>
+      <c r="G143" s="59">
+        <v>31900</v>
+      </c>
+      <c r="H143" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144" s="58"/>
+      <c r="C144" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="D144" s="59">
+        <v>26800</v>
+      </c>
+      <c r="E144" s="59"/>
+      <c r="F144" s="59"/>
+      <c r="G144" s="59">
         <v>27500</v>
       </c>
-      <c r="E25" s="56">
-        <v>29990</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56">
+      <c r="H144" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B145" s="58"/>
+      <c r="C145" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D145" s="59">
+        <v>27000</v>
+      </c>
+      <c r="E145" s="59"/>
+      <c r="F145" s="59"/>
+      <c r="G145" s="59">
+        <v>27500</v>
+      </c>
+      <c r="H145" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B146" s="58"/>
+      <c r="C146" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D146" s="59">
+        <v>26200</v>
+      </c>
+      <c r="E146" s="59"/>
+      <c r="F146" s="59"/>
+      <c r="G146" s="59">
+        <v>27500</v>
+      </c>
+      <c r="H146" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B147" s="58"/>
+      <c r="C147" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="D147" s="59">
+        <v>35300</v>
+      </c>
+      <c r="E147" s="59"/>
+      <c r="F147" s="59"/>
+      <c r="G147" s="59">
+        <v>35600</v>
+      </c>
+      <c r="H147" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="B148" s="58"/>
+      <c r="C148" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="D148" s="59">
+        <v>31230</v>
+      </c>
+      <c r="E148" s="59"/>
+      <c r="F148" s="59"/>
+      <c r="G148" s="59">
+        <v>35600</v>
+      </c>
+      <c r="H148" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" s="58"/>
+      <c r="C149" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D149" s="59">
+        <v>21200</v>
+      </c>
+      <c r="E149" s="59"/>
+      <c r="F149" s="59"/>
+      <c r="G149" s="59">
+        <v>22700</v>
+      </c>
+      <c r="H149" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B150" s="58"/>
+      <c r="C150" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D150" s="59">
+        <v>500</v>
+      </c>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="59">
+        <v>500</v>
+      </c>
+      <c r="H150" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B151" s="58"/>
+      <c r="C151" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="59"/>
+      <c r="H151" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152" s="58"/>
+      <c r="C152" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D152" s="59">
+        <v>75</v>
+      </c>
+      <c r="E152" s="59"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="59">
+        <v>500</v>
+      </c>
+      <c r="H152" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B153" s="58"/>
+      <c r="C153" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D153" s="59">
+        <v>200</v>
+      </c>
+      <c r="E153" s="59"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="59">
+        <v>500</v>
+      </c>
+      <c r="H153" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" s="58"/>
+      <c r="C154" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D154" s="59">
+        <v>200</v>
+      </c>
+      <c r="E154" s="59"/>
+      <c r="F154" s="59"/>
+      <c r="G154" s="59">
+        <v>500</v>
+      </c>
+      <c r="H154" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B155" s="58"/>
+      <c r="C155" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D155" s="59">
+        <v>200</v>
+      </c>
+      <c r="E155" s="59"/>
+      <c r="F155" s="59"/>
+      <c r="G155" s="59">
+        <v>500</v>
+      </c>
+      <c r="H155" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B156" s="58"/>
+      <c r="C156" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D156" s="59">
+        <v>200</v>
+      </c>
+      <c r="E156" s="59"/>
+      <c r="F156" s="59"/>
+      <c r="G156" s="59">
+        <v>500</v>
+      </c>
+      <c r="H156" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B157" s="58"/>
+      <c r="C157" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D157" s="59">
+        <v>400</v>
+      </c>
+      <c r="E157" s="59"/>
+      <c r="F157" s="59"/>
+      <c r="G157" s="59">
+        <v>500</v>
+      </c>
+      <c r="H157" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B158" s="58"/>
+      <c r="C158" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D158" s="59">
+        <v>300</v>
+      </c>
+      <c r="E158" s="59"/>
+      <c r="F158" s="59"/>
+      <c r="G158" s="59">
+        <v>500</v>
+      </c>
+      <c r="H158" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="B159" s="58"/>
+      <c r="C159" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="D159" s="59">
+        <v>28440</v>
+      </c>
+      <c r="E159" s="59"/>
+      <c r="F159" s="59"/>
+      <c r="G159" s="59">
         <v>29000</v>
       </c>
-      <c r="H25" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="56">
-        <v>31000</v>
-      </c>
-      <c r="E26" s="56">
-        <v>37990</v>
-      </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56">
-        <v>36000</v>
-      </c>
-      <c r="H26" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="56">
-        <v>51600</v>
-      </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56">
-        <v>52200</v>
-      </c>
-      <c r="H27" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" s="56">
-        <v>30000</v>
-      </c>
-      <c r="E28" s="56">
-        <v>37990</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56">
-        <v>36000</v>
-      </c>
-      <c r="H28" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="D29" s="56">
+      <c r="H159" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="B160" s="58"/>
+      <c r="C160" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="D160" s="59">
+        <v>28044</v>
+      </c>
+      <c r="E160" s="59"/>
+      <c r="F160" s="59"/>
+      <c r="G160" s="59">
         <v>29000</v>
       </c>
-      <c r="E29" s="56">
-        <v>37990</v>
-      </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56">
-        <v>36000</v>
-      </c>
-      <c r="H29" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="56">
-        <v>36500</v>
-      </c>
-      <c r="E30" s="56">
-        <v>43990</v>
-      </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56">
-        <v>42000</v>
-      </c>
-      <c r="H30" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="56">
-        <v>46519</v>
-      </c>
-      <c r="E31" s="56">
-        <v>47990</v>
-      </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56">
-        <v>46200</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="56">
-        <v>25500</v>
-      </c>
-      <c r="E32" s="56">
-        <v>26990</v>
-      </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56">
-        <v>26000</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" s="56">
-        <v>41000</v>
-      </c>
-      <c r="E33" s="56">
-        <v>43990</v>
-      </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56">
-        <v>43000</v>
-      </c>
-      <c r="H33" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="56">
-        <v>38000</v>
-      </c>
-      <c r="E34" s="56">
-        <v>43990</v>
-      </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56">
-        <v>43000</v>
-      </c>
-      <c r="H34" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="D35" s="56">
-        <v>36000</v>
-      </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="56">
-        <v>57000</v>
-      </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="56">
-        <v>64900</v>
-      </c>
-      <c r="E37" s="56">
-        <v>66990</v>
-      </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56">
-        <v>65000</v>
-      </c>
-      <c r="H37" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="D38" s="56">
-        <v>62000</v>
-      </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="D39" s="56">
-        <v>67000</v>
-      </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="D40" s="56">
-        <v>66800</v>
-      </c>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56">
-        <v>67500</v>
-      </c>
-      <c r="H40" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="56">
-        <v>107000</v>
-      </c>
-      <c r="E41" s="56">
-        <v>109990</v>
-      </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56">
-        <v>108000</v>
-      </c>
-      <c r="H41" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="D42" s="56">
-        <v>117800</v>
-      </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56">
-        <v>118500</v>
-      </c>
-      <c r="H42" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="D43" s="56">
-        <v>117500</v>
-      </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56">
-        <v>118500</v>
-      </c>
-      <c r="H43" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="D44" s="56">
-        <v>131500</v>
-      </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56">
-        <v>132000</v>
-      </c>
-      <c r="H44" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="D45" s="56">
-        <v>130500</v>
-      </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56">
-        <v>131500</v>
-      </c>
-      <c r="H45" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="56">
-        <v>27384</v>
-      </c>
-      <c r="E46" s="56">
-        <v>35990</v>
-      </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56">
-        <v>35000</v>
-      </c>
-      <c r="H46" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="56">
-        <v>17839</v>
-      </c>
-      <c r="E47" s="56">
-        <v>26990</v>
-      </c>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56">
-        <v>25000</v>
-      </c>
-      <c r="H47" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="D48" s="56">
-        <v>17000</v>
-      </c>
-      <c r="E48" s="56">
-        <v>29990</v>
-      </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56">
-        <v>27000</v>
-      </c>
-      <c r="H48" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="56">
-        <v>35262</v>
-      </c>
-      <c r="E49" s="56">
-        <v>43990</v>
-      </c>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56">
-        <v>42000</v>
-      </c>
-      <c r="H49" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="56">
-        <v>50089</v>
-      </c>
-      <c r="E50" s="56">
-        <v>55990</v>
-      </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56">
-        <v>54000</v>
-      </c>
-      <c r="H50" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="56">
-        <v>65099</v>
-      </c>
-      <c r="E51" s="56">
-        <v>68990</v>
-      </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56">
-        <v>67000</v>
-      </c>
-      <c r="H51" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="56">
-        <v>49929</v>
-      </c>
-      <c r="E52" s="56">
-        <v>55990</v>
-      </c>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56">
-        <v>53000</v>
-      </c>
-      <c r="H52" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="56">
-        <v>49427</v>
-      </c>
-      <c r="E53" s="56">
-        <v>54990</v>
-      </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56">
-        <v>53000</v>
-      </c>
-      <c r="H53" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="56">
-        <v>69752</v>
-      </c>
-      <c r="E54" s="56">
-        <v>72990</v>
-      </c>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56">
-        <v>71000</v>
-      </c>
-      <c r="H54" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="56">
-        <v>88984</v>
-      </c>
-      <c r="E55" s="56">
-        <v>93990</v>
-      </c>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56">
-        <v>91000</v>
-      </c>
-      <c r="H55" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D56" s="56">
-        <v>30262</v>
-      </c>
-      <c r="E56" s="56">
-        <v>39990</v>
-      </c>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56">
-        <v>38000</v>
-      </c>
-      <c r="H56" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="56">
-        <v>45000</v>
-      </c>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="D58" s="56">
-        <v>80000</v>
-      </c>
-      <c r="E58" s="56">
-        <v>89990</v>
-      </c>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56">
-        <v>87000</v>
-      </c>
-      <c r="H58" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" s="56">
-        <v>60499</v>
-      </c>
-      <c r="E59" s="56">
-        <v>67990</v>
-      </c>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56">
-        <v>66000</v>
-      </c>
-      <c r="H59" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="56">
-        <v>80000</v>
-      </c>
-      <c r="E60" s="56">
-        <v>86990</v>
-      </c>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56">
-        <v>85000</v>
-      </c>
-      <c r="H60" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="56">
-        <v>115000</v>
-      </c>
-      <c r="E61" s="56">
-        <v>122990</v>
-      </c>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56">
-        <v>120000</v>
-      </c>
-      <c r="H61" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D62" s="56">
-        <v>36500</v>
-      </c>
-      <c r="E62" s="56">
-        <v>34990</v>
-      </c>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56">
-        <v>34000</v>
-      </c>
-      <c r="H62" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="56">
-        <v>49099</v>
-      </c>
-      <c r="E63" s="56">
-        <v>48990</v>
-      </c>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56">
-        <v>48000</v>
-      </c>
-      <c r="H63" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="D64" s="56">
-        <v>45001</v>
-      </c>
-      <c r="E64" s="56">
-        <v>54990</v>
-      </c>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56">
-        <v>52000</v>
-      </c>
-      <c r="H64" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D65" s="56">
-        <v>138600</v>
-      </c>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56">
-        <v>138600</v>
-      </c>
-      <c r="H65" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="56">
-        <v>38500</v>
-      </c>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56">
-        <v>30000</v>
-      </c>
-      <c r="H66" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="56">
-        <v>15000</v>
-      </c>
-      <c r="E67" s="56">
-        <v>20990</v>
-      </c>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56">
-        <v>20000</v>
-      </c>
-      <c r="H67" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H68" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H69" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H70" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H71" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H72" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H73" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H74" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H75" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" s="55"/>
-      <c r="C76" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H76" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H77" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H78" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D79" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H79" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="56">
-        <v>5700</v>
-      </c>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56">
-        <v>6800</v>
-      </c>
-      <c r="H80" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="56">
-        <v>3063</v>
-      </c>
-      <c r="E81" s="56">
-        <v>4390</v>
-      </c>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56">
-        <v>3800</v>
-      </c>
-      <c r="H81" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="D82" s="56">
-        <v>13000</v>
-      </c>
-      <c r="E82" s="56">
-        <v>23990</v>
-      </c>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56">
-        <v>21000</v>
-      </c>
-      <c r="H82" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="D83" s="56">
-        <v>28000</v>
-      </c>
-      <c r="E83" s="56">
-        <v>34990</v>
-      </c>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56">
-        <v>33000</v>
-      </c>
-      <c r="H83" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D84" s="56">
-        <v>91600</v>
-      </c>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56">
-        <v>94000</v>
-      </c>
-      <c r="H84" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" s="55"/>
-      <c r="C85" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D85" s="56">
-        <v>11000</v>
-      </c>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56">
-        <v>12800</v>
-      </c>
-      <c r="H85" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="56">
-        <v>11200</v>
-      </c>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56">
-        <v>12800</v>
-      </c>
-      <c r="H86" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D87" s="56">
-        <v>11000</v>
-      </c>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56">
-        <v>12800</v>
-      </c>
-      <c r="H87" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="55"/>
-      <c r="C88" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="56">
-        <v>3800</v>
-      </c>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56">
-        <v>4500</v>
-      </c>
-      <c r="H88" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="55"/>
-      <c r="C89" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89" s="56">
-        <v>3800</v>
-      </c>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56">
-        <v>4500</v>
-      </c>
-      <c r="H89" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B90" s="55"/>
-      <c r="C90" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" s="56">
-        <v>7600</v>
-      </c>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56">
-        <v>9500</v>
-      </c>
-      <c r="H90" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91" s="56">
-        <v>3000</v>
-      </c>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56">
-        <v>3800</v>
-      </c>
-      <c r="H91" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="D92" s="56">
-        <v>3300</v>
-      </c>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56">
-        <v>3800</v>
-      </c>
-      <c r="H92" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" s="55"/>
-      <c r="C93" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" s="56">
-        <v>3407</v>
-      </c>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56">
-        <v>3800</v>
-      </c>
-      <c r="H93" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D94" s="56">
-        <v>3407</v>
-      </c>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56">
-        <v>3800</v>
-      </c>
-      <c r="H94" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="D95" s="56">
-        <v>31000</v>
-      </c>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="56">
-        <v>31000</v>
-      </c>
-      <c r="H95" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D96" s="56">
-        <v>35100</v>
-      </c>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56">
-        <v>28000</v>
-      </c>
-      <c r="H96" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" s="56">
-        <v>5784</v>
-      </c>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56">
-        <v>6200</v>
-      </c>
-      <c r="H97" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="D98" s="56">
-        <v>6788</v>
-      </c>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="56">
-        <v>7500</v>
-      </c>
-      <c r="H98" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="D99" s="56">
-        <v>7362</v>
-      </c>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56">
-        <v>7500</v>
-      </c>
-      <c r="H99" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D100" s="56">
-        <v>23600</v>
-      </c>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56">
-        <v>24000</v>
-      </c>
-      <c r="H100" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B101" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C101" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D101" s="56">
-        <v>3063</v>
-      </c>
-      <c r="E101" s="56">
-        <v>4390</v>
-      </c>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56">
-        <v>3100</v>
-      </c>
-      <c r="H101" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="B102" s="55"/>
-      <c r="C102" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="D102" s="56">
-        <v>9235</v>
-      </c>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56">
-        <v>9900</v>
-      </c>
-      <c r="H102" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="B103" s="55"/>
-      <c r="C103" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="D103" s="56">
-        <v>9235</v>
-      </c>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56">
-        <v>9900</v>
-      </c>
-      <c r="H103" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="B104" s="55"/>
-      <c r="C104" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="D104" s="56">
-        <v>9235</v>
-      </c>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56">
-        <v>9900</v>
-      </c>
-      <c r="H104" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="B105" s="55"/>
-      <c r="C105" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="D105" s="56">
-        <v>11600</v>
-      </c>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56">
-        <v>12500</v>
-      </c>
-      <c r="H105" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="B106" s="55"/>
-      <c r="C106" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="D106" s="56">
-        <v>11900</v>
-      </c>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56">
-        <v>12500</v>
-      </c>
-      <c r="H106" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="B107" s="55"/>
-      <c r="C107" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D107" s="56">
-        <v>14600</v>
-      </c>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56">
-        <v>14500</v>
-      </c>
-      <c r="H107" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="B108" s="55"/>
-      <c r="C108" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="D108" s="56">
-        <v>13600</v>
-      </c>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="56">
-        <v>14500</v>
-      </c>
-      <c r="H108" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="B109" s="55"/>
-      <c r="C109" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="D109" s="56">
-        <v>14700</v>
-      </c>
-      <c r="E109" s="56"/>
-      <c r="F109" s="56"/>
-      <c r="G109" s="56">
-        <v>15800</v>
-      </c>
-      <c r="H109" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="B110" s="55"/>
-      <c r="C110" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="D110" s="56">
-        <v>18700</v>
-      </c>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56">
-        <v>19200</v>
-      </c>
-      <c r="H110" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="B111" s="55"/>
-      <c r="C111" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="D111" s="56">
-        <v>21200</v>
-      </c>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56">
-        <v>21800</v>
-      </c>
-      <c r="H111" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="B112" s="55"/>
-      <c r="C112" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="D112" s="56">
-        <v>25400</v>
-      </c>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56">
-        <v>26700</v>
-      </c>
-      <c r="H112" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="B113" s="55"/>
-      <c r="C113" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="D113" s="56">
-        <v>26500</v>
-      </c>
-      <c r="E113" s="56"/>
-      <c r="F113" s="56"/>
-      <c r="G113" s="56">
-        <v>26700</v>
-      </c>
-      <c r="H113" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="B114" s="55"/>
-      <c r="C114" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="D114" s="56">
-        <v>26500</v>
-      </c>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56">
-        <v>26700</v>
-      </c>
-      <c r="H114" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="55"/>
-      <c r="C115" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="56">
-        <v>24000</v>
-      </c>
-      <c r="E115" s="56"/>
-      <c r="F115" s="56"/>
-      <c r="G115" s="56">
-        <v>24000</v>
-      </c>
-      <c r="H115" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="55"/>
-      <c r="C116" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="56">
-        <v>24000</v>
-      </c>
-      <c r="E116" s="56"/>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56">
-        <v>24000</v>
-      </c>
-      <c r="H116" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="B117" s="55"/>
-      <c r="C117" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="56">
-        <v>24000</v>
-      </c>
-      <c r="E117" s="56"/>
-      <c r="F117" s="56"/>
-      <c r="G117" s="56">
-        <v>24000</v>
-      </c>
-      <c r="H117" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="B118" s="55"/>
-      <c r="C118" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="D118" s="56">
-        <v>13000</v>
-      </c>
-      <c r="E118" s="56">
-        <v>17990</v>
-      </c>
-      <c r="F118" s="56"/>
-      <c r="G118" s="56">
-        <v>16000</v>
-      </c>
-      <c r="H118" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="B119" s="55"/>
-      <c r="C119" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="D119" s="56">
-        <v>33700</v>
-      </c>
-      <c r="E119" s="56"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="56">
-        <v>35000</v>
-      </c>
-      <c r="H119" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="B120" s="55"/>
-      <c r="C120" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="D120" s="56">
-        <v>33700</v>
-      </c>
-      <c r="E120" s="56"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="56">
-        <v>35000</v>
-      </c>
-      <c r="H120" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="B121" s="55"/>
-      <c r="C121" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="D121" s="56">
-        <v>29200</v>
-      </c>
-      <c r="E121" s="56"/>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56">
-        <v>29700</v>
-      </c>
-      <c r="H121" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="B122" s="55"/>
-      <c r="C122" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D122" s="56">
-        <v>28400</v>
-      </c>
-      <c r="E122" s="56"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="56">
-        <v>29700</v>
-      </c>
-      <c r="H122" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="B123" s="55"/>
-      <c r="C123" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="D123" s="56">
-        <v>29200</v>
-      </c>
-      <c r="E123" s="56"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56">
-        <v>29700</v>
-      </c>
-      <c r="H123" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="B124" s="55"/>
-      <c r="C124" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="D124" s="56">
-        <v>30400</v>
-      </c>
-      <c r="E124" s="56"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="56">
-        <v>29700</v>
-      </c>
-      <c r="H124" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="B125" s="55"/>
-      <c r="C125" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="D125" s="56">
-        <v>3500</v>
-      </c>
-      <c r="E125" s="56">
-        <v>7990</v>
-      </c>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56">
-        <v>7000</v>
-      </c>
-      <c r="H125" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B126" s="55"/>
-      <c r="C126" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D126" s="56">
-        <v>8000</v>
-      </c>
-      <c r="E126" s="56">
-        <v>13990</v>
-      </c>
-      <c r="F126" s="56"/>
-      <c r="G126" s="56">
-        <v>13000</v>
-      </c>
-      <c r="H126" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="B127" s="55"/>
-      <c r="C127" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="D127" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E127" s="56"/>
-      <c r="F127" s="56"/>
-      <c r="G127" s="56"/>
-      <c r="H127" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="B128" s="55"/>
-      <c r="C128" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="D128" s="56">
-        <v>63200</v>
-      </c>
-      <c r="E128" s="56"/>
-      <c r="F128" s="56"/>
-      <c r="G128" s="56">
-        <v>64200</v>
-      </c>
-      <c r="H128" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="B129" s="55"/>
-      <c r="C129" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="D129" s="56">
-        <v>47200</v>
-      </c>
-      <c r="E129" s="56"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="56">
-        <v>50800</v>
-      </c>
-      <c r="H129" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="B130" s="55"/>
-      <c r="C130" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="D130" s="56">
-        <v>80000</v>
-      </c>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
-      <c r="G130" s="56">
-        <v>80000</v>
-      </c>
-      <c r="H130" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="B131" s="55"/>
-      <c r="C131" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D131" s="56">
-        <v>11407</v>
-      </c>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-      <c r="G131" s="56">
-        <v>13000</v>
-      </c>
-      <c r="H131" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="B132" s="55"/>
-      <c r="C132" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="D132" s="56">
-        <v>18000</v>
-      </c>
-      <c r="E132" s="56">
-        <v>19990</v>
-      </c>
-      <c r="F132" s="56"/>
-      <c r="G132" s="56">
-        <v>19000</v>
-      </c>
-      <c r="H132" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B133" s="55"/>
-      <c r="C133" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="D133" s="56">
-        <v>17000</v>
-      </c>
-      <c r="E133" s="56">
-        <v>19990</v>
-      </c>
-      <c r="F133" s="56"/>
-      <c r="G133" s="56">
-        <v>19000</v>
-      </c>
-      <c r="H133" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="B134" s="55"/>
-      <c r="C134" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D134" s="56">
-        <v>28000</v>
-      </c>
-      <c r="E134" s="56">
-        <v>34990</v>
-      </c>
-      <c r="F134" s="56"/>
-      <c r="G134" s="56">
-        <v>33000</v>
-      </c>
-      <c r="H134" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="B135" s="55"/>
-      <c r="C135" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="D135" s="56">
-        <v>68500</v>
-      </c>
-      <c r="E135" s="56"/>
-      <c r="F135" s="56"/>
-      <c r="G135" s="56">
-        <v>68800</v>
-      </c>
-      <c r="H135" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B136" s="55"/>
-      <c r="C136" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="D136" s="56">
-        <v>5500</v>
-      </c>
-      <c r="E136" s="56">
-        <v>7990</v>
-      </c>
-      <c r="F136" s="56"/>
-      <c r="G136" s="56">
-        <v>7000</v>
-      </c>
-      <c r="H136" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B137" s="55"/>
-      <c r="C137" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="D137" s="56">
-        <v>22500</v>
-      </c>
-      <c r="E137" s="56"/>
-      <c r="F137" s="56"/>
-      <c r="G137" s="56">
-        <v>22900</v>
-      </c>
-      <c r="H137" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="B138" s="55"/>
-      <c r="C138" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="D138" s="56">
-        <v>10866</v>
-      </c>
-      <c r="E138" s="56"/>
-      <c r="F138" s="56"/>
-      <c r="G138" s="56">
-        <v>11200</v>
-      </c>
-      <c r="H138" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B139" s="55"/>
-      <c r="C139" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D139" s="56">
-        <v>11800</v>
-      </c>
-      <c r="E139" s="56"/>
-      <c r="F139" s="56"/>
-      <c r="G139" s="56">
-        <v>11200</v>
-      </c>
-      <c r="H139" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="B140" s="55"/>
-      <c r="C140" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="D140" s="56">
-        <v>9518</v>
-      </c>
-      <c r="E140" s="56"/>
-      <c r="F140" s="56"/>
-      <c r="G140" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H140" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="B141" s="55"/>
-      <c r="C141" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="D141" s="56">
-        <v>9518</v>
-      </c>
-      <c r="E141" s="56"/>
-      <c r="F141" s="56"/>
-      <c r="G141" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H141" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="B142" s="55"/>
-      <c r="C142" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="D142" s="56">
-        <v>17718</v>
-      </c>
-      <c r="E142" s="56"/>
-      <c r="F142" s="56"/>
-      <c r="G142" s="56">
-        <v>22000</v>
-      </c>
-      <c r="H142" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="B143" s="55"/>
-      <c r="C143" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="D143" s="56">
-        <v>18272</v>
-      </c>
-      <c r="E143" s="56"/>
-      <c r="F143" s="56"/>
-      <c r="G143" s="56">
-        <v>22000</v>
-      </c>
-      <c r="H143" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="B144" s="55"/>
-      <c r="C144" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="D144" s="56">
-        <v>18800</v>
-      </c>
-      <c r="E144" s="56"/>
-      <c r="F144" s="56"/>
-      <c r="G144" s="56">
-        <v>14000</v>
-      </c>
-      <c r="H144" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B145" s="55"/>
-      <c r="C145" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="D145" s="56">
-        <v>31100</v>
-      </c>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
-      <c r="G145" s="56">
-        <v>31900</v>
-      </c>
-      <c r="H145" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="B146" s="55"/>
-      <c r="C146" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="D146" s="56">
-        <v>26800</v>
-      </c>
-      <c r="E146" s="56"/>
-      <c r="F146" s="56"/>
-      <c r="G146" s="56">
-        <v>27500</v>
-      </c>
-      <c r="H146" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="B147" s="55"/>
-      <c r="C147" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="D147" s="56">
-        <v>27000</v>
-      </c>
-      <c r="E147" s="56"/>
-      <c r="F147" s="56"/>
-      <c r="G147" s="56">
-        <v>27500</v>
-      </c>
-      <c r="H147" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="B148" s="55"/>
-      <c r="C148" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="D148" s="56">
-        <v>26200</v>
-      </c>
-      <c r="E148" s="56"/>
-      <c r="F148" s="56"/>
-      <c r="G148" s="56">
-        <v>27500</v>
-      </c>
-      <c r="H148" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="B149" s="55"/>
-      <c r="C149" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="D149" s="56">
-        <v>35300</v>
-      </c>
-      <c r="E149" s="56"/>
-      <c r="F149" s="56"/>
-      <c r="G149" s="56">
-        <v>35600</v>
-      </c>
-      <c r="H149" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="B150" s="55"/>
-      <c r="C150" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="D150" s="56">
-        <v>31230</v>
-      </c>
-      <c r="E150" s="56"/>
-      <c r="F150" s="56"/>
-      <c r="G150" s="56">
-        <v>35600</v>
-      </c>
-      <c r="H150" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B151" s="55"/>
-      <c r="C151" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D151" s="56">
-        <v>21200</v>
-      </c>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-      <c r="G151" s="56">
-        <v>22700</v>
-      </c>
-      <c r="H151" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B152" s="55"/>
-      <c r="C152" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D152" s="56">
-        <v>500</v>
-      </c>
-      <c r="E152" s="56"/>
-      <c r="F152" s="56"/>
-      <c r="G152" s="56">
-        <v>500</v>
-      </c>
-      <c r="H152" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="B153" s="55"/>
-      <c r="C153" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D153" s="56"/>
-      <c r="E153" s="56"/>
-      <c r="F153" s="56"/>
-      <c r="G153" s="56"/>
-      <c r="H153" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B154" s="55"/>
-      <c r="C154" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D154" s="56">
-        <v>75</v>
-      </c>
-      <c r="E154" s="56"/>
-      <c r="F154" s="56"/>
-      <c r="G154" s="56">
-        <v>500</v>
-      </c>
-      <c r="H154" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="B155" s="55"/>
-      <c r="C155" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D155" s="56">
-        <v>200</v>
-      </c>
-      <c r="E155" s="56"/>
-      <c r="F155" s="56"/>
-      <c r="G155" s="56">
-        <v>500</v>
-      </c>
-      <c r="H155" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B156" s="55"/>
-      <c r="C156" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="D156" s="56">
-        <v>200</v>
-      </c>
-      <c r="E156" s="56"/>
-      <c r="F156" s="56"/>
-      <c r="G156" s="56">
-        <v>500</v>
-      </c>
-      <c r="H156" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157" s="55"/>
-      <c r="C157" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D157" s="56">
-        <v>200</v>
-      </c>
-      <c r="E157" s="56"/>
-      <c r="F157" s="56"/>
-      <c r="G157" s="56">
-        <v>500</v>
-      </c>
-      <c r="H157" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="B158" s="55"/>
-      <c r="C158" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D158" s="56">
-        <v>200</v>
-      </c>
-      <c r="E158" s="56"/>
-      <c r="F158" s="56"/>
-      <c r="G158" s="56">
-        <v>500</v>
-      </c>
-      <c r="H158" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="B159" s="55"/>
-      <c r="C159" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D159" s="56">
-        <v>400</v>
-      </c>
-      <c r="E159" s="56"/>
-      <c r="F159" s="56"/>
-      <c r="G159" s="56">
-        <v>500</v>
-      </c>
-      <c r="H159" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B160" s="55"/>
-      <c r="C160" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D160" s="56">
-        <v>300</v>
-      </c>
-      <c r="E160" s="56"/>
-      <c r="F160" s="56"/>
-      <c r="G160" s="56">
-        <v>500</v>
-      </c>
-      <c r="H160" s="57" t="s">
+      <c r="H160" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="B161" s="55"/>
-      <c r="C161" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="D161" s="56">
-        <v>28440</v>
-      </c>
-      <c r="E161" s="56"/>
-      <c r="F161" s="56"/>
-      <c r="G161" s="56">
-        <v>29000</v>
-      </c>
-      <c r="H161" s="57" t="s">
-        <v>2</v>
-      </c>
+      <c r="A161" s="52"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="52"/>
+      <c r="D161" s="53"/>
+      <c r="E161" s="53"/>
+      <c r="F161" s="53"/>
+      <c r="G161" s="53"/>
+      <c r="H161" s="54"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="B162" s="55"/>
-      <c r="C162" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="D162" s="56">
-        <v>28044</v>
-      </c>
-      <c r="E162" s="56"/>
-      <c r="F162" s="56"/>
-      <c r="G162" s="56">
-        <v>29000</v>
-      </c>
-      <c r="H162" s="57" t="s">
-        <v>2</v>
-      </c>
+      <c r="A162" s="52"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="52"/>
+      <c r="D162" s="53"/>
+      <c r="E162" s="53"/>
+      <c r="F162" s="53"/>
+      <c r="G162" s="53"/>
+      <c r="H162" s="54"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="49"/>

--- a/priceFromBase.xlsx
+++ b/priceFromBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mobil\Desktop\Price Scripts\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mobil\Desktop\AllPrice EXEL (НЕ УДАЛЯТЬ!)\По наличию\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4158E859-C0A9-4712-92EB-08DFCF5D64BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDFE450-6AB8-40FE-ADF2-590EE794A041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1485" windowWidth="22515" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="318">
   <si>
     <t>Код</t>
   </si>
@@ -432,12 +432,6 @@
     <t>Apple iPhone 12 128 Black "B+"</t>
   </si>
   <si>
-    <t>SLR75Y2NPW4</t>
-  </si>
-  <si>
-    <t>Apple Watch SE2 44 Silver/Blue Sport "A"</t>
-  </si>
-  <si>
     <t>350331804871023</t>
   </si>
   <si>
@@ -588,12 +582,6 @@
     <t>Pocophone X6 5G 12/256 Blue EU</t>
   </si>
   <si>
-    <t>350900921298011</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A15 4/128 Blue/Black AA</t>
-  </si>
-  <si>
     <t>350900921982911</t>
   </si>
   <si>
@@ -825,18 +813,6 @@
     <t>Apple iPhone 16 Pro 256 Desert J/A</t>
   </si>
   <si>
-    <t>357988126970065</t>
-  </si>
-  <si>
-    <t>Apple iPhone 16 Pro Max 256 Black J/A</t>
-  </si>
-  <si>
-    <t>359974600135712</t>
-  </si>
-  <si>
-    <t>Apple iPhone 16 Pro Max 256 White J/A</t>
-  </si>
-  <si>
     <t>Apple MacBook Pro 13 (2020 - MWP52) i5 16/1TB T/Bar "B"</t>
   </si>
   <si>
@@ -912,34 +888,103 @@
     <t>Яндекс Станция Max с Zigbee Black RU</t>
   </si>
   <si>
-    <t>SDDwq2l2Jr6</t>
-  </si>
-  <si>
-    <t>Apple Watch S10 42 Silver SB (S/M) LW/A</t>
-  </si>
-  <si>
     <t>Sc4TG0QP0M6</t>
   </si>
   <si>
-    <t>Apple Watch SE2 (2024) SB (M/L) Starlight LL/A</t>
-  </si>
-  <si>
     <t>357494476084466</t>
   </si>
   <si>
     <t>Apple Watch Ultra 2 (2024) 49 Black M Dark Green Alpina Loop LL/A</t>
   </si>
   <si>
-    <t>352772524983028</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S23 5G 8/256 Black HN/A</t>
-  </si>
-  <si>
-    <t>861482068467982</t>
-  </si>
-  <si>
-    <t>Xiaomi 14 5G 12/512 Black UK</t>
+    <t>353986108090260</t>
+  </si>
+  <si>
+    <t>Apple iphone 11 128 Black "B+"</t>
+  </si>
+  <si>
+    <t>358110341277254</t>
+  </si>
+  <si>
+    <t>Apple iphone 13 256 Midnight "B-"</t>
+  </si>
+  <si>
+    <t>357627944991057</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro 1TB White ZD/A</t>
+  </si>
+  <si>
+    <t>SGLWN6LNQCQ</t>
+  </si>
+  <si>
+    <t>Apple Watch SE 2023 Gen 2 44 Midnight Sport (M/L) LL/A</t>
+  </si>
+  <si>
+    <t>351824514102209</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S23 5G 8/128 Black HN/A</t>
+  </si>
+  <si>
+    <t>358080591663612</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G 8/128 Black HN/A</t>
+  </si>
+  <si>
+    <t>359358948460661</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 128 Starlight HN/A</t>
+  </si>
+  <si>
+    <t>359960730776632</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max 256 Natural AH/A</t>
+  </si>
+  <si>
+    <t>353995650771938</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256 Natural J/A</t>
+  </si>
+  <si>
+    <t>353235522257752</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A25 5G 8/256 Blue/Black AA</t>
+  </si>
+  <si>
+    <t>354267934692812</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G 8/256 Black HN/A</t>
+  </si>
+  <si>
+    <t>356163310854100</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24+ 5G 12/256 Black HN/A</t>
+  </si>
+  <si>
+    <t>869254072366902</t>
+  </si>
+  <si>
+    <t>SHRWRQDGJ2N</t>
+  </si>
+  <si>
+    <t>Apple AirPods Pro 2 USB-C</t>
+  </si>
+  <si>
+    <t>Apple Watch SE2 (2024) 44 Starlight Sport SB (M/L) LL/A</t>
+  </si>
+  <si>
+    <t>350349579361087</t>
+  </si>
+  <si>
+    <t>Google Pixel 8A 8/128Gb Obsidian GB</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1021,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1254,26 +1299,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1394,25 +1424,18 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1698,7 +1721,7 @@
   <dimension ref="A1:H505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:H160"/>
+      <selection sqref="A1:H168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,3368 +1730,3438 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="54" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="56">
+        <v>9200</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56">
+        <v>9600</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="56">
+        <v>9200</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56">
+        <v>9600</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="56">
+        <v>3150</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56">
+        <v>4500</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="56">
+        <v>2766</v>
+      </c>
+      <c r="E5" s="56">
+        <v>2990</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56">
+        <v>3000</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="56">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="56">
+        <v>2990</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="56">
+        <v>3150</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56">
+        <v>4500</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="56">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56">
+        <v>4500</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="56">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="56">
+        <v>1990</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="56">
+        <v>5034</v>
+      </c>
+      <c r="E10" s="56">
+        <v>12990</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="56">
+        <v>5033</v>
+      </c>
+      <c r="E11" s="56">
+        <v>5990</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56">
+        <v>5500</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58" t="s">
+      <c r="D12" s="56">
+        <v>13800</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56">
+        <v>14100</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="59">
-        <v>9200</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59">
-        <v>9600</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="56">
+        <v>13800</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56">
+        <v>14100</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="59">
-        <v>9200</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59">
-        <v>9600</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="59">
-        <v>3150</v>
-      </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="56">
+        <v>13800</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56">
+        <v>14100</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="56">
+        <v>13800</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56">
+        <v>14100</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="56">
+        <v>16972</v>
+      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56">
+        <v>17400</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="56">
+        <v>17400</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56">
+        <v>17400</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="56">
+        <v>17400</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56">
+        <v>17400</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="56">
+        <v>17400</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56">
+        <v>17400</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="56">
+        <v>20100</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56">
+        <v>20700</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="56">
+        <v>16300</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="56">
+        <v>18990</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56">
+        <v>17000</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="56">
+        <v>13000</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="56">
+        <v>38099</v>
+      </c>
+      <c r="E24" s="56">
+        <v>30990</v>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56">
+        <v>30000</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="56">
+        <v>27500</v>
+      </c>
+      <c r="E25" s="56">
+        <v>29990</v>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56">
+        <v>29000</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="56">
+        <v>31000</v>
+      </c>
+      <c r="E26" s="56">
+        <v>37990</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56">
+        <v>36000</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="56">
+        <v>51600</v>
+      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56">
+        <v>52100</v>
+      </c>
+      <c r="H27" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="56">
+        <v>30000</v>
+      </c>
+      <c r="E28" s="56">
+        <v>37990</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56">
+        <v>36000</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="56">
+        <v>29000</v>
+      </c>
+      <c r="E29" s="56">
+        <v>37990</v>
+      </c>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56">
+        <v>36000</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" s="56">
+        <v>51000</v>
+      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56">
+        <v>52000</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="D31" s="56">
+        <v>35000</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="56">
+        <v>36500</v>
+      </c>
+      <c r="E32" s="56">
+        <v>43990</v>
+      </c>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56">
+        <v>42000</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="56">
+        <v>46519</v>
+      </c>
+      <c r="E33" s="56">
+        <v>47990</v>
+      </c>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56">
+        <v>46200</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="56">
+        <v>25500</v>
+      </c>
+      <c r="E34" s="56">
+        <v>26990</v>
+      </c>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56">
+        <v>26000</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="56">
+        <v>41000</v>
+      </c>
+      <c r="E35" s="56">
+        <v>43990</v>
+      </c>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56">
+        <v>43000</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="56">
+        <v>38000</v>
+      </c>
+      <c r="E36" s="56">
+        <v>43990</v>
+      </c>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56">
+        <v>43000</v>
+      </c>
+      <c r="H36" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" s="56">
+        <v>36000</v>
+      </c>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="56">
+        <v>57000</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="56">
+        <v>64900</v>
+      </c>
+      <c r="E39" s="56">
+        <v>66990</v>
+      </c>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56">
+        <v>65000</v>
+      </c>
+      <c r="H39" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="56">
+        <v>62000</v>
+      </c>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D41" s="56">
+        <v>67000</v>
+      </c>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="56">
+        <v>66800</v>
+      </c>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56">
+        <v>67500</v>
+      </c>
+      <c r="H42" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" s="56">
+        <v>127500</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="D44" s="56">
+        <v>111300</v>
+      </c>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" s="56">
+        <v>117500</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56">
+        <v>118500</v>
+      </c>
+      <c r="H45" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="D46" s="56">
+        <v>126000</v>
+      </c>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="56">
+        <v>27384</v>
+      </c>
+      <c r="E47" s="56">
+        <v>35990</v>
+      </c>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56">
+        <v>35000</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="56">
+        <v>17839</v>
+      </c>
+      <c r="E48" s="56">
+        <v>26990</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56">
+        <v>25000</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="56">
+        <v>17000</v>
+      </c>
+      <c r="E49" s="56">
+        <v>29990</v>
+      </c>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56">
+        <v>27000</v>
+      </c>
+      <c r="H49" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="56">
+        <v>35262</v>
+      </c>
+      <c r="E50" s="56">
+        <v>43990</v>
+      </c>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56">
+        <v>42000</v>
+      </c>
+      <c r="H50" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="56">
+        <v>50089</v>
+      </c>
+      <c r="E51" s="56">
+        <v>55990</v>
+      </c>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56">
+        <v>54000</v>
+      </c>
+      <c r="H51" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="56">
+        <v>65099</v>
+      </c>
+      <c r="E52" s="56">
+        <v>68990</v>
+      </c>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56">
+        <v>67000</v>
+      </c>
+      <c r="H52" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="56">
+        <v>49929</v>
+      </c>
+      <c r="E53" s="56">
+        <v>55990</v>
+      </c>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56">
+        <v>53000</v>
+      </c>
+      <c r="H53" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="56">
+        <v>49427</v>
+      </c>
+      <c r="E54" s="56">
+        <v>54990</v>
+      </c>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56">
+        <v>53000</v>
+      </c>
+      <c r="H54" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="56">
+        <v>69752</v>
+      </c>
+      <c r="E55" s="56">
+        <v>72990</v>
+      </c>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56">
+        <v>71000</v>
+      </c>
+      <c r="H55" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="56">
+        <v>88984</v>
+      </c>
+      <c r="E56" s="56">
+        <v>93990</v>
+      </c>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56">
+        <v>91000</v>
+      </c>
+      <c r="H56" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="56">
+        <v>30262</v>
+      </c>
+      <c r="E57" s="56">
+        <v>39990</v>
+      </c>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56">
+        <v>38000</v>
+      </c>
+      <c r="H57" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="56">
+        <v>45000</v>
+      </c>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="56">
+        <v>80000</v>
+      </c>
+      <c r="E59" s="56">
+        <v>89990</v>
+      </c>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56">
+        <v>87000</v>
+      </c>
+      <c r="H59" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="56">
+        <v>60499</v>
+      </c>
+      <c r="E60" s="56">
+        <v>67990</v>
+      </c>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56">
+        <v>66000</v>
+      </c>
+      <c r="H60" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="56">
+        <v>80000</v>
+      </c>
+      <c r="E61" s="56">
+        <v>86990</v>
+      </c>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56">
+        <v>85000</v>
+      </c>
+      <c r="H61" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="56">
+        <v>115000</v>
+      </c>
+      <c r="E62" s="56">
+        <v>122990</v>
+      </c>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56">
+        <v>120000</v>
+      </c>
+      <c r="H62" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="56">
+        <v>36500</v>
+      </c>
+      <c r="E63" s="56">
+        <v>34990</v>
+      </c>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56">
+        <v>34000</v>
+      </c>
+      <c r="H63" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="56">
+        <v>49099</v>
+      </c>
+      <c r="E64" s="56">
+        <v>48990</v>
+      </c>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56">
+        <v>48000</v>
+      </c>
+      <c r="H64" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="56">
+        <v>138600</v>
+      </c>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56">
+        <v>138600</v>
+      </c>
+      <c r="H65" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="56">
+        <v>38500</v>
+      </c>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56">
+        <v>30000</v>
+      </c>
+      <c r="H66" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" s="56">
+        <v>22000</v>
+      </c>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="D68" s="56">
+        <v>25000</v>
+      </c>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="D69" s="56">
+        <v>77000</v>
+      </c>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H70" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H71" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H72" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H73" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H74" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H75" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H76" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H77" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H78" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H79" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H80" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H81" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="56">
+        <v>5700</v>
+      </c>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56">
+        <v>6800</v>
+      </c>
+      <c r="H82" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="56">
+        <v>3063</v>
+      </c>
+      <c r="E83" s="56">
+        <v>4390</v>
+      </c>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56">
+        <v>3800</v>
+      </c>
+      <c r="H83" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="56">
+        <v>13000</v>
+      </c>
+      <c r="E84" s="56">
+        <v>23990</v>
+      </c>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56">
+        <v>21000</v>
+      </c>
+      <c r="H84" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" s="56">
+        <v>28000</v>
+      </c>
+      <c r="E85" s="56">
+        <v>34990</v>
+      </c>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56">
+        <v>33000</v>
+      </c>
+      <c r="H85" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="D86" s="56">
+        <v>41050</v>
+      </c>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D87" s="56">
+        <v>91600</v>
+      </c>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56">
+        <v>94000</v>
+      </c>
+      <c r="H87" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" s="56">
+        <v>11000</v>
+      </c>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56">
+        <v>12800</v>
+      </c>
+      <c r="H88" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="56">
+        <v>11200</v>
+      </c>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="56">
+        <v>12800</v>
+      </c>
+      <c r="H89" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="56">
+        <v>11000</v>
+      </c>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56">
+        <v>12800</v>
+      </c>
+      <c r="H90" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" s="56">
+        <v>3800</v>
+      </c>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56">
         <v>4500</v>
       </c>
-      <c r="H4" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="59">
-        <v>2766</v>
-      </c>
-      <c r="E5" s="59">
-        <v>2990</v>
-      </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59">
+      <c r="H91" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" s="56">
+        <v>3800</v>
+      </c>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56">
+        <v>4500</v>
+      </c>
+      <c r="H92" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" s="55"/>
+      <c r="C93" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93" s="56">
+        <v>7600</v>
+      </c>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56">
+        <v>9500</v>
+      </c>
+      <c r="H93" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="56">
         <v>3000</v>
       </c>
-      <c r="H5" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="59">
-        <v>1300</v>
-      </c>
-      <c r="E6" s="59">
-        <v>2990</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59">
-        <v>3000</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="59">
-        <v>3150</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59">
-        <v>4500</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="59">
-        <v>4000</v>
-      </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59">
-        <v>4500</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="59">
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56">
+        <v>3800</v>
+      </c>
+      <c r="H94" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="56">
+        <v>3300</v>
+      </c>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56">
+        <v>3800</v>
+      </c>
+      <c r="H95" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="56">
+        <v>3407</v>
+      </c>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="56">
+        <v>3800</v>
+      </c>
+      <c r="H96" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="56">
+        <v>3407</v>
+      </c>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="56">
+        <v>3800</v>
+      </c>
+      <c r="H97" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="56">
+        <v>31000</v>
+      </c>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="56">
+        <v>31000</v>
+      </c>
+      <c r="H98" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" s="56">
+        <v>35100</v>
+      </c>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56">
+        <v>28000</v>
+      </c>
+      <c r="H99" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" s="56">
+        <v>5784</v>
+      </c>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56">
+        <v>6200</v>
+      </c>
+      <c r="H100" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" s="55"/>
+      <c r="C101" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" s="56">
+        <v>6788</v>
+      </c>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="56">
+        <v>7500</v>
+      </c>
+      <c r="H101" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="55"/>
+      <c r="C102" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="56">
+        <v>7362</v>
+      </c>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="56">
+        <v>7500</v>
+      </c>
+      <c r="H102" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" s="55"/>
+      <c r="C103" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D103" s="56">
+        <v>23600</v>
+      </c>
+      <c r="E103" s="56"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="56">
+        <v>24000</v>
+      </c>
+      <c r="H103" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104" s="56">
+        <v>3063</v>
+      </c>
+      <c r="E104" s="56">
+        <v>4390</v>
+      </c>
+      <c r="F104" s="56"/>
+      <c r="G104" s="56">
+        <v>3100</v>
+      </c>
+      <c r="H104" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" s="55"/>
+      <c r="C105" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105" s="56">
+        <v>9235</v>
+      </c>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56">
+        <v>9900</v>
+      </c>
+      <c r="H105" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" s="55"/>
+      <c r="C106" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106" s="56">
+        <v>9235</v>
+      </c>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="56">
+        <v>9900</v>
+      </c>
+      <c r="H106" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" s="55"/>
+      <c r="C107" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" s="56">
+        <v>9235</v>
+      </c>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56">
+        <v>9900</v>
+      </c>
+      <c r="H107" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D108" s="56">
+        <v>11600</v>
+      </c>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="56">
+        <v>12500</v>
+      </c>
+      <c r="H108" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" s="56">
+        <v>11900</v>
+      </c>
+      <c r="E109" s="56"/>
+      <c r="F109" s="56"/>
+      <c r="G109" s="56">
+        <v>12500</v>
+      </c>
+      <c r="H109" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" s="55"/>
+      <c r="C110" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D110" s="56">
+        <v>13600</v>
+      </c>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="56">
+        <v>14500</v>
+      </c>
+      <c r="H110" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D111" s="56">
+        <v>14700</v>
+      </c>
+      <c r="E111" s="56"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="56">
+        <v>15800</v>
+      </c>
+      <c r="H111" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" s="55"/>
+      <c r="C112" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D112" s="56">
+        <v>18700</v>
+      </c>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="56">
+        <v>19000</v>
+      </c>
+      <c r="H112" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="B113" s="55"/>
+      <c r="C113" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="D113" s="56">
+        <v>21100</v>
+      </c>
+      <c r="E113" s="56"/>
+      <c r="F113" s="56"/>
+      <c r="G113" s="56">
+        <v>22000</v>
+      </c>
+      <c r="H113" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="B114" s="55"/>
+      <c r="C114" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="D114" s="56">
+        <v>21200</v>
+      </c>
+      <c r="E114" s="56"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="56">
+        <v>22000</v>
+      </c>
+      <c r="H114" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" s="55"/>
+      <c r="C115" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D115" s="56">
+        <v>25400</v>
+      </c>
+      <c r="E115" s="56"/>
+      <c r="F115" s="56"/>
+      <c r="G115" s="56">
+        <v>26700</v>
+      </c>
+      <c r="H115" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B116" s="55"/>
+      <c r="C116" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D116" s="56">
+        <v>26500</v>
+      </c>
+      <c r="E116" s="56"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56">
+        <v>26700</v>
+      </c>
+      <c r="H116" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B117" s="55"/>
+      <c r="C117" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D117" s="56">
+        <v>26500</v>
+      </c>
+      <c r="E117" s="56"/>
+      <c r="F117" s="56"/>
+      <c r="G117" s="56">
+        <v>26700</v>
+      </c>
+      <c r="H117" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="55"/>
+      <c r="C118" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="56">
+        <v>24000</v>
+      </c>
+      <c r="E118" s="56"/>
+      <c r="F118" s="56"/>
+      <c r="G118" s="56">
+        <v>24000</v>
+      </c>
+      <c r="H118" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="55"/>
+      <c r="C119" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="56">
+        <v>24000</v>
+      </c>
+      <c r="E119" s="56"/>
+      <c r="F119" s="56"/>
+      <c r="G119" s="56">
+        <v>24000</v>
+      </c>
+      <c r="H119" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" s="55"/>
+      <c r="C120" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="56">
+        <v>24000</v>
+      </c>
+      <c r="E120" s="56"/>
+      <c r="F120" s="56"/>
+      <c r="G120" s="56">
+        <v>24000</v>
+      </c>
+      <c r="H120" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" s="55"/>
+      <c r="C121" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121" s="56">
+        <v>13000</v>
+      </c>
+      <c r="E121" s="56">
+        <v>17990</v>
+      </c>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56">
+        <v>16000</v>
+      </c>
+      <c r="H121" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B122" s="55"/>
+      <c r="C122" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="D122" s="56">
+        <v>33700</v>
+      </c>
+      <c r="E122" s="56"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="56">
+        <v>35000</v>
+      </c>
+      <c r="H122" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="D123" s="56">
+        <v>33700</v>
+      </c>
+      <c r="E123" s="56"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56">
+        <v>35000</v>
+      </c>
+      <c r="H123" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="B124" s="55"/>
+      <c r="C124" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="D124" s="56">
+        <v>29200</v>
+      </c>
+      <c r="E124" s="56"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="56">
+        <v>29700</v>
+      </c>
+      <c r="H124" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" s="55"/>
+      <c r="C125" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D125" s="56">
+        <v>28400</v>
+      </c>
+      <c r="E125" s="56"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56">
+        <v>29700</v>
+      </c>
+      <c r="H125" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" s="55"/>
+      <c r="C126" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D126" s="56">
+        <v>30400</v>
+      </c>
+      <c r="E126" s="56"/>
+      <c r="F126" s="56"/>
+      <c r="G126" s="56">
+        <v>29700</v>
+      </c>
+      <c r="H126" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B127" s="55"/>
+      <c r="C127" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D127" s="56">
         <v>3500</v>
       </c>
-      <c r="E9" s="59">
-        <v>1990</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59">
-        <v>1500</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="59">
-        <v>5034</v>
-      </c>
-      <c r="E10" s="59">
-        <v>12990</v>
-      </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59">
+      <c r="E127" s="56">
+        <v>7990</v>
+      </c>
+      <c r="F127" s="56"/>
+      <c r="G127" s="56">
+        <v>7000</v>
+      </c>
+      <c r="H127" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" s="55"/>
+      <c r="C128" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D128" s="56">
+        <v>8000</v>
+      </c>
+      <c r="E128" s="56">
+        <v>13990</v>
+      </c>
+      <c r="F128" s="56"/>
+      <c r="G128" s="56">
+        <v>13000</v>
+      </c>
+      <c r="H128" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" s="55"/>
+      <c r="C129" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="D129" s="56">
+        <v>12000</v>
+      </c>
+      <c r="E129" s="56"/>
+      <c r="F129" s="56"/>
+      <c r="G129" s="56"/>
+      <c r="H129" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="B130" s="55"/>
+      <c r="C130" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="D130" s="56">
+        <v>44300</v>
+      </c>
+      <c r="E130" s="56"/>
+      <c r="F130" s="56"/>
+      <c r="G130" s="56">
+        <v>45800</v>
+      </c>
+      <c r="H130" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="B131" s="55"/>
+      <c r="C131" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="D131" s="56">
+        <v>55500</v>
+      </c>
+      <c r="E131" s="56"/>
+      <c r="F131" s="56"/>
+      <c r="G131" s="56">
+        <v>57000</v>
+      </c>
+      <c r="H131" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="B132" s="55"/>
+      <c r="C132" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="D132" s="56">
+        <v>61000</v>
+      </c>
+      <c r="E132" s="56"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="56">
+        <v>62500</v>
+      </c>
+      <c r="H132" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="55"/>
+      <c r="C133" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="D133" s="56">
+        <v>63200</v>
+      </c>
+      <c r="E133" s="56"/>
+      <c r="F133" s="56"/>
+      <c r="G133" s="56">
+        <v>63500</v>
+      </c>
+      <c r="H133" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="B134" s="55"/>
+      <c r="C134" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="D134" s="56">
+        <v>67200</v>
+      </c>
+      <c r="E134" s="56"/>
+      <c r="F134" s="56"/>
+      <c r="G134" s="56">
+        <v>68200</v>
+      </c>
+      <c r="H134" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D135" s="56">
+        <v>80000</v>
+      </c>
+      <c r="E135" s="56"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="56">
+        <v>80000</v>
+      </c>
+      <c r="H135" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="55"/>
+      <c r="C136" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D136" s="56">
+        <v>11407</v>
+      </c>
+      <c r="E136" s="56"/>
+      <c r="F136" s="56"/>
+      <c r="G136" s="56">
+        <v>13000</v>
+      </c>
+      <c r="H136" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B137" s="55"/>
+      <c r="C137" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D137" s="56">
+        <v>18000</v>
+      </c>
+      <c r="E137" s="56">
+        <v>19990</v>
+      </c>
+      <c r="F137" s="56"/>
+      <c r="G137" s="56">
+        <v>19000</v>
+      </c>
+      <c r="H137" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B138" s="55"/>
+      <c r="C138" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D138" s="56">
+        <v>17000</v>
+      </c>
+      <c r="E138" s="56">
+        <v>19990</v>
+      </c>
+      <c r="F138" s="56"/>
+      <c r="G138" s="56">
+        <v>19000</v>
+      </c>
+      <c r="H138" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" s="55"/>
+      <c r="C139" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D139" s="56">
+        <v>28000</v>
+      </c>
+      <c r="E139" s="56">
+        <v>34990</v>
+      </c>
+      <c r="F139" s="56"/>
+      <c r="G139" s="56">
+        <v>33000</v>
+      </c>
+      <c r="H139" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B140" s="55"/>
+      <c r="C140" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="D140" s="56">
+        <v>68500</v>
+      </c>
+      <c r="E140" s="56"/>
+      <c r="F140" s="56"/>
+      <c r="G140" s="56">
+        <v>68800</v>
+      </c>
+      <c r="H140" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B141" s="55"/>
+      <c r="C141" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D141" s="56">
+        <v>5500</v>
+      </c>
+      <c r="E141" s="56">
+        <v>7990</v>
+      </c>
+      <c r="F141" s="56"/>
+      <c r="G141" s="56">
+        <v>7000</v>
+      </c>
+      <c r="H141" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B142" s="55"/>
+      <c r="C142" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D142" s="56">
+        <v>22500</v>
+      </c>
+      <c r="E142" s="56"/>
+      <c r="F142" s="56"/>
+      <c r="G142" s="56">
+        <v>22900</v>
+      </c>
+      <c r="H142" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B143" s="55"/>
+      <c r="C143" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D143" s="56">
+        <v>10866</v>
+      </c>
+      <c r="E143" s="56"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="56">
+        <v>11200</v>
+      </c>
+      <c r="H143" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B144" s="55"/>
+      <c r="C144" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" s="56">
+        <v>11800</v>
+      </c>
+      <c r="E144" s="56"/>
+      <c r="F144" s="56"/>
+      <c r="G144" s="56">
+        <v>11200</v>
+      </c>
+      <c r="H144" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="B145" s="55"/>
+      <c r="C145" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D145" s="56">
+        <v>9518</v>
+      </c>
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="56">
         <v>10000</v>
       </c>
-      <c r="H10" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="59">
-        <v>5033</v>
-      </c>
-      <c r="E11" s="59">
-        <v>5990</v>
-      </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59">
-        <v>5500</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="59">
-        <v>13800</v>
-      </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59">
-        <v>14300</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="59">
-        <v>13800</v>
-      </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59">
-        <v>14300</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" s="59">
-        <v>13800</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59">
-        <v>14300</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="D15" s="59">
-        <v>13800</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59">
-        <v>14300</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="59">
-        <v>16972</v>
-      </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59">
-        <v>17700</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="59">
-        <v>17400</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59">
-        <v>17700</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="59">
-        <v>17400</v>
-      </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59">
-        <v>17700</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="59">
-        <v>17400</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59">
-        <v>17700</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="59">
-        <v>16300</v>
-      </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E21" s="59">
-        <v>18990</v>
-      </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59">
-        <v>17000</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="59">
-        <v>38099</v>
-      </c>
-      <c r="E22" s="59">
-        <v>30990</v>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59">
-        <v>30000</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="59">
+      <c r="H145" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="B146" s="55"/>
+      <c r="C146" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D146" s="56">
+        <v>9518</v>
+      </c>
+      <c r="E146" s="56"/>
+      <c r="F146" s="56"/>
+      <c r="G146" s="56">
+        <v>10000</v>
+      </c>
+      <c r="H146" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="B147" s="55"/>
+      <c r="C147" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D147" s="56">
+        <v>17718</v>
+      </c>
+      <c r="E147" s="56"/>
+      <c r="F147" s="56"/>
+      <c r="G147" s="56">
+        <v>22100</v>
+      </c>
+      <c r="H147" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="B148" s="55"/>
+      <c r="C148" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D148" s="56">
+        <v>17718</v>
+      </c>
+      <c r="E148" s="56"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="56">
+        <v>22100</v>
+      </c>
+      <c r="H148" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B149" s="55"/>
+      <c r="C149" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D149" s="56">
+        <v>18272</v>
+      </c>
+      <c r="E149" s="56"/>
+      <c r="F149" s="56"/>
+      <c r="G149" s="56">
+        <v>22100</v>
+      </c>
+      <c r="H149" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B150" s="55"/>
+      <c r="C150" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D150" s="56">
+        <v>18800</v>
+      </c>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="56">
+        <v>14000</v>
+      </c>
+      <c r="H150" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B151" s="55"/>
+      <c r="C151" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D151" s="56">
+        <v>31100</v>
+      </c>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
+      <c r="G151" s="56">
+        <v>31600</v>
+      </c>
+      <c r="H151" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B152" s="55"/>
+      <c r="C152" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="D152" s="56">
+        <v>26800</v>
+      </c>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="56">
         <v>27500</v>
       </c>
-      <c r="E23" s="59">
-        <v>29990</v>
-      </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59">
+      <c r="H152" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="B153" s="55"/>
+      <c r="C153" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D153" s="56">
+        <v>27000</v>
+      </c>
+      <c r="E153" s="56"/>
+      <c r="F153" s="56"/>
+      <c r="G153" s="56">
+        <v>27500</v>
+      </c>
+      <c r="H153" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="55"/>
+      <c r="C154" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D154" s="56">
+        <v>26200</v>
+      </c>
+      <c r="E154" s="56"/>
+      <c r="F154" s="56"/>
+      <c r="G154" s="56">
+        <v>27500</v>
+      </c>
+      <c r="H154" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="B155" s="55"/>
+      <c r="C155" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="D155" s="56">
+        <v>35300</v>
+      </c>
+      <c r="E155" s="56"/>
+      <c r="F155" s="56"/>
+      <c r="G155" s="56">
+        <v>35600</v>
+      </c>
+      <c r="H155" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="B156" s="55"/>
+      <c r="C156" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D156" s="56">
+        <v>31230</v>
+      </c>
+      <c r="E156" s="56"/>
+      <c r="F156" s="56"/>
+      <c r="G156" s="56">
+        <v>31500</v>
+      </c>
+      <c r="H156" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B157" s="55"/>
+      <c r="C157" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D157" s="56">
+        <v>21200</v>
+      </c>
+      <c r="E157" s="56"/>
+      <c r="F157" s="56"/>
+      <c r="G157" s="56">
+        <v>22700</v>
+      </c>
+      <c r="H157" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B158" s="55"/>
+      <c r="C158" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D158" s="56">
+        <v>500</v>
+      </c>
+      <c r="E158" s="56"/>
+      <c r="F158" s="56"/>
+      <c r="G158" s="56">
+        <v>500</v>
+      </c>
+      <c r="H158" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B159" s="55"/>
+      <c r="C159" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D159" s="56"/>
+      <c r="E159" s="56"/>
+      <c r="F159" s="56"/>
+      <c r="G159" s="56"/>
+      <c r="H159" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B160" s="55"/>
+      <c r="C160" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D160" s="56">
+        <v>75</v>
+      </c>
+      <c r="E160" s="56"/>
+      <c r="F160" s="56"/>
+      <c r="G160" s="56">
+        <v>500</v>
+      </c>
+      <c r="H160" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B161" s="55"/>
+      <c r="C161" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D161" s="56">
+        <v>200</v>
+      </c>
+      <c r="E161" s="56"/>
+      <c r="F161" s="56"/>
+      <c r="G161" s="56">
+        <v>500</v>
+      </c>
+      <c r="H161" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B162" s="55"/>
+      <c r="C162" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D162" s="56">
+        <v>200</v>
+      </c>
+      <c r="E162" s="56"/>
+      <c r="F162" s="56"/>
+      <c r="G162" s="56">
+        <v>500</v>
+      </c>
+      <c r="H162" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B163" s="55"/>
+      <c r="C163" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D163" s="56">
+        <v>200</v>
+      </c>
+      <c r="E163" s="56"/>
+      <c r="F163" s="56"/>
+      <c r="G163" s="56">
+        <v>500</v>
+      </c>
+      <c r="H163" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B164" s="55"/>
+      <c r="C164" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D164" s="56">
+        <v>200</v>
+      </c>
+      <c r="E164" s="56"/>
+      <c r="F164" s="56"/>
+      <c r="G164" s="56">
+        <v>500</v>
+      </c>
+      <c r="H164" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B165" s="55"/>
+      <c r="C165" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D165" s="56">
+        <v>400</v>
+      </c>
+      <c r="E165" s="56"/>
+      <c r="F165" s="56"/>
+      <c r="G165" s="56">
+        <v>500</v>
+      </c>
+      <c r="H165" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B166" s="55"/>
+      <c r="C166" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D166" s="56">
+        <v>300</v>
+      </c>
+      <c r="E166" s="56"/>
+      <c r="F166" s="56"/>
+      <c r="G166" s="56">
+        <v>500</v>
+      </c>
+      <c r="H166" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="B167" s="55"/>
+      <c r="C167" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D167" s="56">
+        <v>28440</v>
+      </c>
+      <c r="E167" s="56"/>
+      <c r="F167" s="56"/>
+      <c r="G167" s="56">
         <v>29000</v>
       </c>
-      <c r="H23" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="59">
-        <v>31000</v>
-      </c>
-      <c r="E24" s="59">
-        <v>37990</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59">
-        <v>36000</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="D25" s="59">
-        <v>51600</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59">
-        <v>52200</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="59">
-        <v>30000</v>
-      </c>
-      <c r="E26" s="59">
-        <v>37990</v>
-      </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59">
-        <v>36000</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" s="59">
+      <c r="H167" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="B168" s="55"/>
+      <c r="C168" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D168" s="56">
+        <v>28044</v>
+      </c>
+      <c r="E168" s="56"/>
+      <c r="F168" s="56"/>
+      <c r="G168" s="56">
         <v>29000</v>
       </c>
-      <c r="E27" s="59">
-        <v>37990</v>
-      </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59">
-        <v>36000</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="59">
-        <v>36500</v>
-      </c>
-      <c r="E28" s="59">
-        <v>43990</v>
-      </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59">
-        <v>42000</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="59">
-        <v>46519</v>
-      </c>
-      <c r="E29" s="59">
-        <v>47990</v>
-      </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59">
-        <v>46200</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="59">
-        <v>25500</v>
-      </c>
-      <c r="E30" s="59">
-        <v>26990</v>
-      </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59">
-        <v>26000</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="59">
-        <v>41000</v>
-      </c>
-      <c r="E31" s="59">
-        <v>43990</v>
-      </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59">
-        <v>43000</v>
-      </c>
-      <c r="H31" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="D32" s="59">
-        <v>38000</v>
-      </c>
-      <c r="E32" s="59">
-        <v>43990</v>
-      </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59">
-        <v>43000</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="D33" s="59">
-        <v>36000</v>
-      </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="59">
-        <v>57000</v>
-      </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="59">
-        <v>64900</v>
-      </c>
-      <c r="E35" s="59">
-        <v>66990</v>
-      </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59">
-        <v>65000</v>
-      </c>
-      <c r="H35" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="D36" s="59">
-        <v>62000</v>
-      </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="D37" s="59">
-        <v>67000</v>
-      </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D38" s="59">
-        <v>66800</v>
-      </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59">
-        <v>67500</v>
-      </c>
-      <c r="H38" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="D39" s="59">
-        <v>117500</v>
-      </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59">
-        <v>118500</v>
-      </c>
-      <c r="H39" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D40" s="59">
-        <v>131500</v>
-      </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59">
-        <v>131500</v>
-      </c>
-      <c r="H40" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="D41" s="59">
-        <v>130500</v>
-      </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59">
-        <v>130500</v>
-      </c>
-      <c r="H41" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="59">
-        <v>27384</v>
-      </c>
-      <c r="E42" s="59">
-        <v>35990</v>
-      </c>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59">
-        <v>35000</v>
-      </c>
-      <c r="H42" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="59">
-        <v>17839</v>
-      </c>
-      <c r="E43" s="59">
-        <v>26990</v>
-      </c>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59">
-        <v>25000</v>
-      </c>
-      <c r="H43" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="59">
-        <v>17000</v>
-      </c>
-      <c r="E44" s="59">
-        <v>29990</v>
-      </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59">
-        <v>27000</v>
-      </c>
-      <c r="H44" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="59">
-        <v>35262</v>
-      </c>
-      <c r="E45" s="59">
-        <v>43990</v>
-      </c>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59">
-        <v>42000</v>
-      </c>
-      <c r="H45" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="59">
-        <v>50089</v>
-      </c>
-      <c r="E46" s="59">
-        <v>55990</v>
-      </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59">
-        <v>54000</v>
-      </c>
-      <c r="H46" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="59">
-        <v>65099</v>
-      </c>
-      <c r="E47" s="59">
-        <v>68990</v>
-      </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59">
-        <v>67000</v>
-      </c>
-      <c r="H47" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="59">
-        <v>49929</v>
-      </c>
-      <c r="E48" s="59">
-        <v>55990</v>
-      </c>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59">
-        <v>53000</v>
-      </c>
-      <c r="H48" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="59">
-        <v>49427</v>
-      </c>
-      <c r="E49" s="59">
-        <v>54990</v>
-      </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59">
-        <v>53000</v>
-      </c>
-      <c r="H49" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="59">
-        <v>69752</v>
-      </c>
-      <c r="E50" s="59">
-        <v>72990</v>
-      </c>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59">
-        <v>71000</v>
-      </c>
-      <c r="H50" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="59">
-        <v>88984</v>
-      </c>
-      <c r="E51" s="59">
-        <v>93990</v>
-      </c>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59">
-        <v>91000</v>
-      </c>
-      <c r="H51" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="D52" s="59">
-        <v>30262</v>
-      </c>
-      <c r="E52" s="59">
-        <v>39990</v>
-      </c>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59">
-        <v>38000</v>
-      </c>
-      <c r="H52" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="59">
-        <v>45000</v>
-      </c>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="D54" s="59">
-        <v>80000</v>
-      </c>
-      <c r="E54" s="59">
-        <v>89990</v>
-      </c>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59">
-        <v>87000</v>
-      </c>
-      <c r="H54" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="59">
-        <v>60499</v>
-      </c>
-      <c r="E55" s="59">
-        <v>67990</v>
-      </c>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59">
-        <v>66000</v>
-      </c>
-      <c r="H55" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="59">
-        <v>80000</v>
-      </c>
-      <c r="E56" s="59">
-        <v>86990</v>
-      </c>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59">
-        <v>85000</v>
-      </c>
-      <c r="H56" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="59">
-        <v>115000</v>
-      </c>
-      <c r="E57" s="59">
-        <v>122990</v>
-      </c>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59">
-        <v>120000</v>
-      </c>
-      <c r="H57" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" s="59">
-        <v>36500</v>
-      </c>
-      <c r="E58" s="59">
-        <v>34990</v>
-      </c>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59">
-        <v>34000</v>
-      </c>
-      <c r="H58" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="59">
-        <v>49099</v>
-      </c>
-      <c r="E59" s="59">
-        <v>48990</v>
-      </c>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59">
-        <v>48000</v>
-      </c>
-      <c r="H59" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" s="59">
-        <v>138600</v>
-      </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59">
-        <v>138600</v>
-      </c>
-      <c r="H60" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="D61" s="59">
-        <v>42000</v>
-      </c>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" s="59">
-        <v>38500</v>
-      </c>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59">
-        <v>30000</v>
-      </c>
-      <c r="H62" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="D63" s="59">
-        <v>25000</v>
-      </c>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" s="59">
-        <v>15000</v>
-      </c>
-      <c r="E64" s="59">
-        <v>20990</v>
-      </c>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59">
-        <v>20000</v>
-      </c>
-      <c r="H64" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="D65" s="59">
-        <v>77000</v>
-      </c>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H66" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H67" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H68" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H69" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H70" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H71" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H72" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H73" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H74" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H75" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H76" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H77" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="59">
-        <v>5700</v>
-      </c>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59">
-        <v>6800</v>
-      </c>
-      <c r="H78" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D79" s="59">
-        <v>3063</v>
-      </c>
-      <c r="E79" s="59">
-        <v>4390</v>
-      </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59">
-        <v>3800</v>
-      </c>
-      <c r="H79" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="B80" s="58"/>
-      <c r="C80" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="D80" s="59">
-        <v>13000</v>
-      </c>
-      <c r="E80" s="59">
-        <v>23990</v>
-      </c>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59">
-        <v>21000</v>
-      </c>
-      <c r="H80" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="B81" s="58"/>
-      <c r="C81" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="D81" s="59">
-        <v>28000</v>
-      </c>
-      <c r="E81" s="59">
-        <v>34990</v>
-      </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59">
-        <v>33000</v>
-      </c>
-      <c r="H81" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" s="59">
-        <v>91600</v>
-      </c>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59">
-        <v>94000</v>
-      </c>
-      <c r="H82" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83" s="58"/>
-      <c r="C83" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="59">
-        <v>11000</v>
-      </c>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59">
-        <v>12800</v>
-      </c>
-      <c r="H83" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="59">
-        <v>11200</v>
-      </c>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59">
-        <v>12800</v>
-      </c>
-      <c r="H84" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85" s="58"/>
-      <c r="C85" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D85" s="59">
-        <v>11000</v>
-      </c>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59">
-        <v>12800</v>
-      </c>
-      <c r="H85" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="59">
-        <v>3800</v>
-      </c>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59">
-        <v>4500</v>
-      </c>
-      <c r="H86" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D87" s="59">
-        <v>3800</v>
-      </c>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59">
-        <v>4500</v>
-      </c>
-      <c r="H87" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D88" s="59">
-        <v>7600</v>
-      </c>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59">
-        <v>9500</v>
-      </c>
-      <c r="H88" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B89" s="58"/>
-      <c r="C89" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D89" s="59">
-        <v>3000</v>
-      </c>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59">
-        <v>3800</v>
-      </c>
-      <c r="H89" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B90" s="58"/>
-      <c r="C90" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="D90" s="59">
-        <v>3300</v>
-      </c>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59">
-        <v>3800</v>
-      </c>
-      <c r="H90" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" s="58"/>
-      <c r="C91" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D91" s="59">
-        <v>3407</v>
-      </c>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="59">
-        <v>3800</v>
-      </c>
-      <c r="H91" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B92" s="58"/>
-      <c r="C92" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D92" s="59">
-        <v>3407</v>
-      </c>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59">
-        <v>3800</v>
-      </c>
-      <c r="H92" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="B93" s="58"/>
-      <c r="C93" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="D93" s="59">
-        <v>31000</v>
-      </c>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="59">
-        <v>31000</v>
-      </c>
-      <c r="H93" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D94" s="59">
-        <v>35100</v>
-      </c>
-      <c r="E94" s="59"/>
-      <c r="F94" s="59"/>
-      <c r="G94" s="59">
-        <v>28000</v>
-      </c>
-      <c r="H94" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B95" s="58"/>
-      <c r="C95" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="D95" s="59">
-        <v>5784</v>
-      </c>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59">
-        <v>6200</v>
-      </c>
-      <c r="H95" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="B96" s="58"/>
-      <c r="C96" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="D96" s="59">
-        <v>6788</v>
-      </c>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59">
-        <v>7500</v>
-      </c>
-      <c r="H96" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97" s="58"/>
-      <c r="C97" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="D97" s="59">
-        <v>7362</v>
-      </c>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59">
-        <v>7500</v>
-      </c>
-      <c r="H97" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B98" s="58"/>
-      <c r="C98" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="D98" s="59">
-        <v>23600</v>
-      </c>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="59">
-        <v>24000</v>
-      </c>
-      <c r="H98" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B99" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D99" s="59">
-        <v>3063</v>
-      </c>
-      <c r="E99" s="59">
-        <v>4390</v>
-      </c>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59">
-        <v>3100</v>
-      </c>
-      <c r="H99" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="B100" s="58"/>
-      <c r="C100" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="D100" s="59">
-        <v>9235</v>
-      </c>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="59">
-        <v>9900</v>
-      </c>
-      <c r="H100" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="B101" s="58"/>
-      <c r="C101" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="D101" s="59">
-        <v>9235</v>
-      </c>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="59">
-        <v>9900</v>
-      </c>
-      <c r="H101" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="B102" s="58"/>
-      <c r="C102" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="D102" s="59">
-        <v>9235</v>
-      </c>
-      <c r="E102" s="59"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="59">
-        <v>9900</v>
-      </c>
-      <c r="H102" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="B103" s="58"/>
-      <c r="C103" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="D103" s="59">
-        <v>11600</v>
-      </c>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="59">
-        <v>12500</v>
-      </c>
-      <c r="H103" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="B104" s="58"/>
-      <c r="C104" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D104" s="59">
-        <v>11900</v>
-      </c>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="59">
-        <v>12500</v>
-      </c>
-      <c r="H104" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="B105" s="58"/>
-      <c r="C105" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="D105" s="59">
-        <v>14600</v>
-      </c>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59">
-        <v>14500</v>
-      </c>
-      <c r="H105" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="B106" s="58"/>
-      <c r="C106" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="D106" s="59">
-        <v>13600</v>
-      </c>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59">
-        <v>14500</v>
-      </c>
-      <c r="H106" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="B107" s="58"/>
-      <c r="C107" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="D107" s="59">
-        <v>14700</v>
-      </c>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59">
-        <v>15800</v>
-      </c>
-      <c r="H107" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="B108" s="58"/>
-      <c r="C108" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="D108" s="59">
-        <v>18700</v>
-      </c>
-      <c r="E108" s="59"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59">
-        <v>19000</v>
-      </c>
-      <c r="H108" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="B109" s="58"/>
-      <c r="C109" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="D109" s="59">
-        <v>21200</v>
-      </c>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59">
-        <v>22000</v>
-      </c>
-      <c r="H109" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="B110" s="58"/>
-      <c r="C110" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="D110" s="59">
-        <v>25400</v>
-      </c>
-      <c r="E110" s="59"/>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59">
-        <v>26700</v>
-      </c>
-      <c r="H110" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="D111" s="59">
-        <v>26500</v>
-      </c>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59">
-        <v>26700</v>
-      </c>
-      <c r="H111" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="B112" s="58"/>
-      <c r="C112" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="D112" s="59">
-        <v>26500</v>
-      </c>
-      <c r="E112" s="59"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59">
-        <v>26700</v>
-      </c>
-      <c r="H112" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="58"/>
-      <c r="C113" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="59">
-        <v>24000</v>
-      </c>
-      <c r="E113" s="59"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="59">
-        <v>24000</v>
-      </c>
-      <c r="H113" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" s="58"/>
-      <c r="C114" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="59">
-        <v>24000</v>
-      </c>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59">
-        <v>24000</v>
-      </c>
-      <c r="H114" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="B115" s="58"/>
-      <c r="C115" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="59">
-        <v>24000</v>
-      </c>
-      <c r="E115" s="59"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="59">
-        <v>24000</v>
-      </c>
-      <c r="H115" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="B116" s="58"/>
-      <c r="C116" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="D116" s="59">
-        <v>13000</v>
-      </c>
-      <c r="E116" s="59">
-        <v>17990</v>
-      </c>
-      <c r="F116" s="59"/>
-      <c r="G116" s="59">
-        <v>16000</v>
-      </c>
-      <c r="H116" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="B117" s="58"/>
-      <c r="C117" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="D117" s="59">
-        <v>33700</v>
-      </c>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59">
-        <v>35000</v>
-      </c>
-      <c r="H117" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="B118" s="58"/>
-      <c r="C118" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="D118" s="59">
-        <v>33700</v>
-      </c>
-      <c r="E118" s="59"/>
-      <c r="F118" s="59"/>
-      <c r="G118" s="59">
-        <v>35000</v>
-      </c>
-      <c r="H118" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="B119" s="58"/>
-      <c r="C119" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="D119" s="59">
-        <v>29200</v>
-      </c>
-      <c r="E119" s="59"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="59">
-        <v>29700</v>
-      </c>
-      <c r="H119" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="B120" s="58"/>
-      <c r="C120" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="D120" s="59">
-        <v>28400</v>
-      </c>
-      <c r="E120" s="59"/>
-      <c r="F120" s="59"/>
-      <c r="G120" s="59">
-        <v>29700</v>
-      </c>
-      <c r="H120" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="B121" s="58"/>
-      <c r="C121" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="D121" s="59">
-        <v>30400</v>
-      </c>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="59">
-        <v>29700</v>
-      </c>
-      <c r="H121" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="B122" s="58"/>
-      <c r="C122" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="D122" s="59">
-        <v>3500</v>
-      </c>
-      <c r="E122" s="59">
-        <v>7990</v>
-      </c>
-      <c r="F122" s="59"/>
-      <c r="G122" s="59">
-        <v>7000</v>
-      </c>
-      <c r="H122" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="B123" s="58"/>
-      <c r="C123" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="D123" s="59">
-        <v>8000</v>
-      </c>
-      <c r="E123" s="59">
-        <v>13990</v>
-      </c>
-      <c r="F123" s="59"/>
-      <c r="G123" s="59">
-        <v>13000</v>
-      </c>
-      <c r="H123" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="B124" s="58"/>
-      <c r="C124" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="D124" s="59">
-        <v>12000</v>
-      </c>
-      <c r="E124" s="59"/>
-      <c r="F124" s="59"/>
-      <c r="G124" s="59"/>
-      <c r="H124" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="B125" s="58"/>
-      <c r="C125" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="D125" s="59">
-        <v>52000</v>
-      </c>
-      <c r="E125" s="59"/>
-      <c r="F125" s="59"/>
-      <c r="G125" s="59"/>
-      <c r="H125" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="B126" s="58"/>
-      <c r="C126" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="D126" s="59">
-        <v>63200</v>
-      </c>
-      <c r="E126" s="59"/>
-      <c r="F126" s="59"/>
-      <c r="G126" s="59">
-        <v>63500</v>
-      </c>
-      <c r="H126" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="B127" s="58"/>
-      <c r="C127" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="D127" s="59">
-        <v>80000</v>
-      </c>
-      <c r="E127" s="59"/>
-      <c r="F127" s="59"/>
-      <c r="G127" s="59">
-        <v>80000</v>
-      </c>
-      <c r="H127" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="B128" s="58"/>
-      <c r="C128" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D128" s="59">
-        <v>11407</v>
-      </c>
-      <c r="E128" s="59"/>
-      <c r="F128" s="59"/>
-      <c r="G128" s="59">
-        <v>13000</v>
-      </c>
-      <c r="H128" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="B129" s="58"/>
-      <c r="C129" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="D129" s="59">
-        <v>18000</v>
-      </c>
-      <c r="E129" s="59">
-        <v>19990</v>
-      </c>
-      <c r="F129" s="59"/>
-      <c r="G129" s="59">
-        <v>19000</v>
-      </c>
-      <c r="H129" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B130" s="58"/>
-      <c r="C130" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="D130" s="59">
-        <v>17000</v>
-      </c>
-      <c r="E130" s="59">
-        <v>19990</v>
-      </c>
-      <c r="F130" s="59"/>
-      <c r="G130" s="59">
-        <v>19000</v>
-      </c>
-      <c r="H130" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="B131" s="58"/>
-      <c r="C131" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="D131" s="59">
-        <v>28000</v>
-      </c>
-      <c r="E131" s="59">
-        <v>34990</v>
-      </c>
-      <c r="F131" s="59"/>
-      <c r="G131" s="59">
-        <v>33000</v>
-      </c>
-      <c r="H131" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="B132" s="58"/>
-      <c r="C132" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="D132" s="59">
-        <v>68500</v>
-      </c>
-      <c r="E132" s="59"/>
-      <c r="F132" s="59"/>
-      <c r="G132" s="59">
-        <v>68800</v>
-      </c>
-      <c r="H132" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="B133" s="58"/>
-      <c r="C133" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="D133" s="59">
-        <v>69800</v>
-      </c>
-      <c r="E133" s="59"/>
-      <c r="F133" s="59"/>
-      <c r="G133" s="59"/>
-      <c r="H133" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B134" s="58"/>
-      <c r="C134" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="D134" s="59">
-        <v>5500</v>
-      </c>
-      <c r="E134" s="59">
-        <v>7990</v>
-      </c>
-      <c r="F134" s="59"/>
-      <c r="G134" s="59">
-        <v>7000</v>
-      </c>
-      <c r="H134" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B135" s="58"/>
-      <c r="C135" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D135" s="59">
-        <v>22500</v>
-      </c>
-      <c r="E135" s="59"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="59">
-        <v>22900</v>
-      </c>
-      <c r="H135" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="B136" s="58"/>
-      <c r="C136" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="D136" s="59">
-        <v>10866</v>
-      </c>
-      <c r="E136" s="59"/>
-      <c r="F136" s="59"/>
-      <c r="G136" s="59">
-        <v>11200</v>
-      </c>
-      <c r="H136" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B137" s="58"/>
-      <c r="C137" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D137" s="59">
-        <v>11800</v>
-      </c>
-      <c r="E137" s="59"/>
-      <c r="F137" s="59"/>
-      <c r="G137" s="59">
-        <v>11200</v>
-      </c>
-      <c r="H137" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="B138" s="58"/>
-      <c r="C138" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="D138" s="59">
-        <v>9518</v>
-      </c>
-      <c r="E138" s="59"/>
-      <c r="F138" s="59"/>
-      <c r="G138" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H138" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="B139" s="58"/>
-      <c r="C139" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="D139" s="59">
-        <v>9518</v>
-      </c>
-      <c r="E139" s="59"/>
-      <c r="F139" s="59"/>
-      <c r="G139" s="59">
-        <v>10000</v>
-      </c>
-      <c r="H139" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="B140" s="58"/>
-      <c r="C140" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D140" s="59">
-        <v>17718</v>
-      </c>
-      <c r="E140" s="59"/>
-      <c r="F140" s="59"/>
-      <c r="G140" s="59">
-        <v>22000</v>
-      </c>
-      <c r="H140" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="B141" s="58"/>
-      <c r="C141" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="D141" s="59">
-        <v>18272</v>
-      </c>
-      <c r="E141" s="59"/>
-      <c r="F141" s="59"/>
-      <c r="G141" s="59">
-        <v>22000</v>
-      </c>
-      <c r="H141" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B142" s="58"/>
-      <c r="C142" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="D142" s="59">
-        <v>18800</v>
-      </c>
-      <c r="E142" s="59"/>
-      <c r="F142" s="59"/>
-      <c r="G142" s="59">
-        <v>14000</v>
-      </c>
-      <c r="H142" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="B143" s="58"/>
-      <c r="C143" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="D143" s="59">
-        <v>31100</v>
-      </c>
-      <c r="E143" s="59"/>
-      <c r="F143" s="59"/>
-      <c r="G143" s="59">
-        <v>31900</v>
-      </c>
-      <c r="H143" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="B144" s="58"/>
-      <c r="C144" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="D144" s="59">
-        <v>26800</v>
-      </c>
-      <c r="E144" s="59"/>
-      <c r="F144" s="59"/>
-      <c r="G144" s="59">
-        <v>27500</v>
-      </c>
-      <c r="H144" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="B145" s="58"/>
-      <c r="C145" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="D145" s="59">
-        <v>27000</v>
-      </c>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
-      <c r="G145" s="59">
-        <v>27500</v>
-      </c>
-      <c r="H145" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="B146" s="58"/>
-      <c r="C146" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="D146" s="59">
-        <v>26200</v>
-      </c>
-      <c r="E146" s="59"/>
-      <c r="F146" s="59"/>
-      <c r="G146" s="59">
-        <v>27500</v>
-      </c>
-      <c r="H146" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="B147" s="58"/>
-      <c r="C147" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="D147" s="59">
-        <v>35300</v>
-      </c>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="59">
-        <v>35600</v>
-      </c>
-      <c r="H147" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="B148" s="58"/>
-      <c r="C148" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="D148" s="59">
-        <v>31230</v>
-      </c>
-      <c r="E148" s="59"/>
-      <c r="F148" s="59"/>
-      <c r="G148" s="59">
-        <v>35600</v>
-      </c>
-      <c r="H148" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B149" s="58"/>
-      <c r="C149" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D149" s="59">
-        <v>21200</v>
-      </c>
-      <c r="E149" s="59"/>
-      <c r="F149" s="59"/>
-      <c r="G149" s="59">
-        <v>22700</v>
-      </c>
-      <c r="H149" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B150" s="58"/>
-      <c r="C150" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D150" s="59">
-        <v>500</v>
-      </c>
-      <c r="E150" s="59"/>
-      <c r="F150" s="59"/>
-      <c r="G150" s="59">
-        <v>500</v>
-      </c>
-      <c r="H150" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="B151" s="58"/>
-      <c r="C151" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="59"/>
-      <c r="H151" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="B152" s="58"/>
-      <c r="C152" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D152" s="59">
-        <v>75</v>
-      </c>
-      <c r="E152" s="59"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="59">
-        <v>500</v>
-      </c>
-      <c r="H152" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B153" s="58"/>
-      <c r="C153" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="D153" s="59">
-        <v>200</v>
-      </c>
-      <c r="E153" s="59"/>
-      <c r="F153" s="59"/>
-      <c r="G153" s="59">
-        <v>500</v>
-      </c>
-      <c r="H153" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B154" s="58"/>
-      <c r="C154" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D154" s="59">
-        <v>200</v>
-      </c>
-      <c r="E154" s="59"/>
-      <c r="F154" s="59"/>
-      <c r="G154" s="59">
-        <v>500</v>
-      </c>
-      <c r="H154" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="B155" s="58"/>
-      <c r="C155" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D155" s="59">
-        <v>200</v>
-      </c>
-      <c r="E155" s="59"/>
-      <c r="F155" s="59"/>
-      <c r="G155" s="59">
-        <v>500</v>
-      </c>
-      <c r="H155" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B156" s="58"/>
-      <c r="C156" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D156" s="59">
-        <v>200</v>
-      </c>
-      <c r="E156" s="59"/>
-      <c r="F156" s="59"/>
-      <c r="G156" s="59">
-        <v>500</v>
-      </c>
-      <c r="H156" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B157" s="58"/>
-      <c r="C157" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D157" s="59">
-        <v>400</v>
-      </c>
-      <c r="E157" s="59"/>
-      <c r="F157" s="59"/>
-      <c r="G157" s="59">
-        <v>500</v>
-      </c>
-      <c r="H157" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="B158" s="58"/>
-      <c r="C158" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D158" s="59">
-        <v>300</v>
-      </c>
-      <c r="E158" s="59"/>
-      <c r="F158" s="59"/>
-      <c r="G158" s="59">
-        <v>500</v>
-      </c>
-      <c r="H158" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="B159" s="58"/>
-      <c r="C159" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="D159" s="59">
-        <v>28440</v>
-      </c>
-      <c r="E159" s="59"/>
-      <c r="F159" s="59"/>
-      <c r="G159" s="59">
-        <v>29000</v>
-      </c>
-      <c r="H159" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="B160" s="58"/>
-      <c r="C160" s="58" t="s">
-        <v>292</v>
-      </c>
-      <c r="D160" s="59">
-        <v>28044</v>
-      </c>
-      <c r="E160" s="59"/>
-      <c r="F160" s="59"/>
-      <c r="G160" s="59">
-        <v>29000</v>
-      </c>
-      <c r="H160" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="52"/>
-      <c r="B161" s="52"/>
-      <c r="C161" s="52"/>
-      <c r="D161" s="53"/>
-      <c r="E161" s="53"/>
-      <c r="F161" s="53"/>
-      <c r="G161" s="53"/>
-      <c r="H161" s="54"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="52"/>
-      <c r="B162" s="52"/>
-      <c r="C162" s="52"/>
-      <c r="D162" s="53"/>
-      <c r="E162" s="53"/>
-      <c r="F162" s="53"/>
-      <c r="G162" s="53"/>
-      <c r="H162" s="54"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="49"/>
-      <c r="B163" s="49"/>
-      <c r="C163" s="49"/>
-      <c r="D163" s="50"/>
-      <c r="E163" s="50"/>
-      <c r="F163" s="50"/>
-      <c r="G163" s="50"/>
-      <c r="H163" s="51"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="49"/>
-      <c r="B164" s="49"/>
-      <c r="C164" s="49"/>
-      <c r="D164" s="50"/>
-      <c r="E164" s="50"/>
-      <c r="F164" s="50"/>
-      <c r="G164" s="50"/>
-      <c r="H164" s="51"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="49"/>
-      <c r="B165" s="49"/>
-      <c r="C165" s="49"/>
-      <c r="D165" s="50"/>
-      <c r="E165" s="50"/>
-      <c r="F165" s="50"/>
-      <c r="G165" s="50"/>
-      <c r="H165" s="51"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="49"/>
-      <c r="B166" s="49"/>
-      <c r="C166" s="49"/>
-      <c r="D166" s="50"/>
-      <c r="E166" s="50"/>
-      <c r="F166" s="50"/>
-      <c r="G166" s="50"/>
-      <c r="H166" s="51"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="49"/>
-      <c r="B167" s="49"/>
-      <c r="C167" s="49"/>
-      <c r="D167" s="50"/>
-      <c r="E167" s="50"/>
-      <c r="F167" s="50"/>
-      <c r="G167" s="50"/>
-      <c r="H167" s="51"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="46"/>
-      <c r="B168" s="46"/>
-      <c r="C168" s="46"/>
-      <c r="D168" s="47"/>
-      <c r="E168" s="47"/>
-      <c r="F168" s="47"/>
-      <c r="G168" s="47"/>
-      <c r="H168" s="48"/>
+      <c r="H168" s="57" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="46"/>
-      <c r="B169" s="46"/>
-      <c r="C169" s="46"/>
-      <c r="D169" s="47"/>
-      <c r="E169" s="47"/>
-      <c r="F169" s="47"/>
-      <c r="G169" s="47"/>
-      <c r="H169" s="48"/>
+      <c r="A169" s="49"/>
+      <c r="B169" s="49"/>
+      <c r="C169" s="49"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50"/>
+      <c r="G169" s="50"/>
+      <c r="H169" s="51"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="46"/>

--- a/priceFromBase.xlsx
+++ b/priceFromBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mobil\Desktop\AllPrice EXEL (НЕ УДАЛЯТЬ!)\По наличию\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDFE450-6AB8-40FE-ADF2-590EE794A041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34E4F65-E5ED-4763-96CD-94BAEDF90554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="2295" windowWidth="20190" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="322">
   <si>
     <t>Код</t>
   </si>
@@ -105,12 +105,6 @@
     <t>Apple MacBook Air 13 M1 (2020 - MGNA3) 8/512 Silver "A-"</t>
   </si>
   <si>
-    <t>SPWQG037KHG</t>
-  </si>
-  <si>
-    <t>Apple MacBook Pro 13 M2 (2022 - MNEH3) 8/256 Gray "A"</t>
-  </si>
-  <si>
     <t>SN2GFDGHXC7</t>
   </si>
   <si>
@@ -315,12 +309,6 @@
     <t>JBL Clip 4 Green J/A</t>
   </si>
   <si>
-    <t>353559566047955</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro 512 Black "B"</t>
-  </si>
-  <si>
     <t>GKVYVX6NJMMT</t>
   </si>
   <si>
@@ -360,12 +348,6 @@
     <t>Xiaomi 12X 8/256 Purple "A"</t>
   </si>
   <si>
-    <t>355782151840166</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 Pro Max 256 Blue "C"</t>
-  </si>
-  <si>
     <t>Apple MacBook Pro 15 (2017 - MPTT2) i7 16/512 Gray "B+"</t>
   </si>
   <si>
@@ -444,9 +426,6 @@
     <t>Xiaomi Redmi Note 13 Pro 5G 8/256 Purple EU</t>
   </si>
   <si>
-    <t>Xiaomi Redmi Note 13 Pro 4G 8/256 Purple EU (Уценка) пятно в левом углу</t>
-  </si>
-  <si>
     <t>350100280800396</t>
   </si>
   <si>
@@ -576,18 +555,6 @@
     <t>Xiaomi 14 12/256 Black EU</t>
   </si>
   <si>
-    <t>869536074357545</t>
-  </si>
-  <si>
-    <t>Pocophone X6 5G 12/256 Blue EU</t>
-  </si>
-  <si>
-    <t>350900921982911</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A15 4/128 Yellow AA</t>
-  </si>
-  <si>
     <t>861955075193642</t>
   </si>
   <si>
@@ -693,18 +660,6 @@
     <t>Apple Watch S10 42 Gold Titanium / Natural Link Bracelete ZP/A</t>
   </si>
   <si>
-    <t>FVFYF3G5HV29</t>
-  </si>
-  <si>
-    <t>Apple MacBook Pro 13 (2017 - MPXQ2) i5 8/256 Gray "B"</t>
-  </si>
-  <si>
-    <t>350100281815971</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A55 5G 8/128 Navy AA</t>
-  </si>
-  <si>
     <t>Apple AirPods 4 ANC</t>
   </si>
   <si>
@@ -780,9 +735,6 @@
     <t>SLM2M4FT415</t>
   </si>
   <si>
-    <t>SDQ936D07J9</t>
-  </si>
-  <si>
     <t>354489170641309</t>
   </si>
   <si>
@@ -795,9 +747,6 @@
     <t>Apple iPhone 14 256 Starlight "B-"</t>
   </si>
   <si>
-    <t>359757420618896</t>
-  </si>
-  <si>
     <t>Apple iPhone 15 128 Black HN/A</t>
   </si>
   <si>
@@ -822,30 +771,12 @@
     <t>Samsung Galaxy A25 5G 8/256 Light Blue AA</t>
   </si>
   <si>
-    <t>355326629696378</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A55 5G 12/256 IceBlue MY</t>
-  </si>
-  <si>
-    <t>356174380512288</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A55 5G 12/256 Lilac MY</t>
-  </si>
-  <si>
     <t>350100283039588</t>
   </si>
   <si>
     <t>Samsung Galaxy A55 5G 8/128 IceBlue AA</t>
   </si>
   <si>
-    <t>35872560770366</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S22 Ultra 5G 12/256 Black "C"</t>
-  </si>
-  <si>
     <t>354267934783686</t>
   </si>
   <si>
@@ -870,12 +801,6 @@
     <t>Xiaomi Redmi Note 13 Pro 5G 8/256 Black UK</t>
   </si>
   <si>
-    <t>862086076286661</t>
-  </si>
-  <si>
-    <t>Xiaomi Redmi Note 13 Pro Plus 5G 8/256 Black EU</t>
-  </si>
-  <si>
     <t>4670028541098</t>
   </si>
   <si>
@@ -888,15 +813,6 @@
     <t>Яндекс Станция Max с Zigbee Black RU</t>
   </si>
   <si>
-    <t>Sc4TG0QP0M6</t>
-  </si>
-  <si>
-    <t>357494476084466</t>
-  </si>
-  <si>
-    <t>Apple Watch Ultra 2 (2024) 49 Black M Dark Green Alpina Loop LL/A</t>
-  </si>
-  <si>
     <t>353986108090260</t>
   </si>
   <si>
@@ -909,18 +825,6 @@
     <t>Apple iphone 13 256 Midnight "B-"</t>
   </si>
   <si>
-    <t>357627944991057</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro 1TB White ZD/A</t>
-  </si>
-  <si>
-    <t>SGLWN6LNQCQ</t>
-  </si>
-  <si>
-    <t>Apple Watch SE 2023 Gen 2 44 Midnight Sport (M/L) LL/A</t>
-  </si>
-  <si>
     <t>351824514102209</t>
   </si>
   <si>
@@ -945,12 +849,6 @@
     <t>Apple iPhone 15 Pro Max 256 Natural AH/A</t>
   </si>
   <si>
-    <t>353995650771938</t>
-  </si>
-  <si>
-    <t>Apple iPhone 16 Pro Max 256 Natural J/A</t>
-  </si>
-  <si>
     <t>353235522257752</t>
   </si>
   <si>
@@ -978,13 +876,127 @@
     <t>Apple AirPods Pro 2 USB-C</t>
   </si>
   <si>
-    <t>Apple Watch SE2 (2024) 44 Starlight Sport SB (M/L) LL/A</t>
-  </si>
-  <si>
-    <t>350349579361087</t>
-  </si>
-  <si>
-    <t>Google Pixel 8A 8/128Gb Obsidian GB</t>
+    <t>SD6N4Q7J7VN</t>
+  </si>
+  <si>
+    <t>Apple AirPods 3 Lightning</t>
+  </si>
+  <si>
+    <t>SJXVPC45L2Q</t>
+  </si>
+  <si>
+    <t>SJKJKTQX1MW</t>
+  </si>
+  <si>
+    <t>Apple AirPods 3 Magsafe</t>
+  </si>
+  <si>
+    <t>SHD2GXV523X</t>
+  </si>
+  <si>
+    <t>sfc7MD3jx23</t>
+  </si>
+  <si>
+    <t>359461430140971</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 128 Blue HN/A</t>
+  </si>
+  <si>
+    <t>351175556222052</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 128 Midnight HN/A</t>
+  </si>
+  <si>
+    <t>351280597549537</t>
+  </si>
+  <si>
+    <t>350872366189957</t>
+  </si>
+  <si>
+    <t>352904892705804</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 128 Black HN/A</t>
+  </si>
+  <si>
+    <t>354553640444485</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro 256 Black J/A</t>
+  </si>
+  <si>
+    <t>351655954268138</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max 256 Black J/A</t>
+  </si>
+  <si>
+    <t>357343964419272</t>
+  </si>
+  <si>
+    <t>864624072378609</t>
+  </si>
+  <si>
+    <t>Pocophone C75 6/128 Black EU</t>
+  </si>
+  <si>
+    <t>869674073561005</t>
+  </si>
+  <si>
+    <t>Pocophone C75 6/128 Green EU</t>
+  </si>
+  <si>
+    <t>866809070648669</t>
+  </si>
+  <si>
+    <t>Pocophone C75 8/256 Gold EU</t>
+  </si>
+  <si>
+    <t>355326629511445</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A55 5G 12/256 Navy MY</t>
+  </si>
+  <si>
+    <t>352772525093306</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S23 5G 8/256 Green HN</t>
+  </si>
+  <si>
+    <t>352772525028294</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S23 5G 8/256 Lavender HN</t>
+  </si>
+  <si>
+    <t>353302724329399</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 FE 5G 8/256 Graphite AA</t>
+  </si>
+  <si>
+    <t>353302720430282</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 FE 5G 8/256 Mint AA</t>
+  </si>
+  <si>
+    <t>351123967336285</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 Ultra 5G 12/256 Black MY</t>
+  </si>
+  <si>
+    <t>351123966954344</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 Ultra 5G 12/256 Gray MY</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 13 Pro 4G 8/256 Purple EU (Уценка) пятно в левом углу -</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1033,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1284,26 +1296,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1417,25 +1414,18 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1721,7 +1711,7 @@
   <dimension ref="A1:H505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:H168"/>
+      <selection sqref="A1:H172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,3468 +1720,3514 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="78" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="53">
+        <v>9200</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53">
+        <v>9600</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="53">
+        <v>9200</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53">
+        <v>9600</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="53">
+        <v>3150</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53">
+        <v>4500</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="53">
+        <v>2766</v>
+      </c>
+      <c r="E5" s="53">
+        <v>2990</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53">
+        <v>3000</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="53">
+        <v>1300</v>
+      </c>
+      <c r="E6" s="53">
+        <v>2990</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="53">
+        <v>3150</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53">
+        <v>4500</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="53">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53">
+        <v>4500</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="53">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="53">
+        <v>1990</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="53">
+        <v>11600</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53">
+        <v>12200</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="53">
+        <v>11600</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53">
+        <v>12200</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="53">
+        <v>5034</v>
+      </c>
+      <c r="E12" s="53">
+        <v>12990</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="53">
+        <v>12500</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53">
+        <v>13200</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="53">
+        <v>12500</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53">
+        <v>13200</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="53">
+        <v>5033</v>
+      </c>
+      <c r="E15" s="53">
+        <v>5990</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53">
+        <v>5500</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="53">
+        <v>13800</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53">
+        <v>14100</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="53">
+        <v>13800</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53">
+        <v>14100</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="53">
+        <v>13800</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53">
+        <v>14100</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="53">
+        <v>13800</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53">
+        <v>14100</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="53">
+        <v>16972</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53">
+        <v>17500</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="53">
+        <v>17400</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53">
+        <v>17500</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="53">
+        <v>17400</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53">
+        <v>17500</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="53">
+        <v>20500</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53">
+        <v>20600</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="53">
+        <v>20100</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53">
+        <v>20600</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="53">
+        <v>16300</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E26" s="53">
+        <v>18990</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53">
+        <v>17000</v>
+      </c>
+      <c r="H26" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="53">
+        <v>13000</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="53">
+        <v>38099</v>
+      </c>
+      <c r="E28" s="53">
+        <v>30990</v>
+      </c>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53">
+        <v>30000</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="53">
+        <v>27500</v>
+      </c>
+      <c r="E29" s="53">
+        <v>29990</v>
+      </c>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53">
+        <v>29000</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="53">
+        <v>31000</v>
+      </c>
+      <c r="E30" s="53">
+        <v>37990</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53">
+        <v>36000</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="53">
+        <v>48800</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53">
+        <v>49500</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="53">
+        <v>51600</v>
+      </c>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="D33" s="53">
+        <v>51500</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53">
+        <v>51500</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="53">
+        <v>30000</v>
+      </c>
+      <c r="E34" s="53">
+        <v>37990</v>
+      </c>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53">
+        <v>36000</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="53">
+        <v>29000</v>
+      </c>
+      <c r="E35" s="53">
+        <v>37990</v>
+      </c>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53">
+        <v>36000</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="53">
+        <v>51000</v>
+      </c>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53">
+        <v>52200</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="53">
+        <v>35000</v>
+      </c>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="53">
+        <v>36500</v>
+      </c>
+      <c r="E38" s="53">
+        <v>43990</v>
+      </c>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53">
+        <v>42000</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="53">
+        <v>46519</v>
+      </c>
+      <c r="E39" s="53">
+        <v>47990</v>
+      </c>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53">
+        <v>46200</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="53">
+        <v>41000</v>
+      </c>
+      <c r="E40" s="53">
+        <v>43990</v>
+      </c>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53">
+        <v>43000</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="53">
+        <v>38000</v>
+      </c>
+      <c r="E41" s="53">
+        <v>43990</v>
+      </c>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53">
+        <v>43000</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="53">
+        <v>36000</v>
+      </c>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="53">
+        <v>64900</v>
+      </c>
+      <c r="E43" s="53">
+        <v>66990</v>
+      </c>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53">
+        <v>65000</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="53">
+        <v>62000</v>
+      </c>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55" t="s">
+      <c r="D45" s="53">
+        <v>65300</v>
+      </c>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53">
+        <v>66000</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="53">
+        <v>64500</v>
+      </c>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53">
+        <v>66000</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="56">
-        <v>9200</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56">
-        <v>9600</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="B47" s="52"/>
+      <c r="C47" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="56">
-        <v>9200</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56">
-        <v>9600</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="56">
-        <v>3150</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56">
+      <c r="D47" s="53">
+        <v>66800</v>
+      </c>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53">
+        <v>68000</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" s="53">
+        <v>111300</v>
+      </c>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="D49" s="53">
+        <v>77000</v>
+      </c>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53">
+        <v>77500</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="53">
+        <v>114500</v>
+      </c>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53">
+        <v>114900</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="53">
+        <v>117500</v>
+      </c>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53">
+        <v>117600</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D52" s="53">
+        <v>124000</v>
+      </c>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D53" s="53">
+        <v>124000</v>
+      </c>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="53">
+        <v>27384</v>
+      </c>
+      <c r="E54" s="53">
+        <v>35990</v>
+      </c>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53">
+        <v>35000</v>
+      </c>
+      <c r="H54" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="53">
+        <v>17839</v>
+      </c>
+      <c r="E55" s="53">
+        <v>26990</v>
+      </c>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53">
+        <v>25000</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" s="53">
+        <v>17000</v>
+      </c>
+      <c r="E56" s="53">
+        <v>29990</v>
+      </c>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53">
+        <v>27000</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="53">
+        <v>35262</v>
+      </c>
+      <c r="E57" s="53">
+        <v>43990</v>
+      </c>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53">
+        <v>42000</v>
+      </c>
+      <c r="H57" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="53">
+        <v>50089</v>
+      </c>
+      <c r="E58" s="53">
+        <v>55990</v>
+      </c>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53">
+        <v>54000</v>
+      </c>
+      <c r="H58" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="53">
+        <v>65099</v>
+      </c>
+      <c r="E59" s="53">
+        <v>68990</v>
+      </c>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53">
+        <v>67000</v>
+      </c>
+      <c r="H59" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="53">
+        <v>49929</v>
+      </c>
+      <c r="E60" s="53">
+        <v>55990</v>
+      </c>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53">
+        <v>53000</v>
+      </c>
+      <c r="H60" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="53">
+        <v>49427</v>
+      </c>
+      <c r="E61" s="53">
+        <v>54990</v>
+      </c>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53">
+        <v>53000</v>
+      </c>
+      <c r="H61" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="53">
+        <v>69752</v>
+      </c>
+      <c r="E62" s="53">
+        <v>72990</v>
+      </c>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53">
+        <v>71000</v>
+      </c>
+      <c r="H62" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="53">
+        <v>88984</v>
+      </c>
+      <c r="E63" s="53">
+        <v>93990</v>
+      </c>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53">
+        <v>91000</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="53">
+        <v>45000</v>
+      </c>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" s="53">
+        <v>80000</v>
+      </c>
+      <c r="E65" s="53">
+        <v>89990</v>
+      </c>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53">
+        <v>87000</v>
+      </c>
+      <c r="H65" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="53">
+        <v>60499</v>
+      </c>
+      <c r="E66" s="53">
+        <v>67990</v>
+      </c>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53">
+        <v>66000</v>
+      </c>
+      <c r="H66" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="53">
+        <v>115000</v>
+      </c>
+      <c r="E67" s="53">
+        <v>122990</v>
+      </c>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53">
+        <v>120000</v>
+      </c>
+      <c r="H67" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" s="53">
+        <v>36500</v>
+      </c>
+      <c r="E68" s="53">
+        <v>34990</v>
+      </c>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53">
+        <v>34000</v>
+      </c>
+      <c r="H68" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="53">
+        <v>49099</v>
+      </c>
+      <c r="E69" s="53">
+        <v>48990</v>
+      </c>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53">
+        <v>48000</v>
+      </c>
+      <c r="H69" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="53">
+        <v>138600</v>
+      </c>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53">
+        <v>138600</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="53">
+        <v>38500</v>
+      </c>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53">
+        <v>30000</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H72" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H73" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="52"/>
+      <c r="C74" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H74" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H75" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H76" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H77" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H78" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H79" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H80" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H81" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H82" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="53">
+        <v>12000</v>
+      </c>
+      <c r="E83" s="53"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H83" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="53">
+        <v>5700</v>
+      </c>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53">
+        <v>6800</v>
+      </c>
+      <c r="H84" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="53">
+        <v>3063</v>
+      </c>
+      <c r="E85" s="53">
+        <v>4390</v>
+      </c>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53">
+        <v>3800</v>
+      </c>
+      <c r="H85" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="53">
+        <v>13000</v>
+      </c>
+      <c r="E86" s="53">
+        <v>23990</v>
+      </c>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53">
+        <v>21000</v>
+      </c>
+      <c r="H86" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" s="53">
+        <v>28000</v>
+      </c>
+      <c r="E87" s="53">
+        <v>34990</v>
+      </c>
+      <c r="F87" s="53"/>
+      <c r="G87" s="53">
+        <v>33000</v>
+      </c>
+      <c r="H87" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" s="53">
+        <v>91600</v>
+      </c>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53">
+        <v>92000</v>
+      </c>
+      <c r="H88" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="53">
+        <v>11000</v>
+      </c>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53">
+        <v>12800</v>
+      </c>
+      <c r="H89" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="53">
+        <v>11200</v>
+      </c>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53">
+        <v>12800</v>
+      </c>
+      <c r="H90" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="53">
+        <v>11000</v>
+      </c>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53">
+        <v>12800</v>
+      </c>
+      <c r="H91" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="52"/>
+      <c r="C92" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="53">
+        <v>3800</v>
+      </c>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53">
         <v>4500</v>
       </c>
-      <c r="H4" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="56">
-        <v>2766</v>
-      </c>
-      <c r="E5" s="56">
-        <v>2990</v>
-      </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56">
+      <c r="H92" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="52"/>
+      <c r="C93" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="53">
+        <v>3800</v>
+      </c>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53">
+        <v>4500</v>
+      </c>
+      <c r="H93" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" s="53">
+        <v>7600</v>
+      </c>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53">
+        <v>9500</v>
+      </c>
+      <c r="H94" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="53">
         <v>3000</v>
       </c>
-      <c r="H5" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="56">
-        <v>1300</v>
-      </c>
-      <c r="E6" s="56">
-        <v>2990</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56">
-        <v>3000</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53">
+        <v>3800</v>
+      </c>
+      <c r="H95" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D96" s="53">
+        <v>3300</v>
+      </c>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53">
+        <v>3800</v>
+      </c>
+      <c r="H96" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="53">
+        <v>3407</v>
+      </c>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53">
+        <v>3800</v>
+      </c>
+      <c r="H97" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="53">
+        <v>3407</v>
+      </c>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="53">
+        <v>3800</v>
+      </c>
+      <c r="H98" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="52"/>
+      <c r="C99" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="53">
+        <v>31000</v>
+      </c>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53">
+        <v>31000</v>
+      </c>
+      <c r="H99" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="53">
+        <v>35100</v>
+      </c>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53">
+        <v>28000</v>
+      </c>
+      <c r="H100" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="52"/>
+      <c r="C101" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" s="53">
+        <v>5784</v>
+      </c>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53">
+        <v>5900</v>
+      </c>
+      <c r="H101" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B102" s="52"/>
+      <c r="C102" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="D102" s="53">
+        <v>6788</v>
+      </c>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53">
+        <v>7400</v>
+      </c>
+      <c r="H102" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D103" s="53">
+        <v>7362</v>
+      </c>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53">
+        <v>7400</v>
+      </c>
+      <c r="H103" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B104" s="52"/>
+      <c r="C104" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D104" s="53">
+        <v>9550</v>
+      </c>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53">
+        <v>10100</v>
+      </c>
+      <c r="H104" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="B105" s="52"/>
+      <c r="C105" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="D105" s="53">
+        <v>9550</v>
+      </c>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53">
+        <v>11000</v>
+      </c>
+      <c r="H105" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="B106" s="52"/>
+      <c r="C106" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D106" s="53">
+        <v>10804</v>
+      </c>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="53">
+        <v>11400</v>
+      </c>
+      <c r="H106" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B107" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" s="53">
+        <v>3063</v>
+      </c>
+      <c r="E107" s="53">
+        <v>4390</v>
+      </c>
+      <c r="F107" s="53"/>
+      <c r="G107" s="53">
+        <v>3100</v>
+      </c>
+      <c r="H107" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="52"/>
+      <c r="C108" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108" s="53">
+        <v>9235</v>
+      </c>
+      <c r="E108" s="53"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="53">
+        <v>9900</v>
+      </c>
+      <c r="H108" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="52"/>
+      <c r="C109" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D109" s="53">
+        <v>9235</v>
+      </c>
+      <c r="E109" s="53"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="53">
+        <v>9900</v>
+      </c>
+      <c r="H109" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" s="52"/>
+      <c r="C110" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" s="53">
+        <v>9235</v>
+      </c>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="53">
+        <v>9900</v>
+      </c>
+      <c r="H110" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="52"/>
+      <c r="C111" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D111" s="53">
+        <v>11600</v>
+      </c>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53">
+        <v>12500</v>
+      </c>
+      <c r="H111" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" s="52"/>
+      <c r="C112" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D112" s="53">
+        <v>11900</v>
+      </c>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="53">
+        <v>12500</v>
+      </c>
+      <c r="H112" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" s="52"/>
+      <c r="C113" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" s="53">
+        <v>14700</v>
+      </c>
+      <c r="E113" s="53"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="53">
+        <v>15800</v>
+      </c>
+      <c r="H113" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B114" s="52"/>
+      <c r="C114" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D114" s="53">
+        <v>18700</v>
+      </c>
+      <c r="E114" s="53"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="53">
+        <v>19000</v>
+      </c>
+      <c r="H114" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115" s="52"/>
+      <c r="C115" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D115" s="53">
+        <v>21100</v>
+      </c>
+      <c r="E115" s="53"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="53">
+        <v>22000</v>
+      </c>
+      <c r="H115" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" s="52"/>
+      <c r="C116" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116" s="53">
+        <v>21200</v>
+      </c>
+      <c r="E116" s="53"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="53">
+        <v>22000</v>
+      </c>
+      <c r="H116" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" s="52"/>
+      <c r="C117" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D117" s="53">
+        <v>25400</v>
+      </c>
+      <c r="E117" s="53"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53">
+        <v>26700</v>
+      </c>
+      <c r="H117" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B118" s="52"/>
+      <c r="C118" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D118" s="53">
+        <v>26500</v>
+      </c>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="53">
+        <v>26700</v>
+      </c>
+      <c r="H118" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" s="52"/>
+      <c r="C119" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D119" s="53">
+        <v>26500</v>
+      </c>
+      <c r="E119" s="53"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="53">
+        <v>26700</v>
+      </c>
+      <c r="H119" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="52"/>
+      <c r="C120" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="53">
+        <v>24000</v>
+      </c>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53">
+        <v>24000</v>
+      </c>
+      <c r="H120" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="52"/>
+      <c r="C121" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="53">
+        <v>24000</v>
+      </c>
+      <c r="E121" s="53"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="53">
+        <v>24000</v>
+      </c>
+      <c r="H121" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" s="52"/>
+      <c r="C122" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="53">
+        <v>24000</v>
+      </c>
+      <c r="E122" s="53"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53">
+        <v>24000</v>
+      </c>
+      <c r="H122" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="52"/>
+      <c r="C123" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" s="53">
+        <v>13000</v>
+      </c>
+      <c r="E123" s="53">
+        <v>17990</v>
+      </c>
+      <c r="F123" s="53"/>
+      <c r="G123" s="53">
+        <v>16000</v>
+      </c>
+      <c r="H123" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="B124" s="52"/>
+      <c r="C124" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="D124" s="53">
+        <v>33600</v>
+      </c>
+      <c r="E124" s="53"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53">
+        <v>34300</v>
+      </c>
+      <c r="H124" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="52"/>
+      <c r="C125" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D125" s="53">
+        <v>29200</v>
+      </c>
+      <c r="E125" s="53"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="53">
+        <v>29700</v>
+      </c>
+      <c r="H125" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" s="52"/>
+      <c r="C126" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D126" s="53">
+        <v>28400</v>
+      </c>
+      <c r="E126" s="53"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53">
+        <v>29700</v>
+      </c>
+      <c r="H126" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="52"/>
+      <c r="C127" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D127" s="53">
+        <v>3500</v>
+      </c>
+      <c r="E127" s="53">
+        <v>7990</v>
+      </c>
+      <c r="F127" s="53"/>
+      <c r="G127" s="53">
+        <v>7000</v>
+      </c>
+      <c r="H127" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" s="52"/>
+      <c r="C128" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D128" s="53">
+        <v>8000</v>
+      </c>
+      <c r="E128" s="53">
+        <v>13990</v>
+      </c>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53">
+        <v>13000</v>
+      </c>
+      <c r="H128" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="B129" s="52"/>
+      <c r="C129" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="D129" s="53">
+        <v>44300</v>
+      </c>
+      <c r="E129" s="53"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53">
+        <v>45800</v>
+      </c>
+      <c r="H129" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="B130" s="52"/>
+      <c r="C130" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="D130" s="53">
+        <v>50700</v>
+      </c>
+      <c r="E130" s="53"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="53">
+        <v>53000</v>
+      </c>
+      <c r="H130" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="B131" s="52"/>
+      <c r="C131" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="D131" s="53">
+        <v>51300</v>
+      </c>
+      <c r="E131" s="53"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="53">
+        <v>53000</v>
+      </c>
+      <c r="H131" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B132" s="52"/>
+      <c r="C132" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="D132" s="53">
+        <v>55500</v>
+      </c>
+      <c r="E132" s="53"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="53">
+        <v>57000</v>
+      </c>
+      <c r="H132" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="B133" s="52"/>
+      <c r="C133" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="D133" s="53">
+        <v>61000</v>
+      </c>
+      <c r="E133" s="53"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="53">
+        <v>62500</v>
+      </c>
+      <c r="H133" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B134" s="52"/>
+      <c r="C134" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D134" s="53">
+        <v>63200</v>
+      </c>
+      <c r="E134" s="53"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="53">
+        <v>63500</v>
+      </c>
+      <c r="H134" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="B135" s="52"/>
+      <c r="C135" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="D135" s="53">
+        <v>48200</v>
+      </c>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="53">
+        <v>50500</v>
+      </c>
+      <c r="H135" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="B136" s="52"/>
+      <c r="C136" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="D136" s="53">
+        <v>48000</v>
+      </c>
+      <c r="E136" s="53"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="53">
+        <v>50500</v>
+      </c>
+      <c r="H136" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B137" s="52"/>
+      <c r="C137" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="D137" s="53">
+        <v>86600</v>
+      </c>
+      <c r="E137" s="53"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="53">
+        <v>87500</v>
+      </c>
+      <c r="H137" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="B138" s="52"/>
+      <c r="C138" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="D138" s="53">
+        <v>86600</v>
+      </c>
+      <c r="E138" s="53"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="53">
+        <v>87500</v>
+      </c>
+      <c r="H138" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="52"/>
+      <c r="C139" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="D139" s="53">
+        <v>67200</v>
+      </c>
+      <c r="E139" s="53"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="53">
+        <v>68200</v>
+      </c>
+      <c r="H139" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" s="52"/>
+      <c r="C140" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D140" s="53">
+        <v>80000</v>
+      </c>
+      <c r="E140" s="53"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="53">
+        <v>80000</v>
+      </c>
+      <c r="H140" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141" s="52"/>
+      <c r="C141" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D141" s="53">
+        <v>11407</v>
+      </c>
+      <c r="E141" s="53"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="53">
+        <v>13000</v>
+      </c>
+      <c r="H141" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B142" s="52"/>
+      <c r="C142" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D142" s="53">
+        <v>18000</v>
+      </c>
+      <c r="E142" s="53">
+        <v>19990</v>
+      </c>
+      <c r="F142" s="53"/>
+      <c r="G142" s="53">
+        <v>19000</v>
+      </c>
+      <c r="H142" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B143" s="52"/>
+      <c r="C143" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D143" s="53">
+        <v>17000</v>
+      </c>
+      <c r="E143" s="53">
+        <v>19990</v>
+      </c>
+      <c r="F143" s="53"/>
+      <c r="G143" s="53">
+        <v>19000</v>
+      </c>
+      <c r="H143" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B144" s="52"/>
+      <c r="C144" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D144" s="53">
+        <v>28000</v>
+      </c>
+      <c r="E144" s="53">
+        <v>34990</v>
+      </c>
+      <c r="F144" s="53"/>
+      <c r="G144" s="53">
+        <v>33000</v>
+      </c>
+      <c r="H144" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" s="52"/>
+      <c r="C145" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D145" s="53">
+        <v>68500</v>
+      </c>
+      <c r="E145" s="53"/>
+      <c r="F145" s="53"/>
+      <c r="G145" s="53">
+        <v>68800</v>
+      </c>
+      <c r="H145" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55" t="s">
+      <c r="B146" s="52"/>
+      <c r="C146" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="56">
-        <v>3150</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56">
-        <v>4500</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="56">
-        <v>4000</v>
-      </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56">
-        <v>4500</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="56">
-        <v>3500</v>
-      </c>
-      <c r="E9" s="56">
-        <v>1990</v>
-      </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56">
-        <v>1500</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="56">
-        <v>5034</v>
-      </c>
-      <c r="E10" s="56">
-        <v>12990</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56">
+      <c r="D146" s="53">
+        <v>5500</v>
+      </c>
+      <c r="E146" s="53">
+        <v>7990</v>
+      </c>
+      <c r="F146" s="53"/>
+      <c r="G146" s="53">
+        <v>7000</v>
+      </c>
+      <c r="H146" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B147" s="52"/>
+      <c r="C147" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D147" s="53">
+        <v>22500</v>
+      </c>
+      <c r="E147" s="53"/>
+      <c r="F147" s="53"/>
+      <c r="G147" s="53">
+        <v>22900</v>
+      </c>
+      <c r="H147" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="B148" s="52"/>
+      <c r="C148" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D148" s="53">
+        <v>10866</v>
+      </c>
+      <c r="E148" s="53"/>
+      <c r="F148" s="53"/>
+      <c r="G148" s="53">
+        <v>11200</v>
+      </c>
+      <c r="H148" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B149" s="52"/>
+      <c r="C149" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D149" s="53">
+        <v>11800</v>
+      </c>
+      <c r="E149" s="53"/>
+      <c r="F149" s="53"/>
+      <c r="G149" s="53">
+        <v>11200</v>
+      </c>
+      <c r="H149" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B150" s="52"/>
+      <c r="C150" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D150" s="53">
+        <v>9518</v>
+      </c>
+      <c r="E150" s="53"/>
+      <c r="F150" s="53"/>
+      <c r="G150" s="53">
         <v>10000</v>
       </c>
-      <c r="H10" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="56">
-        <v>5033</v>
-      </c>
-      <c r="E11" s="56">
-        <v>5990</v>
-      </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56">
-        <v>5500</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="56">
-        <v>13800</v>
-      </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56">
-        <v>14100</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="56">
-        <v>13800</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56">
-        <v>14100</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="56">
-        <v>13800</v>
-      </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56">
-        <v>14100</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="56">
-        <v>13800</v>
-      </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56">
-        <v>14100</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="D16" s="56">
-        <v>16972</v>
-      </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56">
-        <v>17400</v>
-      </c>
-      <c r="H16" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="56">
-        <v>17400</v>
-      </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56">
-        <v>17400</v>
-      </c>
-      <c r="H17" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="56">
-        <v>17400</v>
-      </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56">
-        <v>17400</v>
-      </c>
-      <c r="H18" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="56">
-        <v>17400</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56">
-        <v>17400</v>
-      </c>
-      <c r="H19" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="56">
-        <v>20100</v>
-      </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56">
-        <v>20700</v>
-      </c>
-      <c r="H20" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="56">
-        <v>16300</v>
-      </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E22" s="56">
-        <v>18990</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56">
-        <v>17000</v>
-      </c>
-      <c r="H22" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="56">
-        <v>13000</v>
-      </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="56">
-        <v>38099</v>
-      </c>
-      <c r="E24" s="56">
-        <v>30990</v>
-      </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56">
-        <v>30000</v>
-      </c>
-      <c r="H24" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="56">
+      <c r="H150" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B151" s="52"/>
+      <c r="C151" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D151" s="53">
+        <v>9518</v>
+      </c>
+      <c r="E151" s="53"/>
+      <c r="F151" s="53"/>
+      <c r="G151" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H151" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="B152" s="52"/>
+      <c r="C152" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="D152" s="53">
+        <v>17718</v>
+      </c>
+      <c r="E152" s="53"/>
+      <c r="F152" s="53"/>
+      <c r="G152" s="53">
+        <v>22100</v>
+      </c>
+      <c r="H152" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B153" s="52"/>
+      <c r="C153" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="D153" s="53">
+        <v>17718</v>
+      </c>
+      <c r="E153" s="53"/>
+      <c r="F153" s="53"/>
+      <c r="G153" s="53">
+        <v>22100</v>
+      </c>
+      <c r="H153" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B154" s="52"/>
+      <c r="C154" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="D154" s="53">
+        <v>18272</v>
+      </c>
+      <c r="E154" s="53"/>
+      <c r="F154" s="53"/>
+      <c r="G154" s="53">
+        <v>22100</v>
+      </c>
+      <c r="H154" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B155" s="52"/>
+      <c r="C155" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="D155" s="53">
+        <v>18800</v>
+      </c>
+      <c r="E155" s="53"/>
+      <c r="F155" s="53"/>
+      <c r="G155" s="53">
+        <v>14000</v>
+      </c>
+      <c r="H155" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B156" s="52"/>
+      <c r="C156" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D156" s="53">
+        <v>31100</v>
+      </c>
+      <c r="E156" s="53"/>
+      <c r="F156" s="53"/>
+      <c r="G156" s="53">
+        <v>31600</v>
+      </c>
+      <c r="H156" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="B157" s="52"/>
+      <c r="C157" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="D157" s="53">
+        <v>26800</v>
+      </c>
+      <c r="E157" s="53"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="53">
         <v>27500</v>
       </c>
-      <c r="E25" s="56">
-        <v>29990</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56">
+      <c r="H157" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" s="52"/>
+      <c r="C158" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D158" s="53">
+        <v>27000</v>
+      </c>
+      <c r="E158" s="53"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="53">
+        <v>27500</v>
+      </c>
+      <c r="H158" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B159" s="52"/>
+      <c r="C159" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D159" s="53">
+        <v>26200</v>
+      </c>
+      <c r="E159" s="53"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="53">
+        <v>27500</v>
+      </c>
+      <c r="H159" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B160" s="52"/>
+      <c r="C160" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D160" s="53">
+        <v>35300</v>
+      </c>
+      <c r="E160" s="53"/>
+      <c r="F160" s="53"/>
+      <c r="G160" s="53">
+        <v>35600</v>
+      </c>
+      <c r="H160" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B161" s="52"/>
+      <c r="C161" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D161" s="53">
+        <v>21200</v>
+      </c>
+      <c r="E161" s="53"/>
+      <c r="F161" s="53"/>
+      <c r="G161" s="53">
+        <v>22700</v>
+      </c>
+      <c r="H161" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B162" s="52"/>
+      <c r="C162" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D162" s="53">
+        <v>500</v>
+      </c>
+      <c r="E162" s="53"/>
+      <c r="F162" s="53"/>
+      <c r="G162" s="53">
+        <v>500</v>
+      </c>
+      <c r="H162" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B163" s="52"/>
+      <c r="C163" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D163" s="53"/>
+      <c r="E163" s="53"/>
+      <c r="F163" s="53"/>
+      <c r="G163" s="53"/>
+      <c r="H163" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B164" s="52"/>
+      <c r="C164" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D164" s="53">
+        <v>75</v>
+      </c>
+      <c r="E164" s="53"/>
+      <c r="F164" s="53"/>
+      <c r="G164" s="53">
+        <v>500</v>
+      </c>
+      <c r="H164" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B165" s="52"/>
+      <c r="C165" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D165" s="53">
+        <v>200</v>
+      </c>
+      <c r="E165" s="53"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="53">
+        <v>500</v>
+      </c>
+      <c r="H165" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B166" s="52"/>
+      <c r="C166" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D166" s="53">
+        <v>200</v>
+      </c>
+      <c r="E166" s="53"/>
+      <c r="F166" s="53"/>
+      <c r="G166" s="53">
+        <v>500</v>
+      </c>
+      <c r="H166" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B167" s="52"/>
+      <c r="C167" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D167" s="53">
+        <v>200</v>
+      </c>
+      <c r="E167" s="53"/>
+      <c r="F167" s="53"/>
+      <c r="G167" s="53">
+        <v>500</v>
+      </c>
+      <c r="H167" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B168" s="52"/>
+      <c r="C168" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D168" s="53">
+        <v>200</v>
+      </c>
+      <c r="E168" s="53"/>
+      <c r="F168" s="53"/>
+      <c r="G168" s="53">
+        <v>500</v>
+      </c>
+      <c r="H168" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B169" s="52"/>
+      <c r="C169" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D169" s="53">
+        <v>400</v>
+      </c>
+      <c r="E169" s="53"/>
+      <c r="F169" s="53"/>
+      <c r="G169" s="53">
+        <v>500</v>
+      </c>
+      <c r="H169" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B170" s="52"/>
+      <c r="C170" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D170" s="53">
+        <v>300</v>
+      </c>
+      <c r="E170" s="53"/>
+      <c r="F170" s="53"/>
+      <c r="G170" s="53">
+        <v>500</v>
+      </c>
+      <c r="H170" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B171" s="52"/>
+      <c r="C171" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D171" s="53">
+        <v>28440</v>
+      </c>
+      <c r="E171" s="53"/>
+      <c r="F171" s="53"/>
+      <c r="G171" s="53">
         <v>29000</v>
       </c>
-      <c r="H25" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="56">
-        <v>31000</v>
-      </c>
-      <c r="E26" s="56">
-        <v>37990</v>
-      </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56">
-        <v>36000</v>
-      </c>
-      <c r="H26" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="D27" s="56">
-        <v>51600</v>
-      </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56">
-        <v>52100</v>
-      </c>
-      <c r="H27" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="56">
-        <v>30000</v>
-      </c>
-      <c r="E28" s="56">
-        <v>37990</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56">
-        <v>36000</v>
-      </c>
-      <c r="H28" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="56">
+      <c r="H171" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B172" s="52"/>
+      <c r="C172" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="D172" s="53">
+        <v>28044</v>
+      </c>
+      <c r="E172" s="53"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="53">
         <v>29000</v>
       </c>
-      <c r="E29" s="56">
-        <v>37990</v>
-      </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56">
-        <v>36000</v>
-      </c>
-      <c r="H29" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="D30" s="56">
-        <v>51000</v>
-      </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56">
-        <v>52000</v>
-      </c>
-      <c r="H30" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="D31" s="56">
-        <v>35000</v>
-      </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="56">
-        <v>36500</v>
-      </c>
-      <c r="E32" s="56">
-        <v>43990</v>
-      </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56">
-        <v>42000</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="56">
-        <v>46519</v>
-      </c>
-      <c r="E33" s="56">
-        <v>47990</v>
-      </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56">
-        <v>46200</v>
-      </c>
-      <c r="H33" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="56">
-        <v>25500</v>
-      </c>
-      <c r="E34" s="56">
-        <v>26990</v>
-      </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56">
-        <v>26000</v>
-      </c>
-      <c r="H34" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="56">
-        <v>41000</v>
-      </c>
-      <c r="E35" s="56">
-        <v>43990</v>
-      </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56">
-        <v>43000</v>
-      </c>
-      <c r="H35" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" s="56">
-        <v>38000</v>
-      </c>
-      <c r="E36" s="56">
-        <v>43990</v>
-      </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56">
-        <v>43000</v>
-      </c>
-      <c r="H36" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="D37" s="56">
-        <v>36000</v>
-      </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="56">
-        <v>57000</v>
-      </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="56">
-        <v>64900</v>
-      </c>
-      <c r="E39" s="56">
-        <v>66990</v>
-      </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56">
-        <v>65000</v>
-      </c>
-      <c r="H39" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="56">
-        <v>62000</v>
-      </c>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="D41" s="56">
-        <v>67000</v>
-      </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="D42" s="56">
-        <v>66800</v>
-      </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56">
-        <v>67500</v>
-      </c>
-      <c r="H42" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="D43" s="56">
-        <v>127500</v>
-      </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="D44" s="56">
-        <v>111300</v>
-      </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45" s="56">
-        <v>117500</v>
-      </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56">
-        <v>118500</v>
-      </c>
-      <c r="H45" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="D46" s="56">
-        <v>126000</v>
-      </c>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="56">
-        <v>27384</v>
-      </c>
-      <c r="E47" s="56">
-        <v>35990</v>
-      </c>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56">
-        <v>35000</v>
-      </c>
-      <c r="H47" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="56">
-        <v>17839</v>
-      </c>
-      <c r="E48" s="56">
-        <v>26990</v>
-      </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56">
-        <v>25000</v>
-      </c>
-      <c r="H48" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="56">
-        <v>17000</v>
-      </c>
-      <c r="E49" s="56">
-        <v>29990</v>
-      </c>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56">
-        <v>27000</v>
-      </c>
-      <c r="H49" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="56">
-        <v>35262</v>
-      </c>
-      <c r="E50" s="56">
-        <v>43990</v>
-      </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56">
-        <v>42000</v>
-      </c>
-      <c r="H50" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="56">
-        <v>50089</v>
-      </c>
-      <c r="E51" s="56">
-        <v>55990</v>
-      </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56">
-        <v>54000</v>
-      </c>
-      <c r="H51" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="56">
-        <v>65099</v>
-      </c>
-      <c r="E52" s="56">
-        <v>68990</v>
-      </c>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56">
-        <v>67000</v>
-      </c>
-      <c r="H52" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="56">
-        <v>49929</v>
-      </c>
-      <c r="E53" s="56">
-        <v>55990</v>
-      </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56">
-        <v>53000</v>
-      </c>
-      <c r="H53" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="56">
-        <v>49427</v>
-      </c>
-      <c r="E54" s="56">
-        <v>54990</v>
-      </c>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56">
-        <v>53000</v>
-      </c>
-      <c r="H54" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="56">
-        <v>69752</v>
-      </c>
-      <c r="E55" s="56">
-        <v>72990</v>
-      </c>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56">
-        <v>71000</v>
-      </c>
-      <c r="H55" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="56">
-        <v>88984</v>
-      </c>
-      <c r="E56" s="56">
-        <v>93990</v>
-      </c>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56">
-        <v>91000</v>
-      </c>
-      <c r="H56" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" s="56">
-        <v>30262</v>
-      </c>
-      <c r="E57" s="56">
-        <v>39990</v>
-      </c>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56">
-        <v>38000</v>
-      </c>
-      <c r="H57" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="56">
-        <v>45000</v>
-      </c>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="D59" s="56">
-        <v>80000</v>
-      </c>
-      <c r="E59" s="56">
-        <v>89990</v>
-      </c>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56">
-        <v>87000</v>
-      </c>
-      <c r="H59" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="56">
-        <v>60499</v>
-      </c>
-      <c r="E60" s="56">
-        <v>67990</v>
-      </c>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56">
-        <v>66000</v>
-      </c>
-      <c r="H60" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="56">
-        <v>80000</v>
-      </c>
-      <c r="E61" s="56">
-        <v>86990</v>
-      </c>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56">
-        <v>85000</v>
-      </c>
-      <c r="H61" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="56">
-        <v>115000</v>
-      </c>
-      <c r="E62" s="56">
-        <v>122990</v>
-      </c>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56">
-        <v>120000</v>
-      </c>
-      <c r="H62" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63" s="56">
-        <v>36500</v>
-      </c>
-      <c r="E63" s="56">
-        <v>34990</v>
-      </c>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56">
-        <v>34000</v>
-      </c>
-      <c r="H63" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="56">
-        <v>49099</v>
-      </c>
-      <c r="E64" s="56">
-        <v>48990</v>
-      </c>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56">
-        <v>48000</v>
-      </c>
-      <c r="H64" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="D65" s="56">
-        <v>138600</v>
-      </c>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56">
-        <v>138600</v>
-      </c>
-      <c r="H65" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D66" s="56">
-        <v>38500</v>
-      </c>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56">
-        <v>30000</v>
-      </c>
-      <c r="H66" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="D67" s="56">
-        <v>22000</v>
-      </c>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="D68" s="56">
-        <v>25000</v>
-      </c>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="D69" s="56">
-        <v>77000</v>
-      </c>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H70" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H71" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H72" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H73" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H74" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H75" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" s="55"/>
-      <c r="C76" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H76" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H77" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H78" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D79" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H79" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H80" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B81" s="55"/>
-      <c r="C81" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D81" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H81" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D82" s="56">
-        <v>5700</v>
-      </c>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56">
-        <v>6800</v>
-      </c>
-      <c r="H82" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D83" s="56">
-        <v>3063</v>
-      </c>
-      <c r="E83" s="56">
-        <v>4390</v>
-      </c>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56">
-        <v>3800</v>
-      </c>
-      <c r="H83" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="D84" s="56">
-        <v>13000</v>
-      </c>
-      <c r="E84" s="56">
-        <v>23990</v>
-      </c>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56">
-        <v>21000</v>
-      </c>
-      <c r="H84" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="B85" s="55"/>
-      <c r="C85" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="D85" s="56">
-        <v>28000</v>
-      </c>
-      <c r="E85" s="56">
-        <v>34990</v>
-      </c>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56">
-        <v>33000</v>
-      </c>
-      <c r="H85" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="55" t="s">
-        <v>316</v>
-      </c>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="D86" s="56">
-        <v>41050</v>
-      </c>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="D87" s="56">
-        <v>91600</v>
-      </c>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56">
-        <v>94000</v>
-      </c>
-      <c r="H87" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="55"/>
-      <c r="C88" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D88" s="56">
-        <v>11000</v>
-      </c>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56">
-        <v>12800</v>
-      </c>
-      <c r="H88" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89" s="55"/>
-      <c r="C89" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" s="56">
-        <v>11200</v>
-      </c>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56">
-        <v>12800</v>
-      </c>
-      <c r="H89" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B90" s="55"/>
-      <c r="C90" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D90" s="56">
-        <v>11000</v>
-      </c>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56">
-        <v>12800</v>
-      </c>
-      <c r="H90" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91" s="56">
-        <v>3800</v>
-      </c>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56">
-        <v>4500</v>
-      </c>
-      <c r="H91" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" s="56">
-        <v>3800</v>
-      </c>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56">
-        <v>4500</v>
-      </c>
-      <c r="H92" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B93" s="55"/>
-      <c r="C93" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D93" s="56">
-        <v>7600</v>
-      </c>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56">
-        <v>9500</v>
-      </c>
-      <c r="H93" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D94" s="56">
-        <v>3000</v>
-      </c>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56">
-        <v>3800</v>
-      </c>
-      <c r="H94" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D95" s="56">
-        <v>3300</v>
-      </c>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="56">
-        <v>3800</v>
-      </c>
-      <c r="H95" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D96" s="56">
-        <v>3407</v>
-      </c>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56">
-        <v>3800</v>
-      </c>
-      <c r="H96" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D97" s="56">
-        <v>3407</v>
-      </c>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56">
-        <v>3800</v>
-      </c>
-      <c r="H97" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="D98" s="56">
-        <v>31000</v>
-      </c>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="56">
-        <v>31000</v>
-      </c>
-      <c r="H98" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D99" s="56">
-        <v>35100</v>
-      </c>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56">
-        <v>28000</v>
-      </c>
-      <c r="H99" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D100" s="56">
-        <v>5784</v>
-      </c>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56">
-        <v>6200</v>
-      </c>
-      <c r="H100" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="D101" s="56">
-        <v>6788</v>
-      </c>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56">
-        <v>7500</v>
-      </c>
-      <c r="H101" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B102" s="55"/>
-      <c r="C102" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="D102" s="56">
-        <v>7362</v>
-      </c>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56">
-        <v>7500</v>
-      </c>
-      <c r="H102" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="B103" s="55"/>
-      <c r="C103" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="D103" s="56">
-        <v>23600</v>
-      </c>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56">
-        <v>24000</v>
-      </c>
-      <c r="H103" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B104" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D104" s="56">
-        <v>3063</v>
-      </c>
-      <c r="E104" s="56">
-        <v>4390</v>
-      </c>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56">
-        <v>3100</v>
-      </c>
-      <c r="H104" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="B105" s="55"/>
-      <c r="C105" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="D105" s="56">
-        <v>9235</v>
-      </c>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56">
-        <v>9900</v>
-      </c>
-      <c r="H105" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="B106" s="55"/>
-      <c r="C106" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="D106" s="56">
-        <v>9235</v>
-      </c>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56">
-        <v>9900</v>
-      </c>
-      <c r="H106" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="B107" s="55"/>
-      <c r="C107" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="D107" s="56">
-        <v>9235</v>
-      </c>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56">
-        <v>9900</v>
-      </c>
-      <c r="H107" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="B108" s="55"/>
-      <c r="C108" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D108" s="56">
-        <v>11600</v>
-      </c>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="56">
-        <v>12500</v>
-      </c>
-      <c r="H108" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="B109" s="55"/>
-      <c r="C109" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="56">
-        <v>11900</v>
-      </c>
-      <c r="E109" s="56"/>
-      <c r="F109" s="56"/>
-      <c r="G109" s="56">
-        <v>12500</v>
-      </c>
-      <c r="H109" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="B110" s="55"/>
-      <c r="C110" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="D110" s="56">
-        <v>13600</v>
-      </c>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56">
-        <v>14500</v>
-      </c>
-      <c r="H110" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="B111" s="55"/>
-      <c r="C111" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="D111" s="56">
-        <v>14700</v>
-      </c>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56">
-        <v>15800</v>
-      </c>
-      <c r="H111" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="B112" s="55"/>
-      <c r="C112" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="D112" s="56">
-        <v>18700</v>
-      </c>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56">
-        <v>19000</v>
-      </c>
-      <c r="H112" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="B113" s="55"/>
-      <c r="C113" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="D113" s="56">
-        <v>21100</v>
-      </c>
-      <c r="E113" s="56"/>
-      <c r="F113" s="56"/>
-      <c r="G113" s="56">
-        <v>22000</v>
-      </c>
-      <c r="H113" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="B114" s="55"/>
-      <c r="C114" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="D114" s="56">
-        <v>21200</v>
-      </c>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56">
-        <v>22000</v>
-      </c>
-      <c r="H114" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="B115" s="55"/>
-      <c r="C115" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="D115" s="56">
-        <v>25400</v>
-      </c>
-      <c r="E115" s="56"/>
-      <c r="F115" s="56"/>
-      <c r="G115" s="56">
-        <v>26700</v>
-      </c>
-      <c r="H115" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="B116" s="55"/>
-      <c r="C116" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="D116" s="56">
-        <v>26500</v>
-      </c>
-      <c r="E116" s="56"/>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56">
-        <v>26700</v>
-      </c>
-      <c r="H116" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="B117" s="55"/>
-      <c r="C117" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="D117" s="56">
-        <v>26500</v>
-      </c>
-      <c r="E117" s="56"/>
-      <c r="F117" s="56"/>
-      <c r="G117" s="56">
-        <v>26700</v>
-      </c>
-      <c r="H117" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="55"/>
-      <c r="C118" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="56">
-        <v>24000</v>
-      </c>
-      <c r="E118" s="56"/>
-      <c r="F118" s="56"/>
-      <c r="G118" s="56">
-        <v>24000</v>
-      </c>
-      <c r="H118" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119" s="55"/>
-      <c r="C119" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="56">
-        <v>24000</v>
-      </c>
-      <c r="E119" s="56"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="56">
-        <v>24000</v>
-      </c>
-      <c r="H119" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="B120" s="55"/>
-      <c r="C120" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="56">
-        <v>24000</v>
-      </c>
-      <c r="E120" s="56"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="56">
-        <v>24000</v>
-      </c>
-      <c r="H120" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B121" s="55"/>
-      <c r="C121" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="D121" s="56">
-        <v>13000</v>
-      </c>
-      <c r="E121" s="56">
-        <v>17990</v>
-      </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56">
-        <v>16000</v>
-      </c>
-      <c r="H121" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="B122" s="55"/>
-      <c r="C122" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="D122" s="56">
-        <v>33700</v>
-      </c>
-      <c r="E122" s="56"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="56">
-        <v>35000</v>
-      </c>
-      <c r="H122" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="B123" s="55"/>
-      <c r="C123" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="D123" s="56">
-        <v>33700</v>
-      </c>
-      <c r="E123" s="56"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56">
-        <v>35000</v>
-      </c>
-      <c r="H123" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="B124" s="55"/>
-      <c r="C124" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="D124" s="56">
-        <v>29200</v>
-      </c>
-      <c r="E124" s="56"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="56">
-        <v>29700</v>
-      </c>
-      <c r="H124" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="B125" s="55"/>
-      <c r="C125" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="D125" s="56">
-        <v>28400</v>
-      </c>
-      <c r="E125" s="56"/>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56">
-        <v>29700</v>
-      </c>
-      <c r="H125" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="B126" s="55"/>
-      <c r="C126" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="D126" s="56">
-        <v>30400</v>
-      </c>
-      <c r="E126" s="56"/>
-      <c r="F126" s="56"/>
-      <c r="G126" s="56">
-        <v>29700</v>
-      </c>
-      <c r="H126" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="B127" s="55"/>
-      <c r="C127" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="D127" s="56">
-        <v>3500</v>
-      </c>
-      <c r="E127" s="56">
-        <v>7990</v>
-      </c>
-      <c r="F127" s="56"/>
-      <c r="G127" s="56">
-        <v>7000</v>
-      </c>
-      <c r="H127" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B128" s="55"/>
-      <c r="C128" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="D128" s="56">
-        <v>8000</v>
-      </c>
-      <c r="E128" s="56">
-        <v>13990</v>
-      </c>
-      <c r="F128" s="56"/>
-      <c r="G128" s="56">
-        <v>13000</v>
-      </c>
-      <c r="H128" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="B129" s="55"/>
-      <c r="C129" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="D129" s="56">
-        <v>12000</v>
-      </c>
-      <c r="E129" s="56"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="56"/>
-      <c r="H129" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="B130" s="55"/>
-      <c r="C130" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="D130" s="56">
-        <v>44300</v>
-      </c>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
-      <c r="G130" s="56">
-        <v>45800</v>
-      </c>
-      <c r="H130" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="B131" s="55"/>
-      <c r="C131" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="D131" s="56">
-        <v>55500</v>
-      </c>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-      <c r="G131" s="56">
-        <v>57000</v>
-      </c>
-      <c r="H131" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="B132" s="55"/>
-      <c r="C132" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="D132" s="56">
-        <v>61000</v>
-      </c>
-      <c r="E132" s="56"/>
-      <c r="F132" s="56"/>
-      <c r="G132" s="56">
-        <v>62500</v>
-      </c>
-      <c r="H132" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="B133" s="55"/>
-      <c r="C133" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="D133" s="56">
-        <v>63200</v>
-      </c>
-      <c r="E133" s="56"/>
-      <c r="F133" s="56"/>
-      <c r="G133" s="56">
-        <v>63500</v>
-      </c>
-      <c r="H133" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="B134" s="55"/>
-      <c r="C134" s="55" t="s">
-        <v>311</v>
-      </c>
-      <c r="D134" s="56">
-        <v>67200</v>
-      </c>
-      <c r="E134" s="56"/>
-      <c r="F134" s="56"/>
-      <c r="G134" s="56">
-        <v>68200</v>
-      </c>
-      <c r="H134" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="B135" s="55"/>
-      <c r="C135" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="D135" s="56">
-        <v>80000</v>
-      </c>
-      <c r="E135" s="56"/>
-      <c r="F135" s="56"/>
-      <c r="G135" s="56">
-        <v>80000</v>
-      </c>
-      <c r="H135" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="B136" s="55"/>
-      <c r="C136" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D136" s="56">
-        <v>11407</v>
-      </c>
-      <c r="E136" s="56"/>
-      <c r="F136" s="56"/>
-      <c r="G136" s="56">
-        <v>13000</v>
-      </c>
-      <c r="H136" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="B137" s="55"/>
-      <c r="C137" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="D137" s="56">
-        <v>18000</v>
-      </c>
-      <c r="E137" s="56">
-        <v>19990</v>
-      </c>
-      <c r="F137" s="56"/>
-      <c r="G137" s="56">
-        <v>19000</v>
-      </c>
-      <c r="H137" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B138" s="55"/>
-      <c r="C138" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="D138" s="56">
-        <v>17000</v>
-      </c>
-      <c r="E138" s="56">
-        <v>19990</v>
-      </c>
-      <c r="F138" s="56"/>
-      <c r="G138" s="56">
-        <v>19000</v>
-      </c>
-      <c r="H138" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="B139" s="55"/>
-      <c r="C139" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D139" s="56">
-        <v>28000</v>
-      </c>
-      <c r="E139" s="56">
-        <v>34990</v>
-      </c>
-      <c r="F139" s="56"/>
-      <c r="G139" s="56">
-        <v>33000</v>
-      </c>
-      <c r="H139" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="B140" s="55"/>
-      <c r="C140" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="D140" s="56">
-        <v>68500</v>
-      </c>
-      <c r="E140" s="56"/>
-      <c r="F140" s="56"/>
-      <c r="G140" s="56">
-        <v>68800</v>
-      </c>
-      <c r="H140" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B141" s="55"/>
-      <c r="C141" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="D141" s="56">
-        <v>5500</v>
-      </c>
-      <c r="E141" s="56">
-        <v>7990</v>
-      </c>
-      <c r="F141" s="56"/>
-      <c r="G141" s="56">
-        <v>7000</v>
-      </c>
-      <c r="H141" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B142" s="55"/>
-      <c r="C142" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="D142" s="56">
-        <v>22500</v>
-      </c>
-      <c r="E142" s="56"/>
-      <c r="F142" s="56"/>
-      <c r="G142" s="56">
-        <v>22900</v>
-      </c>
-      <c r="H142" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="B143" s="55"/>
-      <c r="C143" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="D143" s="56">
-        <v>10866</v>
-      </c>
-      <c r="E143" s="56"/>
-      <c r="F143" s="56"/>
-      <c r="G143" s="56">
-        <v>11200</v>
-      </c>
-      <c r="H143" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B144" s="55"/>
-      <c r="C144" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D144" s="56">
-        <v>11800</v>
-      </c>
-      <c r="E144" s="56"/>
-      <c r="F144" s="56"/>
-      <c r="G144" s="56">
-        <v>11200</v>
-      </c>
-      <c r="H144" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="B145" s="55"/>
-      <c r="C145" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="D145" s="56">
-        <v>9518</v>
-      </c>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
-      <c r="G145" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H145" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="B146" s="55"/>
-      <c r="C146" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="D146" s="56">
-        <v>9518</v>
-      </c>
-      <c r="E146" s="56"/>
-      <c r="F146" s="56"/>
-      <c r="G146" s="56">
-        <v>10000</v>
-      </c>
-      <c r="H146" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="B147" s="55"/>
-      <c r="C147" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="D147" s="56">
-        <v>17718</v>
-      </c>
-      <c r="E147" s="56"/>
-      <c r="F147" s="56"/>
-      <c r="G147" s="56">
-        <v>22100</v>
-      </c>
-      <c r="H147" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="B148" s="55"/>
-      <c r="C148" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="D148" s="56">
-        <v>17718</v>
-      </c>
-      <c r="E148" s="56"/>
-      <c r="F148" s="56"/>
-      <c r="G148" s="56">
-        <v>22100</v>
-      </c>
-      <c r="H148" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="B149" s="55"/>
-      <c r="C149" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="D149" s="56">
-        <v>18272</v>
-      </c>
-      <c r="E149" s="56"/>
-      <c r="F149" s="56"/>
-      <c r="G149" s="56">
-        <v>22100</v>
-      </c>
-      <c r="H149" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="B150" s="55"/>
-      <c r="C150" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D150" s="56">
-        <v>18800</v>
-      </c>
-      <c r="E150" s="56"/>
-      <c r="F150" s="56"/>
-      <c r="G150" s="56">
-        <v>14000</v>
-      </c>
-      <c r="H150" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="B151" s="55"/>
-      <c r="C151" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D151" s="56">
-        <v>31100</v>
-      </c>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-      <c r="G151" s="56">
-        <v>31600</v>
-      </c>
-      <c r="H151" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="B152" s="55"/>
-      <c r="C152" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="D152" s="56">
-        <v>26800</v>
-      </c>
-      <c r="E152" s="56"/>
-      <c r="F152" s="56"/>
-      <c r="G152" s="56">
-        <v>27500</v>
-      </c>
-      <c r="H152" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="B153" s="55"/>
-      <c r="C153" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D153" s="56">
-        <v>27000</v>
-      </c>
-      <c r="E153" s="56"/>
-      <c r="F153" s="56"/>
-      <c r="G153" s="56">
-        <v>27500</v>
-      </c>
-      <c r="H153" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="B154" s="55"/>
-      <c r="C154" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="D154" s="56">
-        <v>26200</v>
-      </c>
-      <c r="E154" s="56"/>
-      <c r="F154" s="56"/>
-      <c r="G154" s="56">
-        <v>27500</v>
-      </c>
-      <c r="H154" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="B155" s="55"/>
-      <c r="C155" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="D155" s="56">
-        <v>35300</v>
-      </c>
-      <c r="E155" s="56"/>
-      <c r="F155" s="56"/>
-      <c r="G155" s="56">
-        <v>35600</v>
-      </c>
-      <c r="H155" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="B156" s="55"/>
-      <c r="C156" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="D156" s="56">
-        <v>31230</v>
-      </c>
-      <c r="E156" s="56"/>
-      <c r="F156" s="56"/>
-      <c r="G156" s="56">
-        <v>31500</v>
-      </c>
-      <c r="H156" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B157" s="55"/>
-      <c r="C157" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D157" s="56">
-        <v>21200</v>
-      </c>
-      <c r="E157" s="56"/>
-      <c r="F157" s="56"/>
-      <c r="G157" s="56">
-        <v>22700</v>
-      </c>
-      <c r="H157" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B158" s="55"/>
-      <c r="C158" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D158" s="56">
-        <v>500</v>
-      </c>
-      <c r="E158" s="56"/>
-      <c r="F158" s="56"/>
-      <c r="G158" s="56">
-        <v>500</v>
-      </c>
-      <c r="H158" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="B159" s="55"/>
-      <c r="C159" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D159" s="56"/>
-      <c r="E159" s="56"/>
-      <c r="F159" s="56"/>
-      <c r="G159" s="56"/>
-      <c r="H159" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B160" s="55"/>
-      <c r="C160" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D160" s="56">
-        <v>75</v>
-      </c>
-      <c r="E160" s="56"/>
-      <c r="F160" s="56"/>
-      <c r="G160" s="56">
-        <v>500</v>
-      </c>
-      <c r="H160" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="B161" s="55"/>
-      <c r="C161" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D161" s="56">
-        <v>200</v>
-      </c>
-      <c r="E161" s="56"/>
-      <c r="F161" s="56"/>
-      <c r="G161" s="56">
-        <v>500</v>
-      </c>
-      <c r="H161" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B162" s="55"/>
-      <c r="C162" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="D162" s="56">
-        <v>200</v>
-      </c>
-      <c r="E162" s="56"/>
-      <c r="F162" s="56"/>
-      <c r="G162" s="56">
-        <v>500</v>
-      </c>
-      <c r="H162" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B163" s="55"/>
-      <c r="C163" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D163" s="56">
-        <v>200</v>
-      </c>
-      <c r="E163" s="56"/>
-      <c r="F163" s="56"/>
-      <c r="G163" s="56">
-        <v>500</v>
-      </c>
-      <c r="H163" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="B164" s="55"/>
-      <c r="C164" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D164" s="56">
-        <v>200</v>
-      </c>
-      <c r="E164" s="56"/>
-      <c r="F164" s="56"/>
-      <c r="G164" s="56">
-        <v>500</v>
-      </c>
-      <c r="H164" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="B165" s="55"/>
-      <c r="C165" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D165" s="56">
-        <v>400</v>
-      </c>
-      <c r="E165" s="56"/>
-      <c r="F165" s="56"/>
-      <c r="G165" s="56">
-        <v>500</v>
-      </c>
-      <c r="H165" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B166" s="55"/>
-      <c r="C166" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D166" s="56">
-        <v>300</v>
-      </c>
-      <c r="E166" s="56"/>
-      <c r="F166" s="56"/>
-      <c r="G166" s="56">
-        <v>500</v>
-      </c>
-      <c r="H166" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="B167" s="55"/>
-      <c r="C167" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="D167" s="56">
-        <v>28440</v>
-      </c>
-      <c r="E167" s="56"/>
-      <c r="F167" s="56"/>
-      <c r="G167" s="56">
-        <v>29000</v>
-      </c>
-      <c r="H167" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="B168" s="55"/>
-      <c r="C168" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="D168" s="56">
-        <v>28044</v>
-      </c>
-      <c r="E168" s="56"/>
-      <c r="F168" s="56"/>
-      <c r="G168" s="56">
-        <v>29000</v>
-      </c>
-      <c r="H168" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="49"/>
-      <c r="B169" s="49"/>
-      <c r="C169" s="49"/>
-      <c r="D169" s="50"/>
-      <c r="E169" s="50"/>
-      <c r="F169" s="50"/>
-      <c r="G169" s="50"/>
-      <c r="H169" s="51"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="46"/>
-      <c r="B170" s="46"/>
-      <c r="C170" s="46"/>
-      <c r="D170" s="47"/>
-      <c r="E170" s="47"/>
-      <c r="F170" s="47"/>
-      <c r="G170" s="47"/>
-      <c r="H170" s="48"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="46"/>
-      <c r="B171" s="46"/>
-      <c r="C171" s="46"/>
-      <c r="D171" s="47"/>
-      <c r="E171" s="47"/>
-      <c r="F171" s="47"/>
-      <c r="G171" s="47"/>
-      <c r="H171" s="48"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="46"/>
-      <c r="B172" s="46"/>
-      <c r="C172" s="46"/>
-      <c r="D172" s="47"/>
-      <c r="E172" s="47"/>
-      <c r="F172" s="47"/>
-      <c r="G172" s="47"/>
-      <c r="H172" s="48"/>
+      <c r="H172" s="54" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="46"/>
